--- a/suppxls/Scen_CTax.xlsx
+++ b/suppxls/Scen_CTax.xlsx
@@ -8,32 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F243CA29-485C-43B5-B198-E67C41AFF591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4247E-85B0-49F7-B5B8-8665098C7533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{7C70B42E-9201-48A9-B8F0-1466C79FDCED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7C70B42E-9201-48A9-B8F0-1466C79FDCED}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2TaxInputs" sheetId="5" r:id="rId1"/>
     <sheet name="Commodities_BASE" sheetId="1" r:id="rId2"/>
-    <sheet name="TID" sheetId="2" r:id="rId3"/>
-    <sheet name="TS_COMAGG" sheetId="3" r:id="rId4"/>
-    <sheet name="ATTRIB_COMAGG" sheetId="12" r:id="rId5"/>
-    <sheet name="TS_TAX" sheetId="8" r:id="rId6"/>
-    <sheet name="Inflation" sheetId="9" r:id="rId7"/>
-    <sheet name="Text budget speech and BR" sheetId="10" r:id="rId8"/>
+    <sheet name="EmissionsAggregationCO2eq" sheetId="13" r:id="rId3"/>
+    <sheet name="TS_TAX" sheetId="8" r:id="rId4"/>
+    <sheet name="Inflation" sheetId="9" r:id="rId5"/>
+    <sheet name="Text budget speech and BR" sheetId="10" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="\I">#REF!</definedName>
     <definedName name="\P">#REF!</definedName>
     <definedName name="__FDS_HYPERLINK_TOGGLE_STATE__" hidden="1">"ON"</definedName>
+    <definedName name="_AMO_RefreshMultipleList" hidden="1">"'296899469 426988102 362274166 589584065 285770244'"</definedName>
+    <definedName name="_AMO_SingleObject_296899469__A1" hidden="1">#REF!</definedName>
+    <definedName name="_AMO_UniqueIdentifier" hidden="1">"'ee2dcedb-2b19-4872-8d76-977f9596c89e'"</definedName>
+    <definedName name="_AMO_XmlVersion" hidden="1">"'1'"</definedName>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
     <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
@@ -57,31 +63,45 @@
     <definedName name="aa">'[1]Oil Consumption – barrels'!#REF!</definedName>
     <definedName name="AGR">[2]Index!$C$7</definedName>
     <definedName name="COM">[2]Index!$C$8</definedName>
+    <definedName name="CV_Coal">'[7]Calorific values'!$B$18</definedName>
+    <definedName name="CV_GasSASOL">'[7]Calorific values'!$B$8</definedName>
+    <definedName name="Demand.Sectors" localSheetId="2">[8]Index!$D$2:$J$2</definedName>
     <definedName name="Demand.Sectors">[3]Index!$D$2:$J$2</definedName>
+    <definedName name="diesel.cv">[9]units!$B$2</definedName>
     <definedName name="discount_rate">#REF!</definedName>
     <definedName name="dr">#REF!</definedName>
     <definedName name="drate">'[4]TechWATv5 (supwat5)'!$E$3</definedName>
+    <definedName name="emissions_start" localSheetId="2">[8]NameConv!$AY$4</definedName>
     <definedName name="emissions_start">[3]NameConv!$AY$4</definedName>
+    <definedName name="emissions_types" localSheetId="2">[8]NameConv!$AX$3</definedName>
     <definedName name="emissions_types">[3]NameConv!$AX$3</definedName>
     <definedName name="epp_start">#REF!</definedName>
     <definedName name="etech_data">#REF!</definedName>
     <definedName name="etech_parameters">#REF!</definedName>
     <definedName name="Exist_basic_data_start">#REF!</definedName>
+    <definedName name="FuelNames" localSheetId="2">[6]NameConv!$B$5:$C$46</definedName>
     <definedName name="FuelNames">[3]NameConv!$B$5:$C$44</definedName>
+    <definedName name="FuelNamesLong">[6]NameConv!$B$5:$B$46</definedName>
+    <definedName name="FuelNamesShort">[6]NameConv!$C$5:$C$46</definedName>
+    <definedName name="gwpch4">'[7]SASOL CC 2019 report'!$E$98</definedName>
+    <definedName name="gwpn2o">'[7]SASOL CC 2019 report'!$E$97</definedName>
+    <definedName name="H2.LHV.MJ_kg">'[8]Hydrogen-ELT'!$D$39</definedName>
     <definedName name="HTML1_1" hidden="1">"'[Syb96.xls]ESI in South Africa'!$A$2:$C$22"</definedName>
     <definedName name="HTML1_11" hidden="1">1</definedName>
     <definedName name="HTML1_12" hidden="1">"C:\NER\ESIFlow.htm"</definedName>
     <definedName name="HTML1_2" hidden="1">-4146</definedName>
     <definedName name="HTML1_3" hidden="1">"C:\NER\Elec\Temp.htm"</definedName>
     <definedName name="HTMLCount" hidden="1">1</definedName>
+    <definedName name="inchtocentimetre" localSheetId="2">[6]FuelDistribution!$A$20</definedName>
     <definedName name="inchtocentimetre">[3]Distribution!$A$17</definedName>
     <definedName name="IND">[2]Index!$C$9</definedName>
     <definedName name="INIT">#REF!</definedName>
     <definedName name="InvConstraint">#REF!</definedName>
     <definedName name="LEAP">#REF!</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="Model_RUN_code" localSheetId="2">[8]Index!$A$2</definedName>
     <definedName name="Model_RUN_code">[3]Index!$A$2</definedName>
     <definedName name="New_basic_data_start">'[5]New Capacity basic data'!$B$9</definedName>
     <definedName name="newtech_cat">#REF!</definedName>
@@ -95,7 +115,13 @@
     <definedName name="par_TID_Ntech">#REF!</definedName>
     <definedName name="par_TS_ETech">#REF!</definedName>
     <definedName name="PeakContribution.Wind">#REF!</definedName>
+    <definedName name="petrol.cv">[9]units!$B$3</definedName>
     <definedName name="Print1">#REF!</definedName>
+    <definedName name="REF.crude.CAP_rel.2020">'[8]Crude refineries'!$F$56</definedName>
+    <definedName name="REF.crude.CAP_rel.2021">'[8]Crude refineries'!$G$56</definedName>
+    <definedName name="REF.crude.CAP_rel.2022">'[8]Crude refineries'!$H$56</definedName>
+    <definedName name="REF.crude.CAP_rel.2030">'[8]Crude refineries'!$J$56</definedName>
+    <definedName name="REF.crude.CAP_rel.2040">'[8]Crude refineries'!$L$56</definedName>
     <definedName name="RES">[2]Index!$C$10</definedName>
     <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
     <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
@@ -120,17 +146,34 @@
     <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
+    <definedName name="Sector.Agriculture" localSheetId="2">[8]Index!$D$2</definedName>
     <definedName name="Sector.Agriculture">[3]Index!$D$2</definedName>
+    <definedName name="Sector.Commercial" localSheetId="2">[8]Index!$E$2</definedName>
     <definedName name="Sector.Commercial">[3]Index!$E$2</definedName>
+    <definedName name="Sector.Industry" localSheetId="2">[8]Index!$F$2</definedName>
     <definedName name="Sector.Industry">[3]Index!$F$2</definedName>
+    <definedName name="Sector.Power" localSheetId="2">[8]Index!$I$2</definedName>
     <definedName name="Sector.Power">[3]Index!$I$2</definedName>
+    <definedName name="Sector.Residential" localSheetId="2">[8]Index!$H$2</definedName>
     <definedName name="Sector.Residential">[3]Index!$H$2</definedName>
+    <definedName name="Sector.Supply" localSheetId="2">[8]Index!$J$2</definedName>
     <definedName name="Sector.Supply">[3]Index!$J$2</definedName>
+    <definedName name="Sector.Transport" localSheetId="2">[8]Index!$G$2</definedName>
     <definedName name="Sector.Transport">[3]Index!$G$2</definedName>
+    <definedName name="sector_prefix" localSheetId="2">[6]LNG!#REF!</definedName>
     <definedName name="sector_prefix">[3]UPS!$B$6</definedName>
+    <definedName name="SectorNamesLong">[6]NameConv!$C$51:$C$59</definedName>
+    <definedName name="SectorNamesShort">[6]NameConv!$B$51:$B$59</definedName>
     <definedName name="TRA">[2]Index!$C$11</definedName>
     <definedName name="XLSIMSI" hidden="1">{"Sim",3,"Output 1","'Reworked data'!$AI$84","Output 2","'Reworked data'!$AJ$84","Output 3","'Reworked data'!$AK$84","1","2","100","0"}</definedName>
     <definedName name="XLSIMSIM" hidden="1">{"Sim",3,"Output 1","'Reworked data'!$AI$84","Output 2","'Reworked data'!$AJ$84","Output 3","'Reworked data'!$AK$84","1","2","100","0"}</definedName>
+    <definedName name="zar.2006">[10]Deflator!$L$4</definedName>
+    <definedName name="zar.2009">[10]Deflator!$O$4</definedName>
+    <definedName name="zar.2010">[10]Deflator!$P$4</definedName>
+    <definedName name="zar.2012">[10]Deflator!$R$4</definedName>
+    <definedName name="zar.2013">[10]Deflator!$S$4</definedName>
+    <definedName name="zar.2014">[10]Deflator!$T$4</definedName>
+    <definedName name="zar.2015">[10]Deflator!$U$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -147,42 +190,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={98ADEDF8-CA18-4AAD-9D74-11EB9541DB1F}</author>
-  </authors>
-  <commentList>
-    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{98ADEDF8-CA18-4AAD-9D74-11EB9541DB1F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Changed to AR5 - August 2021</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={441F2B45-0803-45B0-92A3-43035FE9A3B1}</author>
-  </authors>
-  <commentList>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{441F2B45-0803-45B0-92A3-43035FE9A3B1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Changed to AR5 - August 2021</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -208,26 +215,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
   <si>
     <t>REGION1</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ANNUAL</t>
   </si>
   <si>
     <t>ITEMS</t>
   </si>
   <si>
-    <t>TID DATA</t>
-  </si>
-  <si>
-    <t>TS DATA</t>
-  </si>
-  <si>
     <t>CO2 Price Level</t>
   </si>
   <si>
@@ -258,12 +256,6 @@
     <t>KT</t>
   </si>
   <si>
-    <t>COM,ENV,ANNUAL,GHG</t>
-  </si>
-  <si>
-    <t>Fugitive Emissions Region</t>
-  </si>
-  <si>
     <t>CO2SF</t>
   </si>
   <si>
@@ -289,402 +281,6 @@
   </si>
   <si>
     <t>N2OS South Africa</t>
-  </si>
-  <si>
-    <t>AGRCO2S</t>
-  </si>
-  <si>
-    <t>Agriculture Carbon dioxide South Africa</t>
-  </si>
-  <si>
-    <t>AGRCH4S</t>
-  </si>
-  <si>
-    <t>Agriculture Methane South Africa</t>
-  </si>
-  <si>
-    <t>AGRN2OS</t>
-  </si>
-  <si>
-    <t>Agriculture Nitrous Oxide South Africa</t>
-  </si>
-  <si>
-    <t>AGRSOXS</t>
-  </si>
-  <si>
-    <t>Agriculture Sulphur gases South Africa</t>
-  </si>
-  <si>
-    <t>AGRNOXS</t>
-  </si>
-  <si>
-    <t>Agriculture Nitrogen gases South Africa</t>
-  </si>
-  <si>
-    <t>AGRCMOX</t>
-  </si>
-  <si>
-    <t>Agriculture Carbon monoxide South Africa</t>
-  </si>
-  <si>
-    <t>AGRNMVS</t>
-  </si>
-  <si>
-    <t>Agriculture NMVOCs South Africa</t>
-  </si>
-  <si>
-    <t>AGRP10S</t>
-  </si>
-  <si>
-    <t>Agriculture PM10 South Africa</t>
-  </si>
-  <si>
-    <t>COMCO2S</t>
-  </si>
-  <si>
-    <t>Commercial Carbon dioxide South Africa</t>
-  </si>
-  <si>
-    <t>COMCH4S</t>
-  </si>
-  <si>
-    <t>Commercial Methane South Africa</t>
-  </si>
-  <si>
-    <t>COMN2OS</t>
-  </si>
-  <si>
-    <t>Commercial Nitrous Oxide South Africa</t>
-  </si>
-  <si>
-    <t>COMSOXS</t>
-  </si>
-  <si>
-    <t>Commercial Sulphur gases South Africa</t>
-  </si>
-  <si>
-    <t>COMNOXS</t>
-  </si>
-  <si>
-    <t>Commercial Nitrogen gases South Africa</t>
-  </si>
-  <si>
-    <t>COMCMOX</t>
-  </si>
-  <si>
-    <t>Commercial Carbon monoxide South Africa</t>
-  </si>
-  <si>
-    <t>COMNMVS</t>
-  </si>
-  <si>
-    <t>Commercial NMVOCs South Africa</t>
-  </si>
-  <si>
-    <t>COMP10S</t>
-  </si>
-  <si>
-    <t>Commercial PM10 South Africa</t>
-  </si>
-  <si>
-    <t>INDCO2S</t>
-  </si>
-  <si>
-    <t>Industry Carbon dioxide South Africa</t>
-  </si>
-  <si>
-    <t>INDCH4S</t>
-  </si>
-  <si>
-    <t>Industry Methane South Africa</t>
-  </si>
-  <si>
-    <t>INDN2OS</t>
-  </si>
-  <si>
-    <t>Industry Nitrous Oxide South Africa</t>
-  </si>
-  <si>
-    <t>INDSOXS</t>
-  </si>
-  <si>
-    <t>Industry Sulphur gases South Africa</t>
-  </si>
-  <si>
-    <t>INDNOXS</t>
-  </si>
-  <si>
-    <t>Industry Nitrogen gases South Africa</t>
-  </si>
-  <si>
-    <t>INDCMOX</t>
-  </si>
-  <si>
-    <t>Industry Carbon monoxide South Africa</t>
-  </si>
-  <si>
-    <t>INDNMVS</t>
-  </si>
-  <si>
-    <t>Industry NMVOCs South Africa</t>
-  </si>
-  <si>
-    <t>INDP10S</t>
-  </si>
-  <si>
-    <t>Industry PM10 South Africa</t>
-  </si>
-  <si>
-    <t>TRACO2S</t>
-  </si>
-  <si>
-    <t>Transport Carbon dioxide South Africa</t>
-  </si>
-  <si>
-    <t>TRACH4S</t>
-  </si>
-  <si>
-    <t>Transport Methane South Africa</t>
-  </si>
-  <si>
-    <t>TRAN2OS</t>
-  </si>
-  <si>
-    <t>Transport Nitrous Oxide South Africa</t>
-  </si>
-  <si>
-    <t>TRASOXS</t>
-  </si>
-  <si>
-    <t>Transport Sulphur gases South Africa</t>
-  </si>
-  <si>
-    <t>TRANOXS</t>
-  </si>
-  <si>
-    <t>Transport Nitrogen gases South Africa</t>
-  </si>
-  <si>
-    <t>TRACMOX</t>
-  </si>
-  <si>
-    <t>Transport Carbon monoxide South Africa</t>
-  </si>
-  <si>
-    <t>TRANMVS</t>
-  </si>
-  <si>
-    <t>Transport NMVOCs South Africa</t>
-  </si>
-  <si>
-    <t>TRAP10S</t>
-  </si>
-  <si>
-    <t>Transport PM10 South Africa</t>
-  </si>
-  <si>
-    <t>RESCO2S</t>
-  </si>
-  <si>
-    <t>Residential Carbon dioxide South Africa</t>
-  </si>
-  <si>
-    <t>RESCH4S</t>
-  </si>
-  <si>
-    <t>Residential Methane South Africa</t>
-  </si>
-  <si>
-    <t>RESN2OS</t>
-  </si>
-  <si>
-    <t>Residential Nitrous Oxide South Africa</t>
-  </si>
-  <si>
-    <t>RESSOXS</t>
-  </si>
-  <si>
-    <t>Residential Sulphur gases South Africa</t>
-  </si>
-  <si>
-    <t>RESNOXS</t>
-  </si>
-  <si>
-    <t>Residential Nitrogen gases South Africa</t>
-  </si>
-  <si>
-    <t>RESCMOX</t>
-  </si>
-  <si>
-    <t>Residential Carbon monoxide South Africa</t>
-  </si>
-  <si>
-    <t>RESNMVS</t>
-  </si>
-  <si>
-    <t>Residential NMVOCs South Africa</t>
-  </si>
-  <si>
-    <t>RESP10S</t>
-  </si>
-  <si>
-    <t>Residential PM10 South Africa</t>
-  </si>
-  <si>
-    <t>PWRCO2S</t>
-  </si>
-  <si>
-    <t>Power Sector Carbon dioxide South Africa</t>
-  </si>
-  <si>
-    <t>PWRCH4S</t>
-  </si>
-  <si>
-    <t>Power Sector Methane South Africa</t>
-  </si>
-  <si>
-    <t>PWRN2OS</t>
-  </si>
-  <si>
-    <t>Power Sector Nitrous Oxide South Africa</t>
-  </si>
-  <si>
-    <t>PWRSOXS</t>
-  </si>
-  <si>
-    <t>Power Sector Sulphur gases South Africa</t>
-  </si>
-  <si>
-    <t>PWRNOXS</t>
-  </si>
-  <si>
-    <t>Power Sector Nitrogen gases South Africa</t>
-  </si>
-  <si>
-    <t>PWRCMOX</t>
-  </si>
-  <si>
-    <t>Power Sector Carbon monoxide South Africa</t>
-  </si>
-  <si>
-    <t>PWRNMVS</t>
-  </si>
-  <si>
-    <t>Power Sector NMVOCs South Africa</t>
-  </si>
-  <si>
-    <t>PWRP10S</t>
-  </si>
-  <si>
-    <t>Power Sector PM10 South Africa</t>
-  </si>
-  <si>
-    <t>PWRCO2R</t>
-  </si>
-  <si>
-    <t>Power Sector Carbon dioxide Region</t>
-  </si>
-  <si>
-    <t>PWRCH4R</t>
-  </si>
-  <si>
-    <t>Power Sector Methane Region</t>
-  </si>
-  <si>
-    <t>PWRN2OR</t>
-  </si>
-  <si>
-    <t>Power Sector Nitrous Oxide Region</t>
-  </si>
-  <si>
-    <t>PWRSOXR</t>
-  </si>
-  <si>
-    <t>Power Sector Sulphur gases Region</t>
-  </si>
-  <si>
-    <t>PWRNOXR</t>
-  </si>
-  <si>
-    <t>Power Sector Nitrogen gases Region</t>
-  </si>
-  <si>
-    <t>PWRCMOR</t>
-  </si>
-  <si>
-    <t>Power Sector Carbon monoxide Region</t>
-  </si>
-  <si>
-    <t>PWRNMVR</t>
-  </si>
-  <si>
-    <t>Power Sector NMVOCs Region</t>
-  </si>
-  <si>
-    <t>PWRP10R</t>
-  </si>
-  <si>
-    <t>Power Sector PM10 Region</t>
-  </si>
-  <si>
-    <t>UPSCO2S</t>
-  </si>
-  <si>
-    <t>Supply Sector Carbon dioxide South Africa</t>
-  </si>
-  <si>
-    <t>UPSCH4S</t>
-  </si>
-  <si>
-    <t>Supply Sector Methane South Africa</t>
-  </si>
-  <si>
-    <t>UPSN2OS</t>
-  </si>
-  <si>
-    <t>Supply Sector Nitrous Oxide South Africa</t>
-  </si>
-  <si>
-    <t>UPSSOXS</t>
-  </si>
-  <si>
-    <t>Supply Sector Sulphur gases South Africa</t>
-  </si>
-  <si>
-    <t>UPSNOXS</t>
-  </si>
-  <si>
-    <t>Supply Sector Nitrogen gases South Africa</t>
-  </si>
-  <si>
-    <t>UPSCMOX</t>
-  </si>
-  <si>
-    <t>Supply Sector Carbon monoxide South Africa</t>
-  </si>
-  <si>
-    <t>UPSNMVS</t>
-  </si>
-  <si>
-    <t>Supply Sector NMVOCs South Africa</t>
-  </si>
-  <si>
-    <t>UPSP10S</t>
-  </si>
-  <si>
-    <t>Supply Sector PM10 South Africa</t>
-  </si>
-  <si>
-    <t>CO2eqST</t>
-  </si>
-  <si>
-    <t>CO2eq for Carbon tax accounting</t>
-  </si>
-  <si>
-    <t>COM_AGG</t>
-  </si>
-  <si>
-    <t>CO2EQST</t>
   </si>
   <si>
     <t>COM_CSTNET</t>
@@ -1154,9 +750,6 @@
     <t>CTSLvl</t>
   </si>
   <si>
-    <t>[nothing legacy]</t>
-  </si>
-  <si>
     <t>ENV</t>
   </si>
   <si>
@@ -1169,19 +762,94 @@
     <t>Commodity</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>CommIn</t>
-  </si>
-  <si>
-    <t>CommOut</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Converts emissions from native units to CO2eq for carbon tax accounting, excludes RES and COM</t>
+    <t>* South Africa Combustion Emissions</t>
+  </si>
+  <si>
+    <t>CO2EQS</t>
+  </si>
+  <si>
+    <t>CO2EQS South Africa</t>
+  </si>
+  <si>
+    <t>CO2C</t>
+  </si>
+  <si>
+    <t>Combustion CO2 South Africa</t>
+  </si>
+  <si>
+    <t>CH4C</t>
+  </si>
+  <si>
+    <t>SOXS</t>
+  </si>
+  <si>
+    <t>SOXS South Africa</t>
+  </si>
+  <si>
+    <t>NOXS</t>
+  </si>
+  <si>
+    <t>NOXS South Africa</t>
+  </si>
+  <si>
+    <t>CMOX</t>
+  </si>
+  <si>
+    <t>CMOX South Africa</t>
+  </si>
+  <si>
+    <t>NMVS</t>
+  </si>
+  <si>
+    <t>NMVS South Africa</t>
+  </si>
+  <si>
+    <t>P10S</t>
+  </si>
+  <si>
+    <t>PM10 South Africa</t>
+  </si>
+  <si>
+    <t>Emissions Aggregation - CO2eq</t>
+  </si>
+  <si>
+    <t>~COMAGG</t>
+  </si>
+  <si>
+    <t>CF4</t>
+  </si>
+  <si>
+    <t>CF6</t>
+  </si>
+  <si>
+    <t>Combustion</t>
+  </si>
+  <si>
+    <t>Fugitive</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Combustion CH4 South Africa</t>
+  </si>
+  <si>
+    <t>* South Africa Fugitive Emissions</t>
+  </si>
+  <si>
+    <t>* South Africa Process Emissions</t>
+  </si>
+  <si>
+    <t>Process Emissions South Africa</t>
+  </si>
+  <si>
+    <t>Process Emissions FerroChrome South Africa</t>
+  </si>
+  <si>
+    <t>Process Emissions FerroManganese South Africa</t>
+  </si>
+  <si>
+    <t>Process Emissions Cement South Africa</t>
   </si>
 </sst>
 </file>
@@ -1196,11 +864,18 @@
     <numFmt numFmtId="167" formatCode="_-[$$-404]* #,##0_-;\-[$$-404]* #,##0_-;_-[$$-404]* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1219,19 +894,6 @@
       <sz val="8"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1349,8 +1011,35 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1360,11 +1049,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1379,14 +1063,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1418,108 +1096,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="9" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="8" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="6"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="3" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle name="Currency 2" xfId="10" xr:uid="{22EEDF44-4C5D-4794-B5EE-C5C8637DB51C}"/>
-    <cellStyle name="Explanatory Text" xfId="8" builtinId="53"/>
-    <cellStyle name="Good" xfId="5" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="6" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="7" builtinId="19"/>
-    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{A3F19C8E-AD81-4DBD-AB7A-BC4E7ED94A8E}"/>
+  <cellStyles count="13">
+    <cellStyle name="Currency 2" xfId="9" xr:uid="{22EEDF44-4C5D-4794-B5EE-C5C8637DB51C}"/>
+    <cellStyle name="Explanatory Text" xfId="7" builtinId="53"/>
+    <cellStyle name="Heading 2 2 2" xfId="11" xr:uid="{EE9B9C5B-98F3-4514-AE71-3800C91DD1CA}"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19"/>
+    <cellStyle name="Hyperlink 2" xfId="10" xr:uid="{A3F19C8E-AD81-4DBD-AB7A-BC4E7ED94A8E}"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 13" xfId="2" xr:uid="{1030A58F-AC87-4AC7-BEDA-0B28F361A273}"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{76649DB0-523C-4EED-AA29-E0904107359B}"/>
     <cellStyle name="Normal 2 2 2" xfId="4" xr:uid="{43AB01CA-EFE9-462C-828F-E924A57F874B}"/>
-    <cellStyle name="Normal 3" xfId="9" xr:uid="{5F62C08F-F918-4890-928E-4D18768A4B72}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{5F62C08F-F918-4890-928E-4D18768A4B72}"/>
+    <cellStyle name="Normal 4" xfId="12" xr:uid="{DA0C4CD4-6B14-43D5-A2F5-F7E1839BD1B0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4059,6 +3748,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14633F5-7AD8-4186-9F5E-C2B343E16C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035040" y="38100"/>
+          <a:ext cx="4495800" cy="1410971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -4146,6 +3884,43 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Deflator"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="4">
+          <cell r="L4">
+            <v>1.7734731669022814</v>
+          </cell>
+          <cell r="O4">
+            <v>1.3925713075799215</v>
+          </cell>
+          <cell r="P4">
+            <v>1.3094103081137336</v>
+          </cell>
+          <cell r="R4">
+            <v>1.1636030437253695</v>
+          </cell>
+          <cell r="S4">
+            <v>1.0978875034592741</v>
+          </cell>
+          <cell r="T4">
+            <v>1.0377447099466544</v>
+          </cell>
+          <cell r="U4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4906,373 +4681,765 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Inflation"/>
-      <sheetName val="Graphs"/>
-      <sheetName val="Text budget speech and BR"/>
+      <sheetName val="Index"/>
+      <sheetName val="ChangeLog"/>
+      <sheetName val="NameConv"/>
+      <sheetName val="EnergyBalance2017"/>
+      <sheetName val="ITEMS_Tech"/>
+      <sheetName val="ITEMS_Comm"/>
+      <sheetName val="SUP"/>
+      <sheetName val="LNG"/>
+      <sheetName val="GasPipeLines"/>
+      <sheetName val="FugitiveEmissions"/>
+      <sheetName val="EmissionsAggregationCO2eq"/>
+      <sheetName val="FuelTechs"/>
+      <sheetName val="Liq Fuel Prices"/>
+      <sheetName val="IEA_WEO"/>
+      <sheetName val="FuelDistribution"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Biogas</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>BIG</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Bioethanol</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>BIE</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Biodiesel</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>BID</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Biomass bagasse</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>BIB</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Biomass Other</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>BIO</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Biomass Wood</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>BIW</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Coal</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>COA</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Coal Coking</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>COK</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Coal Discard</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>CLD</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Coal low grade</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>CLE</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Coal for plants in Botswana</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>CRB</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Coal for Material Use</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>CMU</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Electricity</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>ELC</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Electricity Upstream Transmission</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>ELCC</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Gas South Africa</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>GAS</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Gas Southern Mozambique</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>GRS</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Gas Namibia</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>GRN</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Gas Regional LNG</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>GRL</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Gas International LNG</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>GWL</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Gas Northern Mozambique</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>GRM</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Gas Indigenous Ibhubezi</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>GIB</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Gas Indigenous Shale</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>GIH</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Coastal Gas</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>GIC</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Gas Material Use</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>GMU</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Gas Methane Rich</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>GIM</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Heat-Steam</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>HET</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Heat-Steam Existing</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>HEE</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Heat-Steam New</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>HEN</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Hydro</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>HYD</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Hydrogen</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>HGN</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Nuclear</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>NUC</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Oil Av Gasoline</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>OAG</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Oil Crude</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>OCR</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Oil Diesel</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>ODS</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Oil Gasoline</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>OGS</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Oil HFO</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>OHF</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Oil Kerosene</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>OKE</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>Oil LPG</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>OLP</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Oil Other</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>OTH</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Solar</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>SOL</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Wind</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>WND</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Waste</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>WAS</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>AGR</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Agriculture</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>COM</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Commerce</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>IND</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Industry</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>PWR</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Power</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>RES</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Residential</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>TRA</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Transport</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>UPS</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Upstream</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
+        <row r="20">
+          <cell r="A20">
+            <v>2.54</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SASOL NIR 2017"/>
+      <sheetName val="SASOL Commodities"/>
+      <sheetName val="NERSA2017"/>
+      <sheetName val="GAS 2000-2029 CY"/>
+      <sheetName val="SASOL CC 2019 report"/>
+      <sheetName val="FTS-Unallocated"/>
+      <sheetName val="Secunda Emissions 2019 etc"/>
+      <sheetName val="Calorific values"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Headline C tax rate to $30 in 2030</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v xml:space="preserve"> 60% allowance to 2025, then phased out to 0% in 2030</v>
-          </cell>
-        </row>
+        <row r="11">
+          <cell r="U11">
+            <v>30.761111</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="D10">
+            <v>3809</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="97">
+          <cell r="E97">
+            <v>296</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="E98">
+            <v>23</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="8">
+          <cell r="B8">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>24.3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Index"/>
+      <sheetName val="ChangeLog"/>
+      <sheetName val="NameConv"/>
+      <sheetName val="REGIONS"/>
+      <sheetName val="2006EB"/>
+      <sheetName val="2012EB"/>
+      <sheetName val="Liq Fuel Prices"/>
+      <sheetName val="Coal price"/>
+      <sheetName val="Oil price"/>
+      <sheetName val="Gas Price"/>
+      <sheetName val="Fugitive emissions"/>
+      <sheetName val="Distribution"/>
+      <sheetName val="SUP"/>
+      <sheetName val="ITEMS_STech"/>
+      <sheetName val="TS STech"/>
+      <sheetName val="TS STechPEX"/>
+      <sheetName val="TID STech"/>
+      <sheetName val="ITEMS_Comm"/>
+      <sheetName val="TS ZTech"/>
+      <sheetName val="TID ZTech"/>
+      <sheetName val="Crude refineries"/>
+      <sheetName val="Cleaner Fuels Phase-2"/>
+      <sheetName val="GTL and CTL"/>
+      <sheetName val="SummaryRef"/>
+      <sheetName val="RefineriesRES"/>
+      <sheetName val="SasolRES2012"/>
+      <sheetName val="SasolRES-2017"/>
+      <sheetName val="GAS 2000-2029 CY"/>
+      <sheetName val="SASOL CC 2019 report"/>
+      <sheetName val="Secunda Emissions 2019"/>
+      <sheetName val="RefineriesData"/>
+      <sheetName val="Aviation Synfuel Data"/>
+      <sheetName val="Aviation Synfuel-Items"/>
+      <sheetName val="Aviation Synfuel-TSData"/>
+      <sheetName val="Aviation Synfuel-TIDData"/>
+      <sheetName val="Hydrogen-Other"/>
+      <sheetName val="Hydrogen-ELT"/>
+      <sheetName val="H2Storage"/>
+      <sheetName val="H2Storage-Items"/>
+      <sheetName val="H2Storage-TSData"/>
+      <sheetName val="H2Storage-TIDData"/>
+      <sheetName val="UPS"/>
+      <sheetName val="ITEMS_UPS"/>
+      <sheetName val="ITEMS_GRP"/>
+      <sheetName val="TS_TTech"/>
+      <sheetName val="TID_TTech"/>
+      <sheetName val="ITEMS_XTech"/>
+      <sheetName val="ITEMS_CommX"/>
+      <sheetName val="TS_XTech"/>
+      <sheetName val="TID_XTech"/>
+      <sheetName val="ITEMS_XEmiss"/>
+      <sheetName val="TS XEmiss"/>
+      <sheetName val="TID XEmiss"/>
+      <sheetName val="ExchangeRateDetail"/>
+      <sheetName val="Deflator"/>
+      <sheetName val="SUPRES"/>
+      <sheetName val="ITEMS_XFEmiss"/>
+      <sheetName val="TS XFEmiss"/>
+      <sheetName val="TID XFEmiss"/>
+      <sheetName val="Emission Control_Technologies"/>
+      <sheetName val="Items_TEmiss"/>
+      <sheetName val="TS TEmiss"/>
+      <sheetName val="ITEMS UC"/>
+      <sheetName val="TS UC"/>
+      <sheetName val="TID UC"/>
+      <sheetName val="WAT-Items"/>
+      <sheetName val="WAT-TSData"/>
+      <sheetName val="WAT-TIDData"/>
+      <sheetName val="HGN-TSData xtras"/>
+      <sheetName val="HGN-TIDData xtras"/>
+      <sheetName val="CPI_1960-2013"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="A2">
-            <v>2021</v>
-          </cell>
-          <cell r="B2">
-            <v>134</v>
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>1</v>
+          </cell>
+          <cell r="E2">
+            <v>1</v>
           </cell>
           <cell r="F2">
-            <v>53.6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2022</v>
-          </cell>
-          <cell r="B3">
-            <v>144</v>
-          </cell>
-          <cell r="F3">
-            <v>57.6</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2023</v>
-          </cell>
-          <cell r="B4">
-            <v>183</v>
-          </cell>
-          <cell r="F4">
-            <v>73.2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2024</v>
-          </cell>
-          <cell r="B5">
-            <v>222</v>
-          </cell>
-          <cell r="F5">
-            <v>88.800000000000011</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2025</v>
-          </cell>
-          <cell r="B6">
-            <v>261</v>
-          </cell>
-          <cell r="F6">
-            <v>104.4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2026</v>
-          </cell>
-          <cell r="B7">
-            <v>300</v>
-          </cell>
-          <cell r="F7">
-            <v>156</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2027</v>
-          </cell>
-          <cell r="B8">
-            <v>337.5</v>
-          </cell>
-          <cell r="F8">
-            <v>216</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2028</v>
-          </cell>
-          <cell r="B9">
-            <v>375</v>
-          </cell>
-          <cell r="F9">
-            <v>285</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2029</v>
-          </cell>
-          <cell r="B10">
-            <v>412.5</v>
-          </cell>
-          <cell r="F10">
-            <v>363</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2030</v>
-          </cell>
-          <cell r="B11">
-            <v>450</v>
-          </cell>
-          <cell r="F11">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>2031</v>
-          </cell>
-          <cell r="B12">
-            <v>514.28571428571422</v>
-          </cell>
-          <cell r="F12">
-            <v>514.28571428571422</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2032</v>
-          </cell>
-          <cell r="B13">
-            <v>578.57142857142856</v>
-          </cell>
-          <cell r="F13">
-            <v>578.57142857142856</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2033</v>
-          </cell>
-          <cell r="B14">
-            <v>642.85714285714278</v>
-          </cell>
-          <cell r="F14">
-            <v>642.85714285714278</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>2034</v>
-          </cell>
-          <cell r="B15">
-            <v>707.14285714285711</v>
-          </cell>
-          <cell r="F15">
-            <v>707.14285714285711</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2035</v>
-          </cell>
-          <cell r="B16">
-            <v>771.42857142857133</v>
-          </cell>
-          <cell r="F16">
-            <v>771.42857142857133</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>2036</v>
-          </cell>
-          <cell r="B17">
-            <v>835.71428571428567</v>
-          </cell>
-          <cell r="F17">
-            <v>835.71428571428567</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2037</v>
-          </cell>
-          <cell r="B18">
-            <v>899.99999999999989</v>
-          </cell>
-          <cell r="F18">
-            <v>899.99999999999989</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2038</v>
-          </cell>
-          <cell r="B19">
-            <v>964.28571428571422</v>
-          </cell>
-          <cell r="F19">
-            <v>964.28571428571422</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2039</v>
-          </cell>
-          <cell r="B20">
-            <v>1028.5714285714284</v>
-          </cell>
-          <cell r="F20">
-            <v>1028.5714285714284</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2040</v>
-          </cell>
-          <cell r="B21">
-            <v>1092.8571428571429</v>
-          </cell>
-          <cell r="F21">
-            <v>1092.8571428571429</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2041</v>
-          </cell>
-          <cell r="B22">
-            <v>1157.1428571428573</v>
-          </cell>
-          <cell r="F22">
-            <v>1157.1428571428573</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>2042</v>
-          </cell>
-          <cell r="B23">
-            <v>1221.4285714285716</v>
-          </cell>
-          <cell r="F23">
-            <v>1221.4285714285716</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>2043</v>
-          </cell>
-          <cell r="B24">
-            <v>1285.714285714286</v>
-          </cell>
-          <cell r="F24">
-            <v>1285.714285714286</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>2044</v>
-          </cell>
-          <cell r="B25">
-            <v>1350.0000000000005</v>
-          </cell>
-          <cell r="F25">
-            <v>1350.0000000000005</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>2045</v>
-          </cell>
-          <cell r="B26">
-            <v>1414.2857142857149</v>
-          </cell>
-          <cell r="F26">
-            <v>1414.2857142857149</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>2046</v>
-          </cell>
-          <cell r="B27">
-            <v>1478.5714285714291</v>
-          </cell>
-          <cell r="F27">
-            <v>1478.5714285714291</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>2047</v>
-          </cell>
-          <cell r="B28">
-            <v>1542.8571428571436</v>
-          </cell>
-          <cell r="F28">
-            <v>1542.8571428571436</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>2048</v>
-          </cell>
-          <cell r="B29">
-            <v>1607.142857142858</v>
-          </cell>
-          <cell r="F29">
-            <v>1607.142857142858</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>2049</v>
-          </cell>
-          <cell r="B30">
-            <v>1671.4285714285722</v>
-          </cell>
-          <cell r="F30">
-            <v>1671.4285714285722</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>2050</v>
-          </cell>
-          <cell r="B31">
-            <v>1735.7142857142867</v>
-          </cell>
-          <cell r="F31">
-            <v>1735.7142857142867</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>2051</v>
-          </cell>
-          <cell r="B32">
-            <v>1800</v>
-          </cell>
-          <cell r="F32">
-            <v>1800</v>
+            <v>1</v>
+          </cell>
+          <cell r="G2">
+            <v>1</v>
+          </cell>
+          <cell r="H2">
+            <v>1</v>
+          </cell>
+          <cell r="I2">
+            <v>1</v>
+          </cell>
+          <cell r="J2">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="AX3">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AY4" t="str">
+            <v>CO2S</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20">
+        <row r="56">
+          <cell r="F56">
+            <v>0.34416826003824091</v>
+          </cell>
+          <cell r="G56">
+            <v>0.55066921606118546</v>
+          </cell>
+          <cell r="H56">
+            <v>0.74187380497131927</v>
+          </cell>
+          <cell r="J56">
+            <v>0.74187380497131927</v>
+          </cell>
+          <cell r="L56">
+            <v>0.74187380497131927</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36">
+        <row r="39">
+          <cell r="D39">
+            <v>120.1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="fuel.comparison"/>
+      <sheetName val="FCS2018"/>
+      <sheetName val="SATIM"/>
+      <sheetName val="SAPIAAR2018"/>
+      <sheetName val="NIR2017"/>
+      <sheetName val="DoE.Petrol"/>
+      <sheetName val="DoE.Diesel"/>
+      <sheetName val="units"/>
+      <sheetName val="scrap"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2">
+            <v>38.6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>34.659999999999997</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Bruno Merven" id="{6F6288E2-7333-4331-B3D9-555C88E2A2BA}" userId="Bruno Merven" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5570,22 +5737,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J14" dT="2021-08-25T15:53:10.50" personId="{6F6288E2-7333-4331-B3D9-555C88E2A2BA}" id="{98ADEDF8-CA18-4AAD-9D74-11EB9541DB1F}">
-    <text>Changed to AR5 - August 2021</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E15" dT="2021-08-25T15:53:10.50" personId="{6F6288E2-7333-4331-B3D9-555C88E2A2BA}" id="{441F2B45-0803-45B0-92A3-43035FE9A3B1}">
-    <text>Changed to AR5 - August 2021</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDD891E-56E0-4A8D-A79A-1FD74EC26C1E}">
   <sheetPr>
@@ -5593,8 +5744,8 @@
   </sheetPr>
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5703,15 +5854,15 @@
     </row>
     <row r="2" spans="1:29" ht="15">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2">
         <v>30</v>
       </c>
       <c r="F2">
@@ -5813,15 +5964,15 @@
     </row>
     <row r="3" spans="1:29" ht="15">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
         <v>30</v>
       </c>
       <c r="F3">
@@ -5864,7 +6015,7 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>159.1</v>
       </c>
       <c r="Q3" t="str">
@@ -5918,15 +6069,15 @@
     </row>
     <row r="4" spans="1:29" ht="15">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2">
         <f>INDEX(Inflation!$O$2:$O$43,MATCH(E$1,Inflation!$A$2:$A$43,0))</f>
         <v>30</v>
       </c>
@@ -5954,7 +6105,7 @@
         <f>INDEX(Inflation!$O$2:$O$43,MATCH(K$1,Inflation!$A$2:$A$43,0))</f>
         <v>116.28899617747811</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f>INDEX(Inflation!$O$2:$O$43,MATCH(L$1,Inflation!$A$2:$A$43,0))</f>
         <v>144.43991490330518</v>
       </c>
@@ -5970,7 +6121,7 @@
         <f>INDEX(Inflation!$O$2:$O$43,MATCH(O$1,Inflation!$A$2:$A$43,0))</f>
         <v>336.10057121731506</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f>INDEX(Inflation!$O$2:$O$43,MATCH(P$1,Inflation!$A$2:$A$43,0))</f>
         <v>416.65360068262203</v>
       </c>
@@ -6022,17 +6173,17 @@
         <f>INDEX(Inflation!$O$2:$O$43,MATCH(AB$1,Inflation!$A$2:$A$43,0))</f>
         <v>1607.0924597758287</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="2">
         <f>INDEX(Inflation!$O$2:$O$43,MATCH(AC$1,Inflation!$A$2:$A$43,0))</f>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15">
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>164</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F7">
         <f>MATCH(E7,A2:A4,0)</f>
@@ -6139,7 +6290,7 @@
     </row>
     <row r="9" spans="1:29">
       <c r="D9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">INDEX(E$2:E$4,$F$7)</f>
@@ -6244,13 +6395,13 @@
     </row>
     <row r="10" spans="1:29">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1.1524982174688057</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <f>IF(E9="","",E9*$C10/1000)</f>
@@ -6355,13 +6506,13 @@
     </row>
     <row r="11" spans="1:29">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0.69899999999999995</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <f>IF(E10="","",E10*$C11)</f>
@@ -6482,7 +6633,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:G7"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6496,1506 +6647,739 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C6" s="35" t="s">
-        <v>214</v>
+      <c r="C6" s="33" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
-      <c r="C7" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="4"/>
-      <c r="C8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="C7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="B8" s="3"/>
+      <c r="C8" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="4"/>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="4"/>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="3"/>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="3"/>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="3"/>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" ht="15">
+      <c r="B20" s="3"/>
+      <c r="C20" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3"/>
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="4"/>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="3"/>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" ht="15">
+      <c r="B23" s="3"/>
+      <c r="C23" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="3"/>
+      <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="4"/>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="4"/>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="4"/>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="4"/>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="4"/>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="4"/>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="4"/>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="4"/>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="4"/>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
       <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="4"/>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="4"/>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="4"/>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="4"/>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="4"/>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="4"/>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="4"/>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="4"/>
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="4"/>
-      <c r="C36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="4"/>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="4"/>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="4"/>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="4"/>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="4"/>
-      <c r="C41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="4"/>
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="4"/>
-      <c r="C43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="4"/>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G44" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="4"/>
-      <c r="C45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="4"/>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="4"/>
-      <c r="C47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="4"/>
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G48" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="4"/>
-      <c r="C49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="4"/>
-      <c r="C50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="4"/>
-      <c r="C51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="4"/>
-      <c r="C52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="4"/>
-      <c r="C53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="4"/>
-      <c r="C54" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="4"/>
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="4"/>
-      <c r="C56" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="4"/>
-      <c r="C57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="4"/>
-      <c r="C58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G58" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="4"/>
-      <c r="C59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G59" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="4"/>
-      <c r="C60" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="4"/>
-      <c r="C61" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G61" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="4"/>
-      <c r="C62" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G62" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="4"/>
-      <c r="C63" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G63" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="4"/>
-      <c r="C64" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G64" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="4"/>
-      <c r="C65" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G65" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="4"/>
-      <c r="C66" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G66" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="4"/>
-      <c r="C67" t="s">
-        <v>133</v>
-      </c>
-      <c r="D67" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G67" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="4"/>
-      <c r="C68" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G68" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="4"/>
-      <c r="C69" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G69" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="4"/>
-      <c r="C70" t="s">
-        <v>139</v>
-      </c>
-      <c r="D70" t="s">
-        <v>140</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G70" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="4"/>
-      <c r="C71" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" t="s">
-        <v>142</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G71" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="4"/>
-      <c r="C72" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" t="s">
-        <v>144</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G72" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="4"/>
-      <c r="C73" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" t="s">
-        <v>146</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G73" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="4"/>
-      <c r="C74" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G74" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="4"/>
-      <c r="C75" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G75" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="4"/>
-      <c r="C76" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G76" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="4"/>
-      <c r="C77" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" t="s">
-        <v>154</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G77" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8003,1455 +7387,750 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AC8F24-4E56-49F3-9204-FD5A5900A5D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0B9177-634C-40E0-B876-E6B984C675C9}">
   <sheetPr>
-    <tabColor theme="4"/>
+    <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:BB96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="8" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.28515625" style="38" customWidth="1"/>
+    <col min="16" max="48" width="4.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.7109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="N2" s="1"/>
+    <row r="1" spans="1:11" ht="18" thickBot="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="38">
+        <v>28</v>
+      </c>
+      <c r="E7" s="38">
+        <v>265</v>
+      </c>
+      <c r="F7" s="38">
+        <v>6630</v>
+      </c>
+      <c r="G7" s="38">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="38">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="38">
+        <v>1</v>
+      </c>
+      <c r="H11" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="38">
+        <v>1</v>
+      </c>
+      <c r="D15" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="34"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="34"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="34"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="34"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="34"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="34"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="34"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="34"/>
+    </row>
+    <row r="33" spans="2:54">
+      <c r="B33" s="34"/>
+    </row>
+    <row r="34" spans="2:54">
+      <c r="B34" s="34"/>
+    </row>
+    <row r="44" spans="2:54">
+      <c r="BA44" s="38">
+        <v>1</v>
+      </c>
+      <c r="BB44" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:54">
+      <c r="BA45" s="38">
+        <v>1</v>
+      </c>
+      <c r="BB45" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:54">
+      <c r="BA46" s="38">
+        <v>1</v>
+      </c>
+      <c r="BB46" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:54">
+      <c r="BA47" s="38">
+        <v>1</v>
+      </c>
+      <c r="BB47" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:54">
+      <c r="BA48" s="38">
+        <v>1</v>
+      </c>
+      <c r="BB48" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="53:54">
+      <c r="BA49" s="38" t="e">
+        <f>IF(BA48=#REF!,1,BA48+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB49" s="38" t="e">
+        <f>IF(BA48=#REF!,BB48+1,BB48)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="53:54">
+      <c r="BA50" s="38" t="e">
+        <f>IF(BA49=#REF!,1,BA49+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB50" s="38" t="e">
+        <f>IF(BA49=#REF!,BB49+1,BB49)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="53:54">
+      <c r="BA51" s="38" t="e">
+        <f>IF(BA50=#REF!,1,BA50+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB51" s="38" t="e">
+        <f>IF(BA50=#REF!,BB50+1,BB50)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="53:54">
+      <c r="BA52" s="38" t="e">
+        <f>IF(BA51=#REF!,1,BA51+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB52" s="38" t="e">
+        <f>IF(BA51=#REF!,BB51+1,BB51)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="53:54">
+      <c r="BA53" s="38" t="e">
+        <f>IF(BA52=#REF!,1,BA52+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB53" s="38" t="e">
+        <f>IF(BA52=#REF!,BB52+1,BB52)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="53:54">
+      <c r="BA54" s="38" t="e">
+        <f>IF(BA53=#REF!,1,BA53+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB54" s="38" t="e">
+        <f>IF(BA53=#REF!,BB53+1,BB53)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="53:54">
+      <c r="BA55" s="38" t="e">
+        <f>IF(BA54=#REF!,1,BA54+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB55" s="38" t="e">
+        <f>IF(BA54=#REF!,BB54+1,BB54)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="53:54">
+      <c r="BA56" s="38" t="e">
+        <f>IF(BA55=#REF!,1,BA55+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB56" s="38" t="e">
+        <f>IF(BA55=#REF!,BB55+1,BB55)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="53:54">
+      <c r="BA57" s="38" t="e">
+        <f>IF(BA56=#REF!,1,BA56+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB57" s="38" t="e">
+        <f>IF(BA56=#REF!,BB56+1,BB56)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="53:54">
+      <c r="BA58" s="38" t="e">
+        <f>IF(BA57=#REF!,1,BA57+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB58" s="38" t="e">
+        <f>IF(BA57=#REF!,BB57+1,BB57)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="53:54">
+      <c r="BA59" s="38" t="e">
+        <f>IF(BA58=#REF!,1,BA58+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB59" s="38" t="e">
+        <f>IF(BA58=#REF!,BB58+1,BB58)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="53:54">
+      <c r="BA60" s="38" t="e">
+        <f>IF(BA59=#REF!,1,BA59+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB60" s="38" t="e">
+        <f>IF(BA59=#REF!,BB59+1,BB59)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="53:54">
+      <c r="BA61" s="38" t="e">
+        <f>IF(BA60=#REF!,1,BA60+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB61" s="38" t="e">
+        <f>IF(BA60=#REF!,BB60+1,BB60)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="53:54">
+      <c r="BA62" s="38" t="e">
+        <f>IF(BA61=#REF!,1,BA61+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB62" s="38" t="e">
+        <f>IF(BA61=#REF!,BB61+1,BB61)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="53:54">
+      <c r="BA63" s="38" t="e">
+        <f>IF(BA62=#REF!,1,BA62+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB63" s="38" t="e">
+        <f>IF(BA62=#REF!,BB62+1,BB62)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="53:54">
+      <c r="BA64" s="38" t="e">
+        <f>IF(BA63=#REF!,1,BA63+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB64" s="38" t="e">
+        <f>IF(BA63=#REF!,BB63+1,BB63)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="53:54">
+      <c r="BA65" s="38" t="e">
+        <f>IF(BA64=#REF!,1,BA64+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB65" s="38" t="e">
+        <f>IF(BA64=#REF!,BB64+1,BB64)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="53:54">
+      <c r="BA66" s="38" t="e">
+        <f>IF(BA65=#REF!,1,BA65+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB66" s="38" t="e">
+        <f>IF(BA65=#REF!,BB65+1,BB65)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="53:54">
+      <c r="BA67" s="38" t="e">
+        <f>IF(BA66=#REF!,1,BA66+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB67" s="38" t="e">
+        <f>IF(BA66=#REF!,BB66+1,BB66)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="53:54">
+      <c r="BA68" s="38" t="e">
+        <f>IF(BA67=#REF!,1,BA67+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB68" s="38" t="e">
+        <f>IF(BA67=#REF!,BB67+1,BB67)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="53:54">
+      <c r="BA69" s="38" t="e">
+        <f>IF(BA68=#REF!,1,BA68+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB69" s="38" t="e">
+        <f>IF(BA68=#REF!,BB68+1,BB68)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="53:54">
+      <c r="BA70" s="38" t="e">
+        <f>IF(BA69=#REF!,1,BA69+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB70" s="38" t="e">
+        <f>IF(BA69=#REF!,BB69+1,BB69)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="53:54">
+      <c r="BA71" s="38" t="e">
+        <f>IF(BA70=#REF!,1,BA70+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB71" s="38" t="e">
+        <f>IF(BA70=#REF!,BB70+1,BB70)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="72" spans="53:54">
+      <c r="BA72" s="38" t="e">
+        <f>IF(BA71=#REF!,1,BA71+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB72" s="38" t="e">
+        <f>IF(BA71=#REF!,BB71+1,BB71)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="73" spans="53:54">
+      <c r="BA73" s="38" t="e">
+        <f>IF(BA72=#REF!,1,BA72+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB73" s="38" t="e">
+        <f>IF(BA72=#REF!,BB72+1,BB72)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="53:54">
+      <c r="BA74" s="38" t="e">
+        <f>IF(BA73=#REF!,1,BA73+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB74" s="38" t="e">
+        <f>IF(BA73=#REF!,BB73+1,BB73)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="75" spans="53:54">
+      <c r="BA75" s="38" t="e">
+        <f>IF(BA74=#REF!,1,BA74+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB75" s="38" t="e">
+        <f>IF(BA74=#REF!,BB74+1,BB74)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="76" spans="53:54">
+      <c r="BA76" s="38" t="e">
+        <f>IF(BA75=#REF!,1,BA75+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB76" s="38" t="e">
+        <f>IF(BA75=#REF!,BB75+1,BB75)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="53:54">
+      <c r="BA77" s="38" t="e">
+        <f>IF(BA76=#REF!,1,BA76+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB77" s="38" t="e">
+        <f>IF(BA76=#REF!,BB76+1,BB76)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="53:54">
+      <c r="BA78" s="38" t="e">
+        <f>IF(BA77=#REF!,1,BA77+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB78" s="38" t="e">
+        <f>IF(BA77=#REF!,BB77+1,BB77)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="53:54">
+      <c r="BA79" s="38" t="e">
+        <f>IF(BA78=#REF!,1,BA78+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB79" s="38" t="e">
+        <f>IF(BA78=#REF!,BB78+1,BB78)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="53:54">
+      <c r="BA80" s="38" t="e">
+        <f>IF(BA79=#REF!,1,BA79+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB80" s="38" t="e">
+        <f>IF(BA79=#REF!,BB79+1,BB79)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="53:54">
+      <c r="BA81" s="38" t="e">
+        <f>IF(BA80=#REF!,1,BA80+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB81" s="38" t="e">
+        <f>IF(BA80=#REF!,BB80+1,BB80)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="82" spans="53:54">
+      <c r="BA82" s="38" t="e">
+        <f>IF(BA81=#REF!,1,BA81+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB82" s="38" t="e">
+        <f>IF(BA81=#REF!,BB81+1,BB81)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="83" spans="53:54">
+      <c r="BA83" s="38" t="e">
+        <f>IF(BA82=#REF!,1,BA82+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB83" s="38" t="e">
+        <f>IF(BA82=#REF!,BB82+1,BB82)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="84" spans="53:54">
+      <c r="BA84" s="38" t="e">
+        <f>IF(BA83=#REF!,1,BA83+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB84" s="38" t="e">
+        <f>IF(BA83=#REF!,BB83+1,BB83)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="85" spans="53:54">
+      <c r="BA85" s="38" t="e">
+        <f>IF(BA84=#REF!,1,BA84+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB85" s="38" t="e">
+        <f>IF(BA84=#REF!,BB84+1,BB84)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="86" spans="53:54">
+      <c r="BA86" s="38" t="e">
+        <f>IF(BA85=#REF!,1,BA85+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB86" s="38" t="e">
+        <f>IF(BA85=#REF!,BB85+1,BB85)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="87" spans="53:54">
+      <c r="BA87" s="38" t="e">
+        <f>IF(BA86=#REF!,1,BA86+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB87" s="38" t="e">
+        <f>IF(BA86=#REF!,BB86+1,BB86)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="88" spans="53:54">
+      <c r="BA88" s="38" t="e">
+        <f>IF(BA87=#REF!,1,BA87+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB88" s="38" t="e">
+        <f>IF(BA87=#REF!,BB87+1,BB87)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="89" spans="53:54">
+      <c r="BA89" s="38" t="e">
+        <f>IF(BA88=#REF!,1,BA88+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB89" s="38" t="e">
+        <f>IF(BA88=#REF!,BB88+1,BB88)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="90" spans="53:54">
+      <c r="BA90" s="38" t="e">
+        <f>IF(BA89=#REF!,1,BA89+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB90" s="38" t="e">
+        <f>IF(BA89=#REF!,BB89+1,BB89)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="91" spans="53:54">
+      <c r="BA91" s="38" t="e">
+        <f>IF(BA90=#REF!,1,BA90+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB91" s="38" t="e">
+        <f>IF(BA90=#REF!,BB90+1,BB90)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="92" spans="53:54">
+      <c r="BA92" s="38" t="e">
+        <f>IF(BA91=#REF!,1,BA91+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB92" s="38" t="e">
+        <f>IF(BA91=#REF!,BB91+1,BB91)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="93" spans="53:54">
+      <c r="BA93" s="38" t="e">
+        <f>IF(BA92=#REF!,1,BA92+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB93" s="38" t="e">
+        <f>IF(BA92=#REF!,BB92+1,BB92)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="94" spans="53:54">
+      <c r="BA94" s="38" t="e">
+        <f>IF(BA93=#REF!,1,BA93+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB94" s="38" t="e">
+        <f>IF(BA93=#REF!,BB93+1,BB93)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="95" spans="53:54">
+      <c r="BA95" s="38" t="e">
+        <f>IF(BA94=#REF!,1,BA94+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB95" s="38" t="e">
+        <f>IF(BA94=#REF!,BB94+1,BB94)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="96" spans="53:54">
+      <c r="BA96" s="38" t="e">
+        <f>IF(BA95=#REF!,1,BA95+1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BB96" s="38" t="e">
+        <f>IF(BA95=#REF!,BB95+1,BB95)</f>
+        <v>#REF!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987AC606-03E6-4E53-AE7B-7349668CD223}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A6:AP33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:42">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f ca="1">MID(CELL("filename",N6),FIND("]",CELL("filename",N6))+1,255)</f>
-        <v>TS_COMAGG</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>2012</v>
-      </c>
-      <c r="K6">
-        <f>J6+1</f>
-        <v>2013</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ref="L6:AL6" si="0">K6+1</f>
-        <v>2014</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>2015</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>2016</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="AL6">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="AM6">
-        <v>2045</v>
-      </c>
-      <c r="AN6">
-        <v>2050</v>
-      </c>
-      <c r="AO6">
-        <v>2060</v>
-      </c>
-      <c r="AP6">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42">
-      <c r="B7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42">
-      <c r="B8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42">
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42">
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42">
-      <c r="B11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42">
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42">
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42">
-      <c r="B14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42">
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42">
-      <c r="B16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="15">
-      <c r="B31" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="15">
-      <c r="B32" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="15">
-      <c r="B33" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAA5E7F-F4F7-41A6-BD63-21046D319EC4}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A5:J34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="B5" s="35" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
-      <c r="B6" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="F6" s="38"/>
-    </row>
-    <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="15">
-      <c r="B32" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="2:10" ht="15">
-      <c r="B33" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="2:10" ht="15">
-      <c r="B34" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAC9DA4-E441-407B-9029-809478807945}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="B6:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9462,159 +8141,159 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:37" ht="15.75" thickBot="1">
-      <c r="B6" s="35" t="s">
-        <v>222</v>
+      <c r="B6" s="33" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:37" ht="15">
-      <c r="B7" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="37">
+      <c r="B7" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="34">
         <v>2012</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="34">
         <f>E7+1</f>
         <v>2013</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="34">
         <f t="shared" ref="G7:AG7" si="0">F7+1</f>
         <v>2014</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="34">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="34">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="34">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="34">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="34">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="34">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="34">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="34">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="34">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="R7" s="37">
+      <c r="R7" s="34">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="34">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="T7" s="37">
+      <c r="T7" s="34">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="U7" s="37">
+      <c r="U7" s="34">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="V7" s="37">
+      <c r="V7" s="34">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="W7" s="37">
+      <c r="W7" s="34">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="X7" s="37">
+      <c r="X7" s="34">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="Y7" s="37">
+      <c r="Y7" s="34">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="Z7" s="37">
+      <c r="Z7" s="34">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AA7" s="37">
+      <c r="AA7" s="34">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AB7" s="37">
+      <c r="AB7" s="34">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AC7" s="37">
+      <c r="AC7" s="34">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="AD7" s="37">
+      <c r="AD7" s="34">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="AE7" s="37">
+      <c r="AE7" s="34">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="AF7" s="37">
+      <c r="AF7" s="34">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="AG7" s="37">
+      <c r="AG7" s="34">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="AH7" s="37">
+      <c r="AH7" s="34">
         <v>2045</v>
       </c>
-      <c r="AI7" s="37">
+      <c r="AI7" s="34">
         <v>2050</v>
       </c>
-      <c r="AJ7" s="37">
+      <c r="AJ7" s="34">
         <v>2060</v>
       </c>
-      <c r="AK7" s="37">
+      <c r="AK7" s="34">
         <v>2070</v>
       </c>
     </row>
     <row r="8" spans="2:37" ht="15">
       <c r="B8" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8">
@@ -9719,7 +8398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6068603C-52C8-4901-8929-8EEE898C946A}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -9732,1770 +8411,1770 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="10" width="12.5703125" style="6"/>
-    <col min="11" max="11" width="34.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="12.5703125" style="6"/>
+    <col min="1" max="10" width="12.5703125" style="4"/>
+    <col min="11" max="11" width="34.42578125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="110.25">
-      <c r="B1" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>164</v>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>2019</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4">
         <v>0.92589689040582668</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="33">
+      <c r="M2" s="5"/>
+      <c r="N2" s="31">
         <f t="array" ref="N2:N13">TRANSPOSE(CO2TaxInputs!E3:P3)</f>
         <v>30</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="31">
         <f>N2</f>
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>2020</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="33">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="31">
         <v>30.6</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="31">
         <f>N3</f>
         <v>30.6</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>2021</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>134</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <f t="shared" ref="C4:C43" si="0">B4*(1-$J$16)</f>
         <v>53.6</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D43" si="1">C4*(1-$J$17)</f>
         <v>2.6800000000000024</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <f>B4</f>
         <v>134</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <f>C4</f>
         <v>53.6</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>14.435708333333336</v>
       </c>
-      <c r="M4" s="32">
-        <f>F4*$K$2</f>
+      <c r="M4" s="30">
+        <f t="shared" ref="M4:M43" si="2">F4*$K$2</f>
         <v>49.628073325752311</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="31">
         <v>31.212000000000003</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="31">
         <f>N4</f>
         <v>31.212000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>2022</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>144</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
         <v>57.6</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>2.8800000000000026</v>
       </c>
-      <c r="E5" s="9">
-        <f t="shared" ref="E5" si="2">B5</f>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5" si="3">B5</f>
         <v>144</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f>C5</f>
         <v>57.6</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="M5" s="32">
-        <f>F5*$K$2</f>
+      <c r="J5" s="8"/>
+      <c r="M5" s="30">
+        <f t="shared" si="2"/>
         <v>53.331660887375619</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="31">
         <v>31.836240000000004</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="31">
         <f>N5</f>
         <v>31.836240000000004</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2023</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <f>(B$9-B$5)/4+B5</f>
         <v>183</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>73.2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>3.6600000000000033</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f>E5*(1+$J$18)</f>
         <v>150.33600000000001</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f>C6</f>
         <v>73.2</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>640</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <f>I6/J15</f>
         <v>42.666666666666664</v>
       </c>
-      <c r="M6" s="32">
-        <f>F6*$K$2</f>
+      <c r="M6" s="30">
+        <f t="shared" si="2"/>
         <v>67.775652377706521</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="31">
         <v>32.472964800000007</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="31">
         <f>_xlfn.FORECAST.LINEAR(A6,CHOOSE({1;2},$N$5,$M$9),CHOOSE({1;2},$A$5,$A$9))</f>
         <v>59.987158725823974</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>2024</v>
       </c>
-      <c r="B7" s="9">
-        <f t="shared" ref="B7:B8" si="3">(B$9-B$5)/4+B6</f>
+      <c r="B7" s="7">
+        <f t="shared" ref="B7:B8" si="4">(B$9-B$5)/4+B6</f>
         <v>222</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>88.800000000000011</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>4.4400000000000048</v>
       </c>
-      <c r="E7" s="9">
-        <f t="shared" ref="E7:E43" si="4">E6*(1+$J$18)</f>
+      <c r="E7" s="7">
+        <f t="shared" ref="E7:E43" si="5">E6*(1+$J$18)</f>
         <v>156.95078400000003</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <f>C7</f>
         <v>88.800000000000011</v>
       </c>
-      <c r="M7" s="32">
-        <f>F7*$K$2</f>
+      <c r="M7" s="30">
+        <f t="shared" si="2"/>
         <v>82.219643868037423</v>
       </c>
-      <c r="N7" s="33" t="str">
+      <c r="N7" s="31" t="str">
         <v/>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="31">
         <f>_xlfn.FORECAST.LINEAR(A7,CHOOSE({1;2},$N$5,$M$9),CHOOSE({1;2},$A$5,$A$9))</f>
         <v>88.138077451651043</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>2025</v>
       </c>
-      <c r="B8" s="9">
-        <f t="shared" si="3"/>
+      <c r="B8" s="7">
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>104.4</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <f t="shared" si="1"/>
         <v>5.2200000000000051</v>
       </c>
-      <c r="E8" s="9">
-        <f t="shared" si="4"/>
+      <c r="E8" s="7">
+        <f t="shared" si="5"/>
         <v>163.85661849600004</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <f>C8</f>
         <v>104.4</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <f>J16</f>
         <v>0.6</v>
       </c>
-      <c r="M8" s="32">
-        <f>F8*$K$2</f>
+      <c r="M8" s="30">
+        <f t="shared" si="2"/>
         <v>96.66363535836831</v>
       </c>
-      <c r="N8" s="33" t="str">
+      <c r="N8" s="31" t="str">
         <v/>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="31">
         <f>_xlfn.FORECAST.LINEAR(A8,CHOOSE({1;2},$N$5,$M$9),CHOOSE({1;2},$A$5,$A$9))</f>
         <v>116.28899617747811</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>2026</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>300</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <f t="shared" si="1"/>
         <v>6.0000000000000053</v>
       </c>
-      <c r="E9" s="9">
-        <f t="shared" si="4"/>
+      <c r="E9" s="7">
+        <f t="shared" si="5"/>
         <v>171.06630970982405</v>
       </c>
-      <c r="F9" s="34">
-        <f t="shared" ref="F9:F43" si="5">B9*(1-H9)</f>
+      <c r="F9" s="32">
+        <f t="shared" ref="F9:F43" si="6">B9*(1-H9)</f>
         <v>156</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>20</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <f>H$8/5*4</f>
         <v>0.48</v>
       </c>
-      <c r="M9" s="32">
-        <f>F9*$K$2</f>
+      <c r="M9" s="30">
+        <f t="shared" si="2"/>
         <v>144.43991490330896</v>
       </c>
-      <c r="N9" s="33" t="str">
+      <c r="N9" s="31" t="str">
         <v/>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="31">
         <f>_xlfn.FORECAST.LINEAR(A9,CHOOSE({1;2},$N$5,$M$9),CHOOSE({1;2},$A$5,$A$9))</f>
         <v>144.43991490330518</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>2027</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <f>(B$13-B$9)/4+B9</f>
         <v>337.5</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>6.7500000000000062</v>
       </c>
-      <c r="E10" s="9">
-        <f t="shared" si="4"/>
+      <c r="E10" s="7">
+        <f t="shared" si="5"/>
         <v>178.59322733705631</v>
       </c>
-      <c r="F10" s="9">
-        <f t="shared" si="5"/>
+      <c r="F10" s="7">
+        <f t="shared" si="6"/>
         <v>216</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12">
+      <c r="G10" s="8"/>
+      <c r="H10" s="10">
         <f>H$8/5*3</f>
         <v>0.36</v>
       </c>
-      <c r="M10" s="32">
-        <f>F10*$K$2</f>
+      <c r="M10" s="30">
+        <f t="shared" si="2"/>
         <v>199.99372832765857</v>
       </c>
-      <c r="N10" s="33" t="str">
+      <c r="N10" s="31" t="str">
         <v/>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="31">
         <f>M10</f>
         <v>199.99372832765857</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>2028</v>
       </c>
-      <c r="B11" s="9">
-        <f t="shared" ref="B11:B12" si="6">(B$13-B$9)/4+B10</f>
+      <c r="B11" s="7">
+        <f t="shared" ref="B11:B12" si="7">(B$13-B$9)/4+B10</f>
         <v>375</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
         <v>7.5000000000000071</v>
       </c>
-      <c r="E11" s="9">
-        <f t="shared" si="4"/>
+      <c r="E11" s="7">
+        <f t="shared" si="5"/>
         <v>186.4513293398868</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" si="5"/>
+      <c r="F11" s="7">
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12">
+      <c r="G11" s="8"/>
+      <c r="H11" s="10">
         <f>H$8/5*2</f>
         <v>0.24</v>
       </c>
-      <c r="M11" s="32">
-        <f>F11*$K$2</f>
+      <c r="M11" s="30">
+        <f t="shared" si="2"/>
         <v>263.8806137656606</v>
       </c>
-      <c r="N11" s="33" t="str">
+      <c r="N11" s="31" t="str">
         <v/>
       </c>
-      <c r="O11" s="33">
-        <f t="shared" ref="O11:O34" si="7">M11</f>
+      <c r="O11" s="31">
+        <f t="shared" ref="O11:O34" si="8">M11</f>
         <v>263.8806137656606</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>2029</v>
       </c>
-      <c r="B12" s="9">
-        <f t="shared" si="6"/>
+      <c r="B12" s="7">
+        <f t="shared" si="7"/>
         <v>412.5</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>8.2500000000000071</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <f>E11*(1+$J$18)</f>
         <v>194.65518783084181</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" si="5"/>
+      <c r="F12" s="7">
+        <f t="shared" si="6"/>
         <v>363</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12">
+      <c r="G12" s="8"/>
+      <c r="H12" s="10">
         <f>H$8/5*1</f>
         <v>0.12</v>
       </c>
-      <c r="M12" s="32">
-        <f>F12*$K$2</f>
+      <c r="M12" s="30">
+        <f t="shared" si="2"/>
         <v>336.10057121731506</v>
       </c>
-      <c r="N12" s="33" t="str">
+      <c r="N12" s="31" t="str">
         <v/>
       </c>
-      <c r="O12" s="33">
-        <f t="shared" si="7"/>
+      <c r="O12" s="31">
+        <f t="shared" si="8"/>
         <v>336.10057121731506</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>2030</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <f>G13*$J$15</f>
         <v>450</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>9.0000000000000071</v>
       </c>
-      <c r="E13" s="9">
-        <f t="shared" si="4"/>
+      <c r="E13" s="7">
+        <f t="shared" si="5"/>
         <v>203.22001609539885</v>
       </c>
-      <c r="F13" s="9">
-        <f t="shared" si="5"/>
+      <c r="F13" s="7">
+        <f t="shared" si="6"/>
         <v>450</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="11">
         <v>30</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <f>H$8/5*0</f>
         <v>0</v>
       </c>
-      <c r="M13" s="32">
-        <f>F13*$K$2</f>
+      <c r="M13" s="30">
+        <f t="shared" si="2"/>
         <v>416.65360068262203</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="31">
         <v>159.1</v>
       </c>
-      <c r="O13" s="33">
-        <f t="shared" si="7"/>
+      <c r="O13" s="31">
+        <f t="shared" si="8"/>
         <v>416.65360068262203</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>2031</v>
       </c>
-      <c r="B14" s="9">
-        <f t="shared" ref="B14:B43" si="8">G14*$J$15</f>
+      <c r="B14" s="7">
+        <f t="shared" ref="B14:B43" si="9">G14*$J$15</f>
         <v>514.28571428571422</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <f t="shared" si="0"/>
         <v>205.71428571428569</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <f t="shared" si="1"/>
         <v>10.285714285714294</v>
       </c>
-      <c r="E14" s="9">
-        <f t="shared" si="4"/>
+      <c r="E14" s="7">
+        <f t="shared" si="5"/>
         <v>212.16169680359641</v>
       </c>
-      <c r="F14" s="9">
-        <f t="shared" si="5"/>
+      <c r="F14" s="7">
+        <f t="shared" si="6"/>
         <v>514.28571428571422</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <f>G13+(G$34-G$13)/(A$34-A$13)</f>
         <v>34.285714285714285</v>
       </c>
-      <c r="H14" s="12">
-        <f t="shared" ref="H14:H43" si="9">H$8/5*0</f>
+      <c r="H14" s="10">
+        <f t="shared" ref="H14:H43" si="10">H$8/5*0</f>
         <v>0</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="32">
-        <f>F14*$K$2</f>
+      <c r="J14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="30">
+        <f t="shared" si="2"/>
         <v>476.1755436372822</v>
       </c>
-      <c r="O14" s="33">
-        <f t="shared" si="7"/>
+      <c r="O14" s="31">
+        <f t="shared" si="8"/>
         <v>476.1755436372822</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>2032</v>
       </c>
-      <c r="B15" s="9">
-        <f t="shared" si="8"/>
+      <c r="B15" s="7">
+        <f t="shared" si="9"/>
         <v>578.57142857142856</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <f t="shared" si="0"/>
         <v>231.42857142857144</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <f t="shared" si="1"/>
         <v>11.571428571428582</v>
       </c>
-      <c r="E15" s="9">
-        <f t="shared" si="4"/>
+      <c r="E15" s="7">
+        <f t="shared" si="5"/>
         <v>221.49681146295467</v>
       </c>
-      <c r="F15" s="9">
-        <f t="shared" si="5"/>
+      <c r="F15" s="7">
+        <f t="shared" si="6"/>
         <v>578.57142857142856</v>
       </c>
-      <c r="G15" s="10">
-        <f t="shared" ref="G15:G33" si="10">G14+(G$34-G$13)/(A$34-A$13)</f>
+      <c r="G15" s="8">
+        <f t="shared" ref="G15:G33" si="11">G14+(G$34-G$13)/(A$34-A$13)</f>
         <v>38.571428571428569</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>15</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="30">
+        <f t="shared" si="2"/>
+        <v>535.69748659194261</v>
+      </c>
+      <c r="O15" s="31">
+        <f t="shared" si="8"/>
+        <v>535.69748659194261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="4">
+        <v>2033</v>
+      </c>
+      <c r="B16" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>15</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="32">
-        <f>F15*$K$2</f>
-        <v>535.69748659194261</v>
-      </c>
-      <c r="O15" s="33">
-        <f t="shared" si="7"/>
-        <v>535.69748659194261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="6">
-        <v>2033</v>
-      </c>
-      <c r="B16" s="9">
-        <f t="shared" si="8"/>
         <v>642.85714285714278</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <f t="shared" si="0"/>
         <v>257.14285714285711</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <f t="shared" si="1"/>
         <v>12.857142857142867</v>
       </c>
-      <c r="E16" s="9">
-        <f t="shared" si="4"/>
+      <c r="E16" s="7">
+        <f t="shared" si="5"/>
         <v>231.24267116732469</v>
       </c>
-      <c r="F16" s="9">
-        <f t="shared" si="5"/>
+      <c r="F16" s="7">
+        <f t="shared" si="6"/>
         <v>642.85714285714278</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
+        <f t="shared" si="11"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="H16" s="10">
         <f t="shared" si="10"/>
-        <v>42.857142857142854</v>
-      </c>
-      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="30">
+        <f t="shared" si="2"/>
+        <v>595.21942954660278</v>
+      </c>
+      <c r="O16" s="31">
+        <f t="shared" si="8"/>
+        <v>595.21942954660278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="4">
+        <v>2034</v>
+      </c>
+      <c r="B17" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="32">
-        <f>F16*$K$2</f>
-        <v>595.21942954660278</v>
-      </c>
-      <c r="O16" s="33">
-        <f t="shared" si="7"/>
-        <v>595.21942954660278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="6">
-        <v>2034</v>
-      </c>
-      <c r="B17" s="9">
-        <f t="shared" si="8"/>
         <v>707.14285714285711</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <f t="shared" si="0"/>
         <v>282.85714285714283</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>14.142857142857155</v>
       </c>
-      <c r="E17" s="9">
-        <f t="shared" si="4"/>
+      <c r="E17" s="7">
+        <f t="shared" si="5"/>
         <v>241.41734869868699</v>
       </c>
-      <c r="F17" s="9">
-        <f t="shared" si="5"/>
+      <c r="F17" s="7">
+        <f t="shared" si="6"/>
         <v>707.14285714285711</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
+        <f t="shared" si="11"/>
+        <v>47.142857142857139</v>
+      </c>
+      <c r="H17" s="10">
         <f t="shared" si="10"/>
-        <v>47.142857142857139</v>
-      </c>
-      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="30">
+        <f t="shared" si="2"/>
+        <v>654.74137250126307</v>
+      </c>
+      <c r="O17" s="31">
+        <f t="shared" si="8"/>
+        <v>654.74137250126307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="4">
+        <v>2035</v>
+      </c>
+      <c r="B18" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="32">
-        <f>F17*$K$2</f>
-        <v>654.74137250126307</v>
-      </c>
-      <c r="O17" s="33">
-        <f t="shared" si="7"/>
-        <v>654.74137250126307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="6">
-        <v>2035</v>
-      </c>
-      <c r="B18" s="9">
-        <f t="shared" si="8"/>
         <v>771.42857142857133</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <f t="shared" si="0"/>
         <v>308.57142857142856</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <f t="shared" si="1"/>
         <v>15.428571428571441</v>
       </c>
-      <c r="E18" s="9">
-        <f t="shared" si="4"/>
+      <c r="E18" s="7">
+        <f t="shared" si="5"/>
         <v>252.03971204142923</v>
       </c>
-      <c r="F18" s="9">
-        <f t="shared" si="5"/>
+      <c r="F18" s="7">
+        <f t="shared" si="6"/>
         <v>771.42857142857133</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
+        <f t="shared" si="11"/>
+        <v>51.428571428571423</v>
+      </c>
+      <c r="H18" s="10">
         <f t="shared" si="10"/>
-        <v>51.428571428571423</v>
-      </c>
-      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="30">
+        <f t="shared" si="2"/>
+        <v>714.26331545592336</v>
+      </c>
+      <c r="O18" s="31">
+        <f t="shared" si="8"/>
+        <v>714.26331545592336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="4">
+        <v>2036</v>
+      </c>
+      <c r="B19" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="32">
-        <f>F18*$K$2</f>
-        <v>714.26331545592336</v>
-      </c>
-      <c r="O18" s="33">
-        <f t="shared" si="7"/>
-        <v>714.26331545592336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="6">
-        <v>2036</v>
-      </c>
-      <c r="B19" s="9">
-        <f t="shared" si="8"/>
         <v>835.71428571428567</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <f t="shared" si="0"/>
         <v>334.28571428571428</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <f t="shared" si="1"/>
         <v>16.71428571428573</v>
       </c>
-      <c r="E19" s="9">
-        <f t="shared" si="4"/>
+      <c r="E19" s="7">
+        <f t="shared" si="5"/>
         <v>263.1294593712521</v>
       </c>
-      <c r="F19" s="9">
-        <f t="shared" si="5"/>
+      <c r="F19" s="7">
+        <f t="shared" si="6"/>
         <v>835.71428571428567</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="8">
+        <f t="shared" si="11"/>
+        <v>55.714285714285708</v>
+      </c>
+      <c r="H19" s="10">
         <f t="shared" si="10"/>
-        <v>55.714285714285708</v>
-      </c>
-      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="30">
+        <f t="shared" si="2"/>
+        <v>773.78525841058365</v>
+      </c>
+      <c r="O19" s="31">
+        <f t="shared" si="8"/>
+        <v>773.78525841058365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="4">
+        <v>2037</v>
+      </c>
+      <c r="B20" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="32">
-        <f>F19*$K$2</f>
-        <v>773.78525841058365</v>
-      </c>
-      <c r="O19" s="33">
-        <f t="shared" si="7"/>
-        <v>773.78525841058365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="6">
-        <v>2037</v>
-      </c>
-      <c r="B20" s="9">
-        <f t="shared" si="8"/>
         <v>899.99999999999989</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <f t="shared" si="1"/>
         <v>18.000000000000014</v>
       </c>
-      <c r="E20" s="9">
-        <f t="shared" si="4"/>
+      <c r="E20" s="7">
+        <f t="shared" si="5"/>
         <v>274.70715558358722</v>
       </c>
-      <c r="F20" s="9">
-        <f t="shared" si="5"/>
+      <c r="F20" s="7">
+        <f t="shared" si="6"/>
         <v>899.99999999999989</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="8">
+        <f t="shared" si="11"/>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="H20" s="10">
         <f t="shared" si="10"/>
-        <v>59.999999999999993</v>
-      </c>
-      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="30">
+        <f t="shared" si="2"/>
+        <v>833.30720136524394</v>
+      </c>
+      <c r="O20" s="31">
+        <f t="shared" si="8"/>
+        <v>833.30720136524394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="4">
+        <v>2038</v>
+      </c>
+      <c r="B21" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="32">
-        <f>F20*$K$2</f>
-        <v>833.30720136524394</v>
-      </c>
-      <c r="O20" s="33">
-        <f t="shared" si="7"/>
-        <v>833.30720136524394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="6">
-        <v>2038</v>
-      </c>
-      <c r="B21" s="9">
-        <f t="shared" si="8"/>
         <v>964.28571428571422</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <f t="shared" si="0"/>
         <v>385.71428571428572</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <f t="shared" si="1"/>
         <v>19.285714285714302</v>
       </c>
-      <c r="E21" s="9">
-        <f t="shared" si="4"/>
+      <c r="E21" s="7">
+        <f t="shared" si="5"/>
         <v>286.79427042926505</v>
       </c>
-      <c r="F21" s="9">
-        <f t="shared" si="5"/>
+      <c r="F21" s="7">
+        <f t="shared" si="6"/>
         <v>964.28571428571422</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
+        <f t="shared" si="11"/>
+        <v>64.285714285714278</v>
+      </c>
+      <c r="H21" s="10">
         <f t="shared" si="10"/>
-        <v>64.285714285714278</v>
-      </c>
-      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="30">
+        <f t="shared" si="2"/>
+        <v>892.82914431990423</v>
+      </c>
+      <c r="O21" s="31">
+        <f t="shared" si="8"/>
+        <v>892.82914431990423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="4">
+        <v>2039</v>
+      </c>
+      <c r="B22" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="32">
-        <f>F21*$K$2</f>
-        <v>892.82914431990423</v>
-      </c>
-      <c r="O21" s="33">
-        <f t="shared" si="7"/>
-        <v>892.82914431990423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="6">
-        <v>2039</v>
-      </c>
-      <c r="B22" s="9">
-        <f t="shared" si="8"/>
         <v>1028.5714285714284</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <f t="shared" si="0"/>
         <v>411.42857142857139</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <f t="shared" si="1"/>
         <v>20.571428571428587</v>
       </c>
-      <c r="E22" s="9">
-        <f t="shared" si="4"/>
+      <c r="E22" s="7">
+        <f t="shared" si="5"/>
         <v>299.41321832815271</v>
       </c>
-      <c r="F22" s="9">
-        <f t="shared" si="5"/>
+      <c r="F22" s="7">
+        <f t="shared" si="6"/>
         <v>1028.5714285714284</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
+        <f t="shared" si="11"/>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="H22" s="10">
         <f t="shared" si="10"/>
-        <v>68.571428571428569</v>
-      </c>
-      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="30">
+        <f t="shared" si="2"/>
+        <v>952.35108727456441</v>
+      </c>
+      <c r="O22" s="31">
+        <f t="shared" si="8"/>
+        <v>952.35108727456441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="4">
+        <v>2040</v>
+      </c>
+      <c r="B23" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="32">
-        <f>F22*$K$2</f>
-        <v>952.35108727456441</v>
-      </c>
-      <c r="O22" s="33">
-        <f t="shared" si="7"/>
-        <v>952.35108727456441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="6">
-        <v>2040</v>
-      </c>
-      <c r="B23" s="9">
-        <f t="shared" si="8"/>
         <v>1092.8571428571429</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <f t="shared" si="0"/>
         <v>437.14285714285717</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <f t="shared" si="1"/>
         <v>21.857142857142879</v>
       </c>
-      <c r="E23" s="9">
-        <f t="shared" si="4"/>
+      <c r="E23" s="7">
+        <f t="shared" si="5"/>
         <v>312.58739993459142</v>
       </c>
-      <c r="F23" s="9">
-        <f t="shared" si="5"/>
+      <c r="F23" s="7">
+        <f t="shared" si="6"/>
         <v>1092.8571428571429</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="8">
+        <f t="shared" si="11"/>
+        <v>72.857142857142861</v>
+      </c>
+      <c r="H23" s="10">
         <f t="shared" si="10"/>
-        <v>72.857142857142861</v>
-      </c>
-      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="30">
+        <f t="shared" si="2"/>
+        <v>1011.8730302292249</v>
+      </c>
+      <c r="O23" s="31">
+        <f t="shared" si="8"/>
+        <v>1011.8730302292249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="4">
+        <v>2041</v>
+      </c>
+      <c r="B24" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="32">
-        <f>F23*$K$2</f>
-        <v>1011.8730302292249</v>
-      </c>
-      <c r="O23" s="33">
-        <f t="shared" si="7"/>
-        <v>1011.8730302292249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="6">
-        <v>2041</v>
-      </c>
-      <c r="B24" s="9">
-        <f t="shared" si="8"/>
         <v>1157.1428571428573</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <f t="shared" si="0"/>
         <v>462.85714285714295</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <f t="shared" si="1"/>
         <v>23.142857142857167</v>
       </c>
-      <c r="E24" s="9">
-        <f t="shared" si="4"/>
+      <c r="E24" s="7">
+        <f t="shared" si="5"/>
         <v>326.34124553171347</v>
       </c>
-      <c r="F24" s="9">
-        <f t="shared" si="5"/>
+      <c r="F24" s="7">
+        <f t="shared" si="6"/>
         <v>1157.1428571428573</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="8">
+        <f t="shared" si="11"/>
+        <v>77.142857142857153</v>
+      </c>
+      <c r="H24" s="10">
         <f t="shared" si="10"/>
-        <v>77.142857142857153</v>
-      </c>
-      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="30">
+        <f t="shared" si="2"/>
+        <v>1071.3949731838854</v>
+      </c>
+      <c r="O24" s="31">
+        <f t="shared" si="8"/>
+        <v>1071.3949731838854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="4">
+        <v>2042</v>
+      </c>
+      <c r="B25" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="32">
-        <f>F24*$K$2</f>
-        <v>1071.3949731838854</v>
-      </c>
-      <c r="O24" s="33">
-        <f t="shared" si="7"/>
-        <v>1071.3949731838854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="6">
-        <v>2042</v>
-      </c>
-      <c r="B25" s="9">
-        <f t="shared" si="8"/>
         <v>1221.4285714285716</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <f t="shared" si="0"/>
         <v>488.57142857142867</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <f t="shared" si="1"/>
         <v>24.428571428571455</v>
       </c>
-      <c r="E25" s="9">
-        <f t="shared" si="4"/>
+      <c r="E25" s="7">
+        <f t="shared" si="5"/>
         <v>340.70026033510885</v>
       </c>
-      <c r="F25" s="9">
-        <f t="shared" si="5"/>
+      <c r="F25" s="7">
+        <f t="shared" si="6"/>
         <v>1221.4285714285716</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
+        <f t="shared" si="11"/>
+        <v>81.428571428571445</v>
+      </c>
+      <c r="H25" s="10">
         <f t="shared" si="10"/>
-        <v>81.428571428571445</v>
-      </c>
-      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="30">
+        <f t="shared" si="2"/>
+        <v>1130.9169161385455</v>
+      </c>
+      <c r="O25" s="31">
+        <f t="shared" si="8"/>
+        <v>1130.9169161385455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="4">
+        <v>2043</v>
+      </c>
+      <c r="B26" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="32">
-        <f>F25*$K$2</f>
-        <v>1130.9169161385455</v>
-      </c>
-      <c r="O25" s="33">
-        <f t="shared" si="7"/>
-        <v>1130.9169161385455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="6">
-        <v>2043</v>
-      </c>
-      <c r="B26" s="9">
-        <f t="shared" si="8"/>
         <v>1285.714285714286</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <f t="shared" si="0"/>
         <v>514.28571428571445</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <f t="shared" si="1"/>
         <v>25.714285714285744</v>
       </c>
-      <c r="E26" s="9">
-        <f t="shared" si="4"/>
+      <c r="E26" s="7">
+        <f t="shared" si="5"/>
         <v>355.69107178985365</v>
       </c>
-      <c r="F26" s="9">
-        <f t="shared" si="5"/>
+      <c r="F26" s="7">
+        <f t="shared" si="6"/>
         <v>1285.714285714286</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="8">
+        <f t="shared" si="11"/>
+        <v>85.714285714285737</v>
+      </c>
+      <c r="H26" s="10">
         <f t="shared" si="10"/>
-        <v>85.714285714285737</v>
-      </c>
-      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="30">
+        <f t="shared" si="2"/>
+        <v>1190.438859093206</v>
+      </c>
+      <c r="O26" s="31">
+        <f t="shared" si="8"/>
+        <v>1190.438859093206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="4">
+        <v>2044</v>
+      </c>
+      <c r="B27" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="32">
-        <f>F26*$K$2</f>
-        <v>1190.438859093206</v>
-      </c>
-      <c r="O26" s="33">
-        <f t="shared" si="7"/>
-        <v>1190.438859093206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="6">
-        <v>2044</v>
-      </c>
-      <c r="B27" s="9">
-        <f t="shared" si="8"/>
         <v>1350.0000000000005</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <f t="shared" si="0"/>
         <v>540.00000000000023</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <f t="shared" si="1"/>
         <v>27.000000000000036</v>
       </c>
-      <c r="E27" s="9">
-        <f t="shared" si="4"/>
+      <c r="E27" s="7">
+        <f t="shared" si="5"/>
         <v>371.34147894860723</v>
       </c>
-      <c r="F27" s="9">
-        <f t="shared" si="5"/>
+      <c r="F27" s="7">
+        <f t="shared" si="6"/>
         <v>1350.0000000000005</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
+        <f t="shared" si="11"/>
+        <v>90.000000000000028</v>
+      </c>
+      <c r="H27" s="10">
         <f t="shared" si="10"/>
-        <v>90.000000000000028</v>
-      </c>
-      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="30">
+        <f t="shared" si="2"/>
+        <v>1249.9608020478665</v>
+      </c>
+      <c r="O27" s="31">
+        <f t="shared" si="8"/>
+        <v>1249.9608020478665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="4">
+        <v>2045</v>
+      </c>
+      <c r="B28" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="32">
-        <f>F27*$K$2</f>
-        <v>1249.9608020478665</v>
-      </c>
-      <c r="O27" s="33">
-        <f t="shared" si="7"/>
-        <v>1249.9608020478665</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="6">
-        <v>2045</v>
-      </c>
-      <c r="B28" s="9">
-        <f t="shared" si="8"/>
         <v>1414.2857142857149</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <f t="shared" si="0"/>
         <v>565.71428571428601</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <f t="shared" si="1"/>
         <v>28.285714285714324</v>
       </c>
-      <c r="E28" s="9">
-        <f t="shared" si="4"/>
+      <c r="E28" s="7">
+        <f t="shared" si="5"/>
         <v>387.68050402234599</v>
       </c>
-      <c r="F28" s="9">
-        <f t="shared" si="5"/>
+      <c r="F28" s="7">
+        <f t="shared" si="6"/>
         <v>1414.2857142857149</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="8">
+        <f t="shared" si="11"/>
+        <v>94.28571428571432</v>
+      </c>
+      <c r="H28" s="10">
         <f t="shared" si="10"/>
-        <v>94.28571428571432</v>
-      </c>
-      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="30">
+        <f t="shared" si="2"/>
+        <v>1309.4827450025268</v>
+      </c>
+      <c r="O28" s="31">
+        <f t="shared" si="8"/>
+        <v>1309.4827450025268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="4">
+        <v>2046</v>
+      </c>
+      <c r="B29" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="32">
-        <f>F28*$K$2</f>
-        <v>1309.4827450025268</v>
-      </c>
-      <c r="O28" s="33">
-        <f t="shared" si="7"/>
-        <v>1309.4827450025268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="6">
-        <v>2046</v>
-      </c>
-      <c r="B29" s="9">
-        <f t="shared" si="8"/>
         <v>1478.5714285714291</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <f t="shared" si="0"/>
         <v>591.42857142857167</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <f t="shared" si="1"/>
         <v>29.571428571428608</v>
       </c>
-      <c r="E29" s="9">
-        <f t="shared" si="4"/>
+      <c r="E29" s="7">
+        <f t="shared" si="5"/>
         <v>404.73844619932925</v>
       </c>
-      <c r="F29" s="9">
-        <f t="shared" si="5"/>
+      <c r="F29" s="7">
+        <f t="shared" si="6"/>
         <v>1478.5714285714291</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="8">
+        <f t="shared" si="11"/>
+        <v>98.571428571428612</v>
+      </c>
+      <c r="H29" s="10">
         <f t="shared" si="10"/>
-        <v>98.571428571428612</v>
-      </c>
-      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="30">
+        <f t="shared" si="2"/>
+        <v>1369.0046879571871</v>
+      </c>
+      <c r="O29" s="31">
+        <f t="shared" si="8"/>
+        <v>1369.0046879571871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="4">
+        <v>2047</v>
+      </c>
+      <c r="B30" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="32">
-        <f>F29*$K$2</f>
-        <v>1369.0046879571871</v>
-      </c>
-      <c r="O29" s="33">
-        <f t="shared" si="7"/>
-        <v>1369.0046879571871</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="6">
-        <v>2047</v>
-      </c>
-      <c r="B30" s="9">
-        <f t="shared" si="8"/>
         <v>1542.8571428571436</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <f t="shared" si="0"/>
         <v>617.14285714285745</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="7">
         <f t="shared" si="1"/>
         <v>30.8571428571429</v>
       </c>
-      <c r="E30" s="9">
-        <f t="shared" si="4"/>
+      <c r="E30" s="7">
+        <f t="shared" si="5"/>
         <v>422.54693783209973</v>
       </c>
-      <c r="F30" s="9">
-        <f t="shared" si="5"/>
+      <c r="F30" s="7">
+        <f t="shared" si="6"/>
         <v>1542.8571428571436</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="8">
+        <f t="shared" si="11"/>
+        <v>102.8571428571429</v>
+      </c>
+      <c r="H30" s="10">
         <f t="shared" si="10"/>
-        <v>102.8571428571429</v>
-      </c>
-      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="M30" s="30">
+        <f t="shared" si="2"/>
+        <v>1428.5266309118476</v>
+      </c>
+      <c r="O30" s="31">
+        <f t="shared" si="8"/>
+        <v>1428.5266309118476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="4">
+        <v>2048</v>
+      </c>
+      <c r="B31" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="32">
-        <f>F30*$K$2</f>
-        <v>1428.5266309118476</v>
-      </c>
-      <c r="O30" s="33">
-        <f t="shared" si="7"/>
-        <v>1428.5266309118476</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="6">
-        <v>2048</v>
-      </c>
-      <c r="B31" s="9">
-        <f t="shared" si="8"/>
         <v>1607.142857142858</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <f t="shared" si="0"/>
         <v>642.85714285714323</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="7">
         <f t="shared" si="1"/>
         <v>32.142857142857189</v>
       </c>
-      <c r="E31" s="9">
-        <f t="shared" si="4"/>
+      <c r="E31" s="7">
+        <f t="shared" si="5"/>
         <v>441.13900309671214</v>
       </c>
-      <c r="F31" s="9">
-        <f t="shared" si="5"/>
+      <c r="F31" s="7">
+        <f t="shared" si="6"/>
         <v>1607.142857142858</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="8">
+        <f t="shared" si="11"/>
+        <v>107.1428571428572</v>
+      </c>
+      <c r="H31" s="10">
         <f t="shared" si="10"/>
-        <v>107.1428571428572</v>
-      </c>
-      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="30">
+        <f t="shared" si="2"/>
+        <v>1488.0485738665079</v>
+      </c>
+      <c r="O31" s="31">
+        <f t="shared" si="8"/>
+        <v>1488.0485738665079</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="4">
+        <v>2049</v>
+      </c>
+      <c r="B32" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="32">
-        <f>F31*$K$2</f>
-        <v>1488.0485738665079</v>
-      </c>
-      <c r="O31" s="33">
-        <f t="shared" si="7"/>
-        <v>1488.0485738665079</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="6">
-        <v>2049</v>
-      </c>
-      <c r="B32" s="9">
-        <f t="shared" si="8"/>
         <v>1671.4285714285722</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="7">
         <f t="shared" si="0"/>
         <v>668.5714285714289</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="7">
         <f t="shared" si="1"/>
         <v>33.428571428571473</v>
       </c>
-      <c r="E32" s="9">
-        <f t="shared" si="4"/>
+      <c r="E32" s="7">
+        <f t="shared" si="5"/>
         <v>460.54911923296748</v>
       </c>
-      <c r="F32" s="9">
-        <f t="shared" si="5"/>
+      <c r="F32" s="7">
+        <f t="shared" si="6"/>
         <v>1671.4285714285722</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="8">
+        <f t="shared" si="11"/>
+        <v>111.42857142857149</v>
+      </c>
+      <c r="H32" s="10">
         <f t="shared" si="10"/>
-        <v>111.42857142857149</v>
-      </c>
-      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="30">
+        <f t="shared" si="2"/>
+        <v>1547.5705168211682</v>
+      </c>
+      <c r="O32" s="31">
+        <f t="shared" si="8"/>
+        <v>1547.5705168211682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="4">
+        <v>2050</v>
+      </c>
+      <c r="B33" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="32">
-        <f>F32*$K$2</f>
-        <v>1547.5705168211682</v>
-      </c>
-      <c r="O32" s="33">
-        <f t="shared" si="7"/>
-        <v>1547.5705168211682</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="6">
-        <v>2050</v>
-      </c>
-      <c r="B33" s="9">
-        <f t="shared" si="8"/>
         <v>1735.7142857142867</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="7">
         <f t="shared" si="0"/>
         <v>694.28571428571468</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="7">
         <f t="shared" si="1"/>
         <v>34.714285714285765</v>
       </c>
-      <c r="E33" s="9">
-        <f t="shared" si="4"/>
+      <c r="E33" s="7">
+        <f t="shared" si="5"/>
         <v>480.81328047921807</v>
       </c>
-      <c r="F33" s="9">
-        <f t="shared" si="5"/>
+      <c r="F33" s="7">
+        <f t="shared" si="6"/>
         <v>1735.7142857142867</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="8">
+        <f t="shared" si="11"/>
+        <v>115.71428571428578</v>
+      </c>
+      <c r="H33" s="10">
         <f t="shared" si="10"/>
-        <v>115.71428571428578</v>
-      </c>
-      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="M33" s="30">
+        <f t="shared" si="2"/>
+        <v>1607.0924597758287</v>
+      </c>
+      <c r="O33" s="31">
+        <f t="shared" si="8"/>
+        <v>1607.0924597758287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="4">
+        <v>2051</v>
+      </c>
+      <c r="B34" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="32">
-        <f>F33*$K$2</f>
-        <v>1607.0924597758287</v>
-      </c>
-      <c r="O33" s="33">
-        <f t="shared" si="7"/>
-        <v>1607.0924597758287</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="6">
-        <v>2051</v>
-      </c>
-      <c r="B34" s="9">
-        <f t="shared" si="8"/>
         <v>1800</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="7">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <f t="shared" si="1"/>
         <v>36.000000000000028</v>
       </c>
-      <c r="E34" s="9">
-        <f t="shared" si="4"/>
+      <c r="E34" s="7">
+        <f t="shared" si="5"/>
         <v>501.96906482030369</v>
       </c>
-      <c r="F34" s="9">
-        <f t="shared" si="5"/>
+      <c r="F34" s="7">
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="11">
         <v>120</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="30">
+        <f t="shared" si="2"/>
+        <v>1666.6144027304881</v>
+      </c>
+      <c r="O34" s="31">
+        <f t="shared" si="8"/>
+        <v>1666.6144027304881</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="4">
+        <v>2052</v>
+      </c>
+      <c r="B35" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="32">
-        <f>F34*$K$2</f>
-        <v>1666.6144027304881</v>
-      </c>
-      <c r="O34" s="33">
-        <f t="shared" si="7"/>
-        <v>1666.6144027304881</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="6">
-        <v>2052</v>
-      </c>
-      <c r="B35" s="9">
-        <f t="shared" si="8"/>
         <v>1864.2857142857133</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="7">
         <f t="shared" si="0"/>
         <v>745.71428571428532</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="7">
         <f t="shared" si="1"/>
         <v>37.285714285714299</v>
       </c>
-      <c r="E35" s="9">
-        <f t="shared" si="4"/>
+      <c r="E35" s="7">
+        <f t="shared" si="5"/>
         <v>524.05570367239704</v>
       </c>
-      <c r="F35" s="9">
-        <f t="shared" si="5"/>
+      <c r="F35" s="7">
+        <f t="shared" si="6"/>
         <v>1864.2857142857133</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="8">
         <f>G34+(G$34-G$33)</f>
         <v>124.28571428571422</v>
       </c>
-      <c r="H35" s="12">
-        <f t="shared" si="9"/>
+      <c r="H35" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M35" s="32">
-        <f>F35*$K$2</f>
+      <c r="M35" s="30">
+        <f t="shared" si="2"/>
         <v>1726.1363456851475</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="31">
         <f>O34</f>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>2053</v>
       </c>
-      <c r="B36" s="9">
-        <f t="shared" si="8"/>
+      <c r="B36" s="7">
+        <f t="shared" si="9"/>
         <v>1928.5714285714266</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="7">
         <f t="shared" si="0"/>
         <v>771.42857142857065</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="7">
         <f t="shared" si="1"/>
         <v>38.571428571428569</v>
       </c>
-      <c r="E36" s="9">
-        <f t="shared" si="4"/>
+      <c r="E36" s="7">
+        <f t="shared" si="5"/>
         <v>547.11415463398248</v>
       </c>
-      <c r="F36" s="9">
-        <f t="shared" si="5"/>
+      <c r="F36" s="7">
+        <f t="shared" si="6"/>
         <v>1928.5714285714266</v>
       </c>
-      <c r="G36" s="10">
-        <f t="shared" ref="G36:G43" si="11">G35+(G$34-G$33)</f>
+      <c r="G36" s="8">
+        <f t="shared" ref="G36:G43" si="12">G35+(G$34-G$33)</f>
         <v>128.57142857142844</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="30">
+        <f t="shared" si="2"/>
+        <v>1785.6582886398069</v>
+      </c>
+      <c r="O36" s="31">
+        <f t="shared" ref="O36:O43" si="13">O35</f>
+        <v>1666.6144027304881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="4">
+        <v>2054</v>
+      </c>
+      <c r="B37" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="32">
-        <f>F36*$K$2</f>
-        <v>1785.6582886398069</v>
-      </c>
-      <c r="O36" s="33">
-        <f t="shared" ref="O36:O43" si="12">O35</f>
-        <v>1666.6144027304881</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="6">
-        <v>2054</v>
-      </c>
-      <c r="B37" s="9">
-        <f t="shared" si="8"/>
         <v>1992.8571428571399</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="7">
         <f t="shared" si="0"/>
         <v>797.14285714285597</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="7">
         <f t="shared" si="1"/>
         <v>39.857142857142833</v>
       </c>
-      <c r="E37" s="9">
-        <f t="shared" si="4"/>
+      <c r="E37" s="7">
+        <f t="shared" si="5"/>
         <v>571.18717743787772</v>
       </c>
-      <c r="F37" s="9">
-        <f t="shared" si="5"/>
+      <c r="F37" s="7">
+        <f t="shared" si="6"/>
         <v>1992.8571428571399</v>
       </c>
-      <c r="G37" s="10">
-        <f t="shared" si="11"/>
+      <c r="G37" s="8">
+        <f t="shared" si="12"/>
         <v>132.85714285714266</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="30">
+        <f t="shared" si="2"/>
+        <v>1845.1802315944662</v>
+      </c>
+      <c r="O37" s="31">
+        <f t="shared" si="13"/>
+        <v>1666.6144027304881</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="4">
+        <v>2055</v>
+      </c>
+      <c r="B38" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="32">
-        <f>F37*$K$2</f>
-        <v>1845.1802315944662</v>
-      </c>
-      <c r="O37" s="33">
-        <f t="shared" si="12"/>
-        <v>1666.6144027304881</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="6">
-        <v>2055</v>
-      </c>
-      <c r="B38" s="9">
-        <f t="shared" si="8"/>
         <v>2057.1428571428532</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="7">
         <f t="shared" si="0"/>
         <v>822.8571428571413</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="7">
         <f t="shared" si="1"/>
         <v>41.142857142857103</v>
       </c>
-      <c r="E38" s="9">
-        <f t="shared" si="4"/>
+      <c r="E38" s="7">
+        <f t="shared" si="5"/>
         <v>596.31941324514435</v>
       </c>
-      <c r="F38" s="9">
-        <f t="shared" si="5"/>
+      <c r="F38" s="7">
+        <f t="shared" si="6"/>
         <v>2057.1428571428532</v>
       </c>
-      <c r="G38" s="10">
-        <f t="shared" si="11"/>
+      <c r="G38" s="8">
+        <f t="shared" si="12"/>
         <v>137.14285714285688</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="30">
+        <f t="shared" si="2"/>
+        <v>1904.7021745491256</v>
+      </c>
+      <c r="O38" s="31">
+        <f t="shared" si="13"/>
+        <v>1666.6144027304881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="4">
+        <v>2056</v>
+      </c>
+      <c r="B39" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="32">
-        <f>F38*$K$2</f>
-        <v>1904.7021745491256</v>
-      </c>
-      <c r="O38" s="33">
-        <f t="shared" si="12"/>
-        <v>1666.6144027304881</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="6">
-        <v>2056</v>
-      </c>
-      <c r="B39" s="9">
-        <f t="shared" si="8"/>
         <v>2121.4285714285666</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <f t="shared" si="0"/>
         <v>848.57142857142662</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="7">
         <f t="shared" si="1"/>
         <v>42.428571428571367</v>
       </c>
-      <c r="E39" s="9">
-        <f t="shared" si="4"/>
+      <c r="E39" s="7">
+        <f t="shared" si="5"/>
         <v>622.55746742793076</v>
       </c>
-      <c r="F39" s="9">
-        <f t="shared" si="5"/>
+      <c r="F39" s="7">
+        <f t="shared" si="6"/>
         <v>2121.4285714285666</v>
       </c>
-      <c r="G39" s="10">
-        <f t="shared" si="11"/>
+      <c r="G39" s="8">
+        <f t="shared" si="12"/>
         <v>141.4285714285711</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="30">
+        <f t="shared" si="2"/>
+        <v>1964.224117503785</v>
+      </c>
+      <c r="O39" s="31">
+        <f t="shared" si="13"/>
+        <v>1666.6144027304881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="4">
+        <v>2057</v>
+      </c>
+      <c r="B40" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="32">
-        <f>F39*$K$2</f>
-        <v>1964.224117503785</v>
-      </c>
-      <c r="O39" s="33">
-        <f t="shared" si="12"/>
-        <v>1666.6144027304881</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="6">
-        <v>2057</v>
-      </c>
-      <c r="B40" s="9">
-        <f t="shared" si="8"/>
         <v>2185.7142857142799</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="7">
         <f t="shared" si="0"/>
         <v>874.28571428571195</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="7">
         <f t="shared" si="1"/>
         <v>43.714285714285637</v>
       </c>
-      <c r="E40" s="9">
-        <f t="shared" si="4"/>
+      <c r="E40" s="7">
+        <f t="shared" si="5"/>
         <v>649.94999599475977</v>
       </c>
-      <c r="F40" s="9">
-        <f t="shared" si="5"/>
+      <c r="F40" s="7">
+        <f t="shared" si="6"/>
         <v>2185.7142857142799</v>
       </c>
-      <c r="G40" s="10">
-        <f t="shared" si="11"/>
+      <c r="G40" s="8">
+        <f t="shared" si="12"/>
         <v>145.71428571428532</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="30">
+        <f t="shared" si="2"/>
+        <v>2023.7460604584444</v>
+      </c>
+      <c r="O40" s="31">
+        <f t="shared" si="13"/>
+        <v>1666.6144027304881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="4">
+        <v>2058</v>
+      </c>
+      <c r="B41" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="32">
-        <f>F40*$K$2</f>
-        <v>2023.7460604584444</v>
-      </c>
-      <c r="O40" s="33">
-        <f t="shared" si="12"/>
-        <v>1666.6144027304881</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="6">
-        <v>2058</v>
-      </c>
-      <c r="B41" s="9">
-        <f t="shared" si="8"/>
         <v>2249.9999999999932</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="7">
         <f t="shared" si="0"/>
         <v>899.99999999999727</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <f t="shared" si="1"/>
         <v>44.999999999999901</v>
       </c>
-      <c r="E41" s="9">
-        <f t="shared" si="4"/>
+      <c r="E41" s="7">
+        <f t="shared" si="5"/>
         <v>678.54779581852927</v>
       </c>
-      <c r="F41" s="9">
-        <f t="shared" si="5"/>
+      <c r="F41" s="7">
+        <f t="shared" si="6"/>
         <v>2249.9999999999932</v>
       </c>
-      <c r="G41" s="10">
-        <f t="shared" si="11"/>
+      <c r="G41" s="8">
+        <f t="shared" si="12"/>
         <v>149.99999999999955</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="30">
+        <f t="shared" si="2"/>
+        <v>2083.2680034131035</v>
+      </c>
+      <c r="O41" s="31">
+        <f t="shared" si="13"/>
+        <v>1666.6144027304881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="4">
+        <v>2059</v>
+      </c>
+      <c r="B42" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="32">
-        <f>F41*$K$2</f>
-        <v>2083.2680034131035</v>
-      </c>
-      <c r="O41" s="33">
-        <f t="shared" si="12"/>
-        <v>1666.6144027304881</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="6">
-        <v>2059</v>
-      </c>
-      <c r="B42" s="9">
-        <f t="shared" si="8"/>
         <v>2314.2857142857065</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="7">
         <f t="shared" si="0"/>
         <v>925.7142857142826</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="7">
         <f t="shared" si="1"/>
         <v>46.285714285714171</v>
       </c>
-      <c r="E42" s="9">
-        <f t="shared" si="4"/>
+      <c r="E42" s="7">
+        <f t="shared" si="5"/>
         <v>708.40389883454463</v>
       </c>
-      <c r="F42" s="9">
-        <f t="shared" si="5"/>
+      <c r="F42" s="7">
+        <f t="shared" si="6"/>
         <v>2314.2857142857065</v>
       </c>
-      <c r="G42" s="10">
-        <f t="shared" si="11"/>
+      <c r="G42" s="8">
+        <f t="shared" si="12"/>
         <v>154.28571428571377</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="30">
+        <f t="shared" si="2"/>
+        <v>2142.7899463677632</v>
+      </c>
+      <c r="O42" s="31">
+        <f t="shared" si="13"/>
+        <v>1666.6144027304881</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="4">
+        <v>2060</v>
+      </c>
+      <c r="B43" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="32">
-        <f>F42*$K$2</f>
-        <v>2142.7899463677632</v>
-      </c>
-      <c r="O42" s="33">
-        <f t="shared" si="12"/>
-        <v>1666.6144027304881</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="6">
-        <v>2060</v>
-      </c>
-      <c r="B43" s="9">
-        <f t="shared" si="8"/>
         <v>2378.5714285714198</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="7">
         <f t="shared" si="0"/>
         <v>951.42857142856792</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="7">
         <f t="shared" si="1"/>
         <v>47.571428571428442</v>
       </c>
-      <c r="E43" s="9">
-        <f t="shared" si="4"/>
+      <c r="E43" s="7">
+        <f t="shared" si="5"/>
         <v>739.57367038326458</v>
       </c>
-      <c r="F43" s="9">
-        <f t="shared" si="5"/>
+      <c r="F43" s="7">
+        <f t="shared" si="6"/>
         <v>2378.5714285714198</v>
       </c>
-      <c r="G43" s="10">
-        <f t="shared" si="11"/>
+      <c r="G43" s="8">
+        <f t="shared" si="12"/>
         <v>158.57142857142799</v>
       </c>
-      <c r="H43" s="12">
-        <f t="shared" si="9"/>
+      <c r="H43" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M43" s="32">
-        <f>F43*$K$2</f>
+      <c r="M43" s="30">
+        <f t="shared" si="2"/>
         <v>2202.3118893224223</v>
       </c>
-      <c r="O43" s="33">
-        <f t="shared" si="12"/>
+      <c r="O43" s="31">
+        <f t="shared" si="13"/>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="7"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="7"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="7"/>
+      <c r="B59" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11503,7 +10182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4498FE-6132-4182-A978-4D1424908BA5}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -11516,187 +10195,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" style="6"/>
-    <col min="3" max="3" width="114.140625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="12.5703125" style="6"/>
+    <col min="1" max="2" width="12.5703125" style="4"/>
+    <col min="3" max="3" width="114.140625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="18.75">
-      <c r="C1" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>180</v>
+      <c r="C1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="3:4">
-      <c r="C2" s="20"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="3:4" ht="18.75">
-      <c r="C3" s="18"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="3:4" ht="18.75">
-      <c r="C4" s="18" t="s">
-        <v>181</v>
+      <c r="C4" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="6" t="s">
-        <v>182</v>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="21" t="s">
-        <v>183</v>
+      <c r="C6" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="21" t="s">
-        <v>184</v>
+      <c r="C7" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="24">
-      <c r="C8" s="21" t="s">
-        <v>185</v>
+      <c r="C8" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="21" t="s">
-        <v>186</v>
+      <c r="C9" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="22" t="s">
-        <v>187</v>
+      <c r="C10" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="21" t="s">
-        <v>188</v>
+      <c r="C11" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="21" t="s">
-        <v>189</v>
+      <c r="C12" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="31.5">
-      <c r="C13" s="22" t="s">
-        <v>190</v>
+      <c r="C13" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="3:4" ht="31.5">
-      <c r="C14" s="22" t="s">
-        <v>191</v>
+      <c r="C14" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="24">
-      <c r="C15" s="21" t="s">
-        <v>192</v>
+      <c r="C15" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="21" t="s">
-        <v>193</v>
+      <c r="C16" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="21" t="s">
-        <v>194</v>
+      <c r="C17" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="18.75">
-      <c r="C20" s="18" t="s">
-        <v>195</v>
+      <c r="C20" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="23" t="s">
-        <v>196</v>
+      <c r="C21" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="24"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="25" t="s">
-        <v>197</v>
+      <c r="C23" s="23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="3:3" ht="93.75">
-      <c r="C24" s="21" t="s">
-        <v>198</v>
+      <c r="C24" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="3:3" ht="81.75">
-      <c r="C25" s="26" t="s">
-        <v>199</v>
+      <c r="C25" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="81.75">
-      <c r="C26" s="26" t="s">
-        <v>200</v>
+      <c r="C26" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="3:3" ht="27.75">
-      <c r="C27" s="26" t="s">
-        <v>201</v>
+      <c r="C27" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="3:3" ht="27.75">
-      <c r="C28" s="26" t="s">
-        <v>202</v>
+      <c r="C28" s="24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="3:3" ht="63">
-      <c r="C29" s="26" t="s">
-        <v>203</v>
+      <c r="C29" s="24" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="27" t="s">
-        <v>204</v>
+      <c r="C30" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="28" t="s">
-        <v>205</v>
+      <c r="C31" s="26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="3:3" ht="163.5">
-      <c r="C32" s="21" t="s">
-        <v>206</v>
+      <c r="C32" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="36">
-      <c r="C33" s="21" t="s">
-        <v>207</v>
+      <c r="C33" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="235.5">
-      <c r="C34" s="29" t="s">
-        <v>208</v>
+      <c r="C34" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="118.5">
-      <c r="C35" s="30" t="s">
-        <v>209</v>
+      <c r="C35" s="28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="31"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="31"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="31"/>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="31"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="31"/>
+      <c r="C40" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/suppxls/Scen_CTax.xlsx
+++ b/suppxls/Scen_CTax.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4247E-85B0-49F7-B5B8-8665098C7533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AC2714-E748-4D59-8144-2D9EBAD6456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7C70B42E-9201-48A9-B8F0-1466C79FDCED}"/>
+    <workbookView xWindow="2190" yWindow="1860" windowWidth="26610" windowHeight="13740" activeTab="1" xr2:uid="{7C70B42E-9201-48A9-B8F0-1466C79FDCED}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2TaxInputs" sheetId="5" r:id="rId1"/>
-    <sheet name="Commodities_BASE" sheetId="1" r:id="rId2"/>
-    <sheet name="EmissionsAggregationCO2eq" sheetId="13" r:id="rId3"/>
-    <sheet name="TS_TAX" sheetId="8" r:id="rId4"/>
-    <sheet name="Inflation" sheetId="9" r:id="rId5"/>
-    <sheet name="Text budget speech and BR" sheetId="10" r:id="rId6"/>
+    <sheet name="TS_TAX" sheetId="8" r:id="rId2"/>
+    <sheet name="Inflation" sheetId="9" r:id="rId3"/>
+    <sheet name="Text budget speech and BR" sheetId="10" r:id="rId4"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -29,8 +29,6 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="\I">#REF!</definedName>
@@ -63,28 +61,24 @@
     <definedName name="aa">'[1]Oil Consumption – barrels'!#REF!</definedName>
     <definedName name="AGR">[2]Index!$C$7</definedName>
     <definedName name="COM">[2]Index!$C$8</definedName>
-    <definedName name="CV_Coal">'[7]Calorific values'!$B$18</definedName>
-    <definedName name="CV_GasSASOL">'[7]Calorific values'!$B$8</definedName>
-    <definedName name="Demand.Sectors" localSheetId="2">[8]Index!$D$2:$J$2</definedName>
-    <definedName name="Demand.Sectors">[3]Index!$D$2:$J$2</definedName>
-    <definedName name="diesel.cv">[9]units!$B$2</definedName>
+    <definedName name="CV_Coal">'[3]Calorific values'!$B$18</definedName>
+    <definedName name="CV_GasSASOL">'[3]Calorific values'!$B$8</definedName>
+    <definedName name="Demand.Sectors">[4]Index!$D$2:$J$2</definedName>
+    <definedName name="diesel.cv">[5]units!$B$2</definedName>
     <definedName name="discount_rate">#REF!</definedName>
     <definedName name="dr">#REF!</definedName>
-    <definedName name="drate">'[4]TechWATv5 (supwat5)'!$E$3</definedName>
-    <definedName name="emissions_start" localSheetId="2">[8]NameConv!$AY$4</definedName>
-    <definedName name="emissions_start">[3]NameConv!$AY$4</definedName>
-    <definedName name="emissions_types" localSheetId="2">[8]NameConv!$AX$3</definedName>
-    <definedName name="emissions_types">[3]NameConv!$AX$3</definedName>
+    <definedName name="drate">'[6]TechWATv5 (supwat5)'!$E$3</definedName>
+    <definedName name="emissions_start">[4]NameConv!$AY$4</definedName>
+    <definedName name="emissions_types">[4]NameConv!$AX$3</definedName>
     <definedName name="epp_start">#REF!</definedName>
     <definedName name="etech_data">#REF!</definedName>
     <definedName name="etech_parameters">#REF!</definedName>
     <definedName name="Exist_basic_data_start">#REF!</definedName>
-    <definedName name="FuelNames" localSheetId="2">[6]NameConv!$B$5:$C$46</definedName>
-    <definedName name="FuelNames">[3]NameConv!$B$5:$C$44</definedName>
-    <definedName name="FuelNamesLong">[6]NameConv!$B$5:$B$46</definedName>
-    <definedName name="FuelNamesShort">[6]NameConv!$C$5:$C$46</definedName>
-    <definedName name="gwpch4">'[7]SASOL CC 2019 report'!$E$98</definedName>
-    <definedName name="gwpn2o">'[7]SASOL CC 2019 report'!$E$97</definedName>
+    <definedName name="FuelNames">[4]NameConv!$B$5:$C$44</definedName>
+    <definedName name="FuelNamesLong">[7]NameConv!$B$5:$B$46</definedName>
+    <definedName name="FuelNamesShort">[7]NameConv!$C$5:$C$46</definedName>
+    <definedName name="gwpch4">'[3]SASOL CC 2019 report'!$E$98</definedName>
+    <definedName name="gwpn2o">'[3]SASOL CC 2019 report'!$E$97</definedName>
     <definedName name="H2.LHV.MJ_kg">'[8]Hydrogen-ELT'!$D$39</definedName>
     <definedName name="HTML1_1" hidden="1">"'[Syb96.xls]ESI in South Africa'!$A$2:$C$22"</definedName>
     <definedName name="HTML1_11" hidden="1">1</definedName>
@@ -92,18 +86,15 @@
     <definedName name="HTML1_2" hidden="1">-4146</definedName>
     <definedName name="HTML1_3" hidden="1">"C:\NER\Elec\Temp.htm"</definedName>
     <definedName name="HTMLCount" hidden="1">1</definedName>
-    <definedName name="inchtocentimetre" localSheetId="2">[6]FuelDistribution!$A$20</definedName>
-    <definedName name="inchtocentimetre">[3]Distribution!$A$17</definedName>
+    <definedName name="inchtocentimetre">[4]Distribution!$A$17</definedName>
     <definedName name="IND">[2]Index!$C$9</definedName>
     <definedName name="INIT">#REF!</definedName>
     <definedName name="InvConstraint">#REF!</definedName>
     <definedName name="LEAP">#REF!</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="Model_RUN_code" localSheetId="2">[8]Index!$A$2</definedName>
-    <definedName name="Model_RUN_code">[3]Index!$A$2</definedName>
-    <definedName name="New_basic_data_start">'[5]New Capacity basic data'!$B$9</definedName>
+    <definedName name="Model_RUN_code">[4]Index!$A$2</definedName>
+    <definedName name="New_basic_data_start">'[9]New Capacity basic data'!$B$9</definedName>
     <definedName name="newtech_cat">#REF!</definedName>
     <definedName name="newtech_count">#REF!</definedName>
     <definedName name="newtech_data">#REF!</definedName>
@@ -115,7 +106,7 @@
     <definedName name="par_TID_Ntech">#REF!</definedName>
     <definedName name="par_TS_ETech">#REF!</definedName>
     <definedName name="PeakContribution.Wind">#REF!</definedName>
-    <definedName name="petrol.cv">[9]units!$B$3</definedName>
+    <definedName name="petrol.cv">[5]units!$B$3</definedName>
     <definedName name="Print1">#REF!</definedName>
     <definedName name="REF.crude.CAP_rel.2020">'[8]Crude refineries'!$F$56</definedName>
     <definedName name="REF.crude.CAP_rel.2021">'[8]Crude refineries'!$G$56</definedName>
@@ -146,24 +137,16 @@
     <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
-    <definedName name="Sector.Agriculture" localSheetId="2">[8]Index!$D$2</definedName>
-    <definedName name="Sector.Agriculture">[3]Index!$D$2</definedName>
-    <definedName name="Sector.Commercial" localSheetId="2">[8]Index!$E$2</definedName>
-    <definedName name="Sector.Commercial">[3]Index!$E$2</definedName>
-    <definedName name="Sector.Industry" localSheetId="2">[8]Index!$F$2</definedName>
-    <definedName name="Sector.Industry">[3]Index!$F$2</definedName>
-    <definedName name="Sector.Power" localSheetId="2">[8]Index!$I$2</definedName>
-    <definedName name="Sector.Power">[3]Index!$I$2</definedName>
-    <definedName name="Sector.Residential" localSheetId="2">[8]Index!$H$2</definedName>
-    <definedName name="Sector.Residential">[3]Index!$H$2</definedName>
-    <definedName name="Sector.Supply" localSheetId="2">[8]Index!$J$2</definedName>
-    <definedName name="Sector.Supply">[3]Index!$J$2</definedName>
-    <definedName name="Sector.Transport" localSheetId="2">[8]Index!$G$2</definedName>
-    <definedName name="Sector.Transport">[3]Index!$G$2</definedName>
-    <definedName name="sector_prefix" localSheetId="2">[6]LNG!#REF!</definedName>
-    <definedName name="sector_prefix">[3]UPS!$B$6</definedName>
-    <definedName name="SectorNamesLong">[6]NameConv!$C$51:$C$59</definedName>
-    <definedName name="SectorNamesShort">[6]NameConv!$B$51:$B$59</definedName>
+    <definedName name="Sector.Agriculture">[4]Index!$D$2</definedName>
+    <definedName name="Sector.Commercial">[4]Index!$E$2</definedName>
+    <definedName name="Sector.Industry">[4]Index!$F$2</definedName>
+    <definedName name="Sector.Power">[4]Index!$I$2</definedName>
+    <definedName name="Sector.Residential">[4]Index!$H$2</definedName>
+    <definedName name="Sector.Supply">[4]Index!$J$2</definedName>
+    <definedName name="Sector.Transport">[4]Index!$G$2</definedName>
+    <definedName name="sector_prefix">[4]UPS!$B$6</definedName>
+    <definedName name="SectorNamesLong">[7]NameConv!$C$51:$C$59</definedName>
+    <definedName name="SectorNamesShort">[7]NameConv!$B$51:$B$59</definedName>
     <definedName name="TRA">[2]Index!$C$11</definedName>
     <definedName name="XLSIMSI" hidden="1">{"Sim",3,"Output 1","'Reworked data'!$AI$84","Output 2","'Reworked data'!$AJ$84","Output 3","'Reworked data'!$AK$84","1","2","100","0"}</definedName>
     <definedName name="XLSIMSIM" hidden="1">{"Sim",3,"Output 1","'Reworked data'!$AI$84","Output 2","'Reworked data'!$AJ$84","Output 3","'Reworked data'!$AK$84","1","2","100","0"}</definedName>
@@ -215,16 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
-  <si>
-    <t>REGION1</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>ITEMS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>CO2 Price Level</t>
   </si>
@@ -241,61 +215,16 @@
     <t>Scenario to Load</t>
   </si>
   <si>
-    <t>2012 Rands</t>
-  </si>
-  <si>
     <t>For SATIM</t>
   </si>
   <si>
     <t>For eSAGE</t>
   </si>
   <si>
-    <t>Fugitive Emissions South Africa</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>CO2SF</t>
-  </si>
-  <si>
-    <t>CO2SP</t>
-  </si>
-  <si>
-    <t>CH4SF</t>
-  </si>
-  <si>
-    <t>CO2S</t>
-  </si>
-  <si>
-    <t>CO2S South Africa</t>
-  </si>
-  <si>
-    <t>CH4S</t>
-  </si>
-  <si>
-    <t>CH4S South Africa</t>
-  </si>
-  <si>
-    <t>N2OS</t>
-  </si>
-  <si>
-    <t>N2OS South Africa</t>
-  </si>
-  <si>
     <t>COM_CSTNET</t>
   </si>
   <si>
     <t>2019 Rands/ton</t>
-  </si>
-  <si>
-    <t>CO2SPCEM</t>
-  </si>
-  <si>
-    <t>CO2SPIFC</t>
-  </si>
-  <si>
-    <t>CO2SPIFM</t>
   </si>
   <si>
     <t>RAMPUP</t>
@@ -732,139 +661,30 @@
     <t>2019 USD to ZAR</t>
   </si>
   <si>
-    <t>~FI_Comm</t>
-  </si>
-  <si>
-    <t>CommName</t>
-  </si>
-  <si>
-    <t>CommDesc</t>
-  </si>
-  <si>
-    <t>CommUnit</t>
-  </si>
-  <si>
-    <t>Csets</t>
-  </si>
-  <si>
-    <t>CTSLvl</t>
-  </si>
-  <si>
-    <t>ENV</t>
-  </si>
-  <si>
-    <t>~FI_COMM</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
     <t>Commodity</t>
   </si>
   <si>
-    <t>* South Africa Combustion Emissions</t>
-  </si>
-  <si>
     <t>CO2EQS</t>
   </si>
   <si>
-    <t>CO2EQS South Africa</t>
-  </si>
-  <si>
-    <t>CO2C</t>
-  </si>
-  <si>
-    <t>Combustion CO2 South Africa</t>
-  </si>
-  <si>
-    <t>CH4C</t>
-  </si>
-  <si>
-    <t>SOXS</t>
-  </si>
-  <si>
-    <t>SOXS South Africa</t>
-  </si>
-  <si>
-    <t>NOXS</t>
-  </si>
-  <si>
-    <t>NOXS South Africa</t>
-  </si>
-  <si>
-    <t>CMOX</t>
-  </si>
-  <si>
-    <t>CMOX South Africa</t>
-  </si>
-  <si>
-    <t>NMVS</t>
-  </si>
-  <si>
-    <t>NMVS South Africa</t>
-  </si>
-  <si>
-    <t>P10S</t>
-  </si>
-  <si>
-    <t>PM10 South Africa</t>
-  </si>
-  <si>
-    <t>Emissions Aggregation - CO2eq</t>
-  </si>
-  <si>
-    <t>~COMAGG</t>
-  </si>
-  <si>
-    <t>CF4</t>
-  </si>
-  <si>
-    <t>CF6</t>
-  </si>
-  <si>
-    <t>Combustion</t>
-  </si>
-  <si>
-    <t>Fugitive</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Combustion CH4 South Africa</t>
-  </si>
-  <si>
-    <t>* South Africa Fugitive Emissions</t>
-  </si>
-  <si>
-    <t>* South Africa Process Emissions</t>
-  </si>
-  <si>
-    <t>Process Emissions South Africa</t>
-  </si>
-  <si>
-    <t>Process Emissions FerroChrome South Africa</t>
-  </si>
-  <si>
-    <t>Process Emissions FerroManganese South Africa</t>
-  </si>
-  <si>
-    <t>Process Emissions Cement South Africa</t>
+    <t>~TFM_INS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R&quot;* #,##0.00_-;\-&quot;R&quot;* #,##0.00_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]&quot;-&quot;[$£-809]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;R&quot;* #,##0_);_(&quot;R&quot;* \(#,##0\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-404]* #,##0_-;\-[$$-404]* #,##0_-;_-[$$-404]* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;R&quot;* #,##0_);_(&quot;R&quot;* \(#,##0\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-404]* #,##0_-;\-[$$-404]* #,##0_-;_-[$$-404]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -891,23 +711,8 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1013,30 +818,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color indexed="56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1106,109 +892,99 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="8" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="7" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="3" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Currency 2" xfId="9" xr:uid="{22EEDF44-4C5D-4794-B5EE-C5C8637DB51C}"/>
-    <cellStyle name="Explanatory Text" xfId="7" builtinId="53"/>
-    <cellStyle name="Heading 2 2 2" xfId="11" xr:uid="{EE9B9C5B-98F3-4514-AE71-3800C91DD1CA}"/>
+  <cellStyles count="12">
+    <cellStyle name="Currency 2" xfId="8" xr:uid="{22EEDF44-4C5D-4794-B5EE-C5C8637DB51C}"/>
+    <cellStyle name="Heading 2 2 2" xfId="10" xr:uid="{EE9B9C5B-98F3-4514-AE71-3800C91DD1CA}"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="6" builtinId="19"/>
-    <cellStyle name="Hyperlink 2" xfId="10" xr:uid="{A3F19C8E-AD81-4DBD-AB7A-BC4E7ED94A8E}"/>
+    <cellStyle name="Hyperlink 2" xfId="9" xr:uid="{A3F19C8E-AD81-4DBD-AB7A-BC4E7ED94A8E}"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 13" xfId="2" xr:uid="{1030A58F-AC87-4AC7-BEDA-0B28F361A273}"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{76649DB0-523C-4EED-AA29-E0904107359B}"/>
     <cellStyle name="Normal 2 2 2" xfId="4" xr:uid="{43AB01CA-EFE9-462C-828F-E924A57F874B}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{5F62C08F-F918-4890-928E-4D18768A4B72}"/>
-    <cellStyle name="Normal 4" xfId="12" xr:uid="{DA0C4CD4-6B14-43D5-A2F5-F7E1839BD1B0}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{5F62C08F-F918-4890-928E-4D18768A4B72}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{DA0C4CD4-6B14-43D5-A2F5-F7E1839BD1B0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1441,7 +1217,7 @@
             <c:numRef>
               <c:f>Inflation!$B$4:$B$13</c:f>
               <c:numCache>
-                <c:formatCode>_("R"* #\ ##0_);_("R"* \(#\ ##0\);_("R"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_("R"* #,##0_);_("R"* \(#,##0\);_("R"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>134</c:v>
@@ -1621,7 +1397,7 @@
             <c:numRef>
               <c:f>Inflation!$F$4:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>_("R"* #\ ##0_);_("R"* \(#\ ##0\);_("R"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_("R"* #,##0_);_("R"* \(#,##0\);_("R"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>53.6</c:v>
@@ -1638,7 +1414,7 @@
                 <c:pt idx="4">
                   <c:v>104.4</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="_(&quot;R&quot;* #\ ##0.00_);_(&quot;R&quot;* \(#\ ##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="5" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -1748,7 +1524,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;R&quot;* #\ ##0_);_(&quot;R&quot;* \(#\ ##0\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;R&quot;* #,##0_);_(&quot;R&quot;* \(#,##0\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2090,7 +1866,7 @@
             <c:numRef>
               <c:f>Inflation!$B$4:$B$34</c:f>
               <c:numCache>
-                <c:formatCode>_("R"* #\ ##0_);_("R"* \(#\ ##0\);_("R"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_("R"* #,##0_);_("R"* \(#,##0\);_("R"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>134</c:v>
@@ -2339,7 +2115,7 @@
             <c:numRef>
               <c:f>Inflation!$F$4:$F$34</c:f>
               <c:numCache>
-                <c:formatCode>_("R"* #\ ##0_);_("R"* \(#\ ##0\);_("R"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_("R"* #,##0_);_("R"* \(#,##0\);_("R"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>53.6</c:v>
@@ -2356,7 +2132,7 @@
                 <c:pt idx="4">
                   <c:v>104.4</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="_(&quot;R&quot;* #\ ##0.00_);_(&quot;R&quot;* \(#\ ##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="5" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -2529,7 +2305,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;R&quot;* #\ ##0_);_(&quot;R&quot;* \(#\ ##0\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;R&quot;* #,##0_);_(&quot;R&quot;* \(#,##0\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3748,55 +3524,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>67946</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14633F5-7AD8-4186-9F5E-C2B343E16C5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6035040" y="38100"/>
-          <a:ext cx="4495800" cy="1410971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -4005,6 +3732,67 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="SASOL NIR 2017"/>
+      <sheetName val="SASOL Commodities"/>
+      <sheetName val="NERSA2017"/>
+      <sheetName val="GAS 2000-2029 CY"/>
+      <sheetName val="SASOL CC 2019 report"/>
+      <sheetName val="FTS-Unallocated"/>
+      <sheetName val="Secunda Emissions 2019 etc"/>
+      <sheetName val="Calorific values"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="11">
+          <cell r="U11">
+            <v>30.761111</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="D10">
+            <v>3809</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="97">
+          <cell r="E97">
+            <v>296</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="E98">
+            <v>23</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="8">
+          <cell r="B8">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>24.3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Index"/>
       <sheetName val="ChangeLog"/>
       <sheetName val="NameConv"/>
@@ -4492,7 +4280,47 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="fuel.comparison"/>
+      <sheetName val="FCS2018"/>
+      <sheetName val="SATIM"/>
+      <sheetName val="SAPIAAR2018"/>
+      <sheetName val="NIR2017"/>
+      <sheetName val="DoE.Petrol"/>
+      <sheetName val="DoE.Diesel"/>
+      <sheetName val="units"/>
+      <sheetName val="scrap"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2">
+            <v>38.6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>34.659999999999997</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4581,100 +4409,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Existing capacity basic data"/>
-      <sheetName val="PWR"/>
-      <sheetName val="ITEMS_Teche"/>
-      <sheetName val="TS ETech"/>
-      <sheetName val="TID ETech"/>
-      <sheetName val="ITEMS_Comm"/>
-      <sheetName val="New Capacity basic data"/>
-      <sheetName val="Inga"/>
-      <sheetName val="OtherRegionalProjects"/>
-      <sheetName val="NT_PWR"/>
-      <sheetName val="ITEMS_Techn"/>
-      <sheetName val="TS INVFX"/>
-      <sheetName val="TS INVFX_5yr"/>
-      <sheetName val="TS INVFX_IRP"/>
-      <sheetName val="TS NTech"/>
-      <sheetName val="TS NTechICost"/>
-      <sheetName val="TID NTech"/>
-      <sheetName val="ITEMS GRP"/>
-      <sheetName val="TS Othere"/>
-      <sheetName val="TID Othere"/>
-      <sheetName val="ITEMS UC"/>
-      <sheetName val="TS UC"/>
-      <sheetName val="TID UC"/>
-      <sheetName val="ITEMS UC_BLIPPP"/>
-      <sheetName val="TS UC_BLIPPP"/>
-      <sheetName val="TID UC_BLIPPP"/>
-      <sheetName val="REAvail"/>
-      <sheetName val="REAvail (2)"/>
-      <sheetName val="TS REAvail"/>
-      <sheetName val="REAvail_10TS"/>
-      <sheetName val="REAvail_10TS (2)"/>
-      <sheetName val="TS REAvail_10TS"/>
-      <sheetName val="REGIONS"/>
-      <sheetName val="NameConv"/>
-      <sheetName val="Deflator"/>
-      <sheetName val="EskomCoalEff"/>
-      <sheetName val="Analytica_Input"/>
-      <sheetName val="LogofChanges"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="9">
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4698,8 +4433,8 @@
       <sheetName val="FuelDistribution"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="5">
           <cell r="B5" t="str">
@@ -5094,85 +4829,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
-        <row r="20">
-          <cell r="A20">
-            <v>2.54</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SASOL NIR 2017"/>
-      <sheetName val="SASOL Commodities"/>
-      <sheetName val="NERSA2017"/>
-      <sheetName val="GAS 2000-2029 CY"/>
-      <sheetName val="SASOL CC 2019 report"/>
-      <sheetName val="FTS-Unallocated"/>
-      <sheetName val="Secunda Emissions 2019 etc"/>
-      <sheetName val="Calorific values"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="11">
-          <cell r="U11">
-            <v>30.761111</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="D10">
-            <v>3809</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="97">
-          <cell r="E97">
-            <v>296</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="E98">
-            <v>23</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="8">
-          <cell r="B8">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>24.3</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5264,27 +4932,6 @@
           <cell r="A2">
             <v>1</v>
           </cell>
-          <cell r="D2">
-            <v>1</v>
-          </cell>
-          <cell r="E2">
-            <v>1</v>
-          </cell>
-          <cell r="F2">
-            <v>1</v>
-          </cell>
-          <cell r="G2">
-            <v>1</v>
-          </cell>
-          <cell r="H2">
-            <v>1</v>
-          </cell>
-          <cell r="I2">
-            <v>1</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -5292,11 +4939,6 @@
         <row r="3">
           <cell r="AX3">
             <v>16</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="AY4" t="str">
-            <v>CO2S</v>
           </cell>
         </row>
       </sheetData>
@@ -5402,44 +5044,93 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="fuel.comparison"/>
-      <sheetName val="FCS2018"/>
-      <sheetName val="SATIM"/>
-      <sheetName val="SAPIAAR2018"/>
-      <sheetName val="NIR2017"/>
-      <sheetName val="DoE.Petrol"/>
-      <sheetName val="DoE.Diesel"/>
-      <sheetName val="units"/>
-      <sheetName val="scrap"/>
+      <sheetName val="Existing capacity basic data"/>
+      <sheetName val="PWR"/>
+      <sheetName val="ITEMS_Teche"/>
+      <sheetName val="TS ETech"/>
+      <sheetName val="TID ETech"/>
+      <sheetName val="ITEMS_Comm"/>
+      <sheetName val="New Capacity basic data"/>
+      <sheetName val="Inga"/>
+      <sheetName val="OtherRegionalProjects"/>
+      <sheetName val="NT_PWR"/>
+      <sheetName val="ITEMS_Techn"/>
+      <sheetName val="TS INVFX"/>
+      <sheetName val="TS INVFX_5yr"/>
+      <sheetName val="TS INVFX_IRP"/>
+      <sheetName val="TS NTech"/>
+      <sheetName val="TS NTechICost"/>
+      <sheetName val="TID NTech"/>
+      <sheetName val="ITEMS GRP"/>
+      <sheetName val="TS Othere"/>
+      <sheetName val="TID Othere"/>
+      <sheetName val="ITEMS UC"/>
+      <sheetName val="TS UC"/>
+      <sheetName val="TID UC"/>
+      <sheetName val="ITEMS UC_BLIPPP"/>
+      <sheetName val="TS UC_BLIPPP"/>
+      <sheetName val="TID UC_BLIPPP"/>
+      <sheetName val="REAvail"/>
+      <sheetName val="REAvail (2)"/>
+      <sheetName val="TS REAvail"/>
+      <sheetName val="REAvail_10TS"/>
+      <sheetName val="REAvail_10TS (2)"/>
+      <sheetName val="TS REAvail_10TS"/>
+      <sheetName val="REGIONS"/>
+      <sheetName val="NameConv"/>
+      <sheetName val="Deflator"/>
+      <sheetName val="EskomCoalEff"/>
+      <sheetName val="Analytica_Input"/>
+      <sheetName val="LogofChanges"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="B2">
-            <v>38.6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>34.659999999999997</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="9">
+          <cell r="B9">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5744,8 +5435,8 @@
   </sheetPr>
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5854,13 +5545,13 @@
     </row>
     <row r="2" spans="1:29" ht="15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>30</v>
@@ -5881,9 +5572,9 @@
         <f t="shared" ref="I2:I3" si="2">H2*1.02</f>
         <v>32.472964800000007</v>
       </c>
-      <c r="J2" t="str">
-        <f>""</f>
-        <v/>
+      <c r="J2">
+        <f>I2</f>
+        <v>32.472964800000007</v>
       </c>
       <c r="K2" t="str">
         <f>""</f>
@@ -5964,13 +5655,13 @@
     </row>
     <row r="3" spans="1:29" ht="15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>30</v>
@@ -6069,13 +5760,13 @@
     </row>
     <row r="4" spans="1:29" ht="15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
         <f>INDEX(Inflation!$O$2:$O$43,MATCH(E$1,Inflation!$A$2:$A$43,0))</f>
@@ -6180,14 +5871,14 @@
     </row>
     <row r="7" spans="1:29" ht="15">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <f>MATCH(E7,A2:A4,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -6290,7 +5981,7 @@
     </row>
     <row r="9" spans="1:29">
       <c r="D9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">INDEX(E$2:E$4,$F$7)</f>
@@ -6310,98 +6001,98 @@
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">INDEX(I$2:I$4,$F$7)</f>
-        <v>59.987158725823974</v>
+        <v>32.472964800000007</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" ref="J9">INDEX(J$2:J$4,$F$7)</f>
-        <v>88.138077451651043</v>
-      </c>
-      <c r="K9" cm="1">
+        <v>32.472964800000007</v>
+      </c>
+      <c r="K9" t="str" cm="1">
         <f t="array" ref="K9">INDEX(K$2:K$4,$F$7)</f>
-        <v>116.28899617747811</v>
-      </c>
-      <c r="L9" cm="1">
+        <v/>
+      </c>
+      <c r="L9" t="str" cm="1">
         <f t="array" ref="L9">INDEX(L$2:L$4,$F$7)</f>
-        <v>144.43991490330518</v>
-      </c>
-      <c r="M9" cm="1">
+        <v/>
+      </c>
+      <c r="M9" t="str" cm="1">
         <f t="array" ref="M9">INDEX(M$2:M$4,$F$7)</f>
-        <v>199.99372832765857</v>
-      </c>
-      <c r="N9" cm="1">
+        <v/>
+      </c>
+      <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">INDEX(N$2:N$4,$F$7)</f>
-        <v>263.8806137656606</v>
-      </c>
-      <c r="O9" cm="1">
+        <v/>
+      </c>
+      <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">INDEX(O$2:O$4,$F$7)</f>
-        <v>336.10057121731506</v>
-      </c>
-      <c r="P9" cm="1">
+        <v/>
+      </c>
+      <c r="P9" t="str" cm="1">
         <f t="array" ref="P9">INDEX(P$2:P$4,$F$7)</f>
-        <v>416.65360068262203</v>
-      </c>
-      <c r="Q9" cm="1">
+        <v/>
+      </c>
+      <c r="Q9" t="str" cm="1">
         <f t="array" ref="Q9">INDEX(Q$2:Q$4,$F$7)</f>
-        <v>476.1755436372822</v>
-      </c>
-      <c r="R9" cm="1">
+        <v/>
+      </c>
+      <c r="R9" t="str" cm="1">
         <f t="array" ref="R9">INDEX(R$2:R$4,$F$7)</f>
-        <v>535.69748659194261</v>
-      </c>
-      <c r="S9" cm="1">
+        <v/>
+      </c>
+      <c r="S9" t="str" cm="1">
         <f t="array" ref="S9">INDEX(S$2:S$4,$F$7)</f>
-        <v>595.21942954660278</v>
-      </c>
-      <c r="T9" cm="1">
+        <v/>
+      </c>
+      <c r="T9" t="str" cm="1">
         <f t="array" ref="T9">INDEX(T$2:T$4,$F$7)</f>
-        <v>654.74137250126307</v>
-      </c>
-      <c r="U9" cm="1">
+        <v/>
+      </c>
+      <c r="U9" t="str" cm="1">
         <f t="array" ref="U9">INDEX(U$2:U$4,$F$7)</f>
-        <v>714.26331545592336</v>
-      </c>
-      <c r="V9" cm="1">
+        <v/>
+      </c>
+      <c r="V9" t="str" cm="1">
         <f t="array" ref="V9">INDEX(V$2:V$4,$F$7)</f>
-        <v>773.78525841058365</v>
-      </c>
-      <c r="W9" cm="1">
+        <v/>
+      </c>
+      <c r="W9" t="str" cm="1">
         <f t="array" ref="W9">INDEX(W$2:W$4,$F$7)</f>
-        <v>833.30720136524394</v>
-      </c>
-      <c r="X9" cm="1">
+        <v/>
+      </c>
+      <c r="X9" t="str" cm="1">
         <f t="array" ref="X9">INDEX(X$2:X$4,$F$7)</f>
-        <v>892.82914431990423</v>
-      </c>
-      <c r="Y9" cm="1">
+        <v/>
+      </c>
+      <c r="Y9" t="str" cm="1">
         <f t="array" ref="Y9">INDEX(Y$2:Y$4,$F$7)</f>
-        <v>952.35108727456441</v>
-      </c>
-      <c r="Z9" cm="1">
+        <v/>
+      </c>
+      <c r="Z9" t="str" cm="1">
         <f t="array" ref="Z9">INDEX(Z$2:Z$4,$F$7)</f>
-        <v>1011.8730302292249</v>
-      </c>
-      <c r="AA9" cm="1">
+        <v/>
+      </c>
+      <c r="AA9" t="str" cm="1">
         <f t="array" ref="AA9">INDEX(AA$2:AA$4,$F$7)</f>
-        <v>1309.4827450025268</v>
-      </c>
-      <c r="AB9" cm="1">
+        <v/>
+      </c>
+      <c r="AB9" t="str" cm="1">
         <f t="array" ref="AB9">INDEX(AB$2:AB$4,$F$7)</f>
-        <v>1607.0924597758287</v>
-      </c>
-      <c r="AC9" cm="1">
+        <v/>
+      </c>
+      <c r="AC9" t="str" cm="1">
         <f t="array" ref="AC9">INDEX(AC$2:AC$4,$F$7)</f>
-        <v>1666.6144027304881</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1.1524982174688057</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <f>IF(E9="","",E9*$C10/1000)</f>
@@ -6421,198 +6112,195 @@
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>6.9135093502530442E-2</v>
+        <v>3.7425034047927276E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>0.10157897715415536</v>
-      </c>
-      <c r="K10">
+        <v>3.7425034047927276E-2</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="4"/>
-        <v>0.13402286080578027</v>
-      </c>
-      <c r="L10">
+        <v/>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="4"/>
-        <v>0.1664667444574052</v>
-      </c>
-      <c r="M10">
+        <v/>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="4"/>
-        <v>0.23049241540256707</v>
-      </c>
-      <c r="N10">
+        <v/>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="4"/>
-        <v>0.30412193698949824</v>
-      </c>
-      <c r="O10">
+        <v/>
+      </c>
+      <c r="O10" t="str">
         <f t="shared" si="4"/>
-        <v>0.38735530921820299</v>
-      </c>
-      <c r="P10">
+        <v/>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="4"/>
-        <v>0.48019253208868146</v>
-      </c>
-      <c r="Q10">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" si="4"/>
-        <v>0.54879146524420719</v>
-      </c>
-      <c r="R10">
+        <v/>
+      </c>
+      <c r="R10" t="str">
         <f t="shared" si="4"/>
-        <v>0.61739039839973331</v>
-      </c>
-      <c r="S10">
+        <v/>
+      </c>
+      <c r="S10" t="str">
         <f t="shared" si="4"/>
-        <v>0.68598933155525899</v>
-      </c>
-      <c r="T10">
+        <v/>
+      </c>
+      <c r="T10" t="str">
         <f t="shared" si="4"/>
-        <v>0.75458826471078499</v>
-      </c>
-      <c r="U10">
+        <v/>
+      </c>
+      <c r="U10" t="str">
         <f t="shared" si="4"/>
-        <v>0.82318719786631089</v>
-      </c>
-      <c r="V10">
+        <v/>
+      </c>
+      <c r="V10" t="str">
         <f t="shared" si="4"/>
-        <v>0.89178613102183679</v>
-      </c>
-      <c r="W10">
+        <v/>
+      </c>
+      <c r="W10" t="str">
         <f t="shared" si="4"/>
-        <v>0.9603850641773628</v>
-      </c>
-      <c r="X10">
+        <v/>
+      </c>
+      <c r="X10" t="str">
         <f t="shared" si="4"/>
-        <v>1.0289839973328887</v>
-      </c>
-      <c r="Y10">
+        <v/>
+      </c>
+      <c r="Y10" t="str">
         <f t="shared" si="4"/>
-        <v>1.0975829304884144</v>
-      </c>
-      <c r="Z10">
+        <v/>
+      </c>
+      <c r="Z10" t="str">
         <f t="shared" si="4"/>
-        <v>1.1661818636439407</v>
-      </c>
-      <c r="AA10">
+        <v/>
+      </c>
+      <c r="AA10" t="str">
         <f t="shared" si="4"/>
-        <v>1.5091765294215707</v>
-      </c>
-      <c r="AB10">
+        <v/>
+      </c>
+      <c r="AB10" t="str">
         <f t="shared" si="4"/>
-        <v>1.8521711951992008</v>
-      </c>
-      <c r="AC10">
+        <v/>
+      </c>
+      <c r="AC10" t="str">
         <f t="shared" ref="AC10" si="5">IF(AC9="","",AC9*$C10/1000)</f>
-        <v>1.9207701283547258</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0.69899999999999995</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <f>IF(E10="","",E10*$C11)</f>
-        <v>2.4167887620320853E-2</v>
+        <f>E9/1000</f>
+        <v>0.03</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11" si="6">IF(F10="","",F10*$C11)</f>
-        <v>2.4651245372727271E-2</v>
+        <f t="shared" ref="F11:J11" si="6">F9/1000</f>
+        <v>3.0600000000000002E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11" si="7">IF(G10="","",G10*$C11)</f>
-        <v>2.5144270280181815E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.1212000000000004E-2</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11" si="8">IF(H10="","",H10*$C11)</f>
-        <v>2.5647155685785458E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.1836240000000002E-2</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11" si="9">IF(I10="","",I10*$C11)</f>
-        <v>4.8325430358268778E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.2472964800000004E-2</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11" si="10">IF(J10="","",J10*$C11)</f>
-        <v>7.1003705030754594E-2</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ref="K11" si="11">IF(K10="","",K10*$C11)</f>
-        <v>9.3681979703240409E-2</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ref="L11" si="12">IF(L10="","",L10*$C11)</f>
-        <v>0.11636025437572622</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ref="M11" si="13">IF(M10="","",M10*$C11)</f>
-        <v>0.16111419836639437</v>
-      </c>
-      <c r="N11">
-        <f t="shared" ref="N11" si="14">IF(N10="","",N10*$C11)</f>
-        <v>0.21258123395565925</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ref="O11" si="15">IF(O10="","",O10*$C11)</f>
-        <v>0.27076136114352389</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ref="P11" si="16">IF(P10="","",P10*$C11)</f>
-        <v>0.33565457992998832</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" ref="Q11" si="17">IF(Q10="","",Q10*$C11)</f>
-        <v>0.38360523420570081</v>
-      </c>
-      <c r="R11">
-        <f t="shared" ref="R11" si="18">IF(R10="","",R10*$C11)</f>
-        <v>0.43155588848141357</v>
-      </c>
-      <c r="S11">
-        <f t="shared" ref="S11" si="19">IF(S10="","",S10*$C11)</f>
-        <v>0.47950654275712601</v>
-      </c>
-      <c r="T11">
-        <f t="shared" ref="T11" si="20">IF(T10="","",T10*$C11)</f>
-        <v>0.52745719703283866</v>
-      </c>
-      <c r="U11">
-        <f t="shared" ref="U11" si="21">IF(U10="","",U10*$C11)</f>
-        <v>0.57540785130855132</v>
-      </c>
-      <c r="V11">
-        <f t="shared" ref="V11" si="22">IF(V10="","",V10*$C11)</f>
-        <v>0.62335850558426387</v>
-      </c>
-      <c r="W11">
-        <f t="shared" ref="W11" si="23">IF(W10="","",W10*$C11)</f>
-        <v>0.67130915985997652</v>
-      </c>
-      <c r="X11">
-        <f t="shared" ref="X11" si="24">IF(X10="","",X10*$C11)</f>
-        <v>0.71925981413568918</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" ref="Y11" si="25">IF(Y10="","",Y10*$C11)</f>
-        <v>0.76721046841140161</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" ref="Z11" si="26">IF(Z10="","",Z10*$C11)</f>
-        <v>0.81516112268711449</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" ref="AA11" si="27">IF(AA10="","",AA10*$C11)</f>
-        <v>1.0549143940656778</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" ref="AB11:AC11" si="28">IF(AB10="","",AB10*$C11)</f>
-        <v>1.2946676654442413</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="28"/>
-        <v>1.3426183197199533</v>
+        <f t="shared" si="6"/>
+        <v>3.2472964800000004E-2</v>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(K10="","",K9/1000)</f>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:AC11" si="7">IF(L10="","",L9/1000)</f>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -6626,760 +6314,244 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF96FFC4-2971-4AAA-B927-40CBF915AC84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAC9DA4-E441-407B-9029-809478807945}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="B6:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="6" spans="2:30" ht="15.75" thickBot="1">
+      <c r="B6" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" ht="15">
+      <c r="B7" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="33">
+        <v>2018</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" ref="E7:Z7" si="0">D7+1</f>
+        <v>2019</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="L7" s="33">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="M7" s="33">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="N7" s="33">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="O7" s="33">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="P7" s="33">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="Q7" s="33">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="R7" s="33">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="S7" s="33">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="T7" s="33">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="U7" s="33">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="V7" s="33">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="W7" s="33">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="X7" s="33">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="Y7" s="33">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="Z7" s="33">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="AA7" s="33">
+        <v>2045</v>
+      </c>
+      <c r="AB7" s="33">
+        <v>2050</v>
+      </c>
+      <c r="AC7" s="33">
+        <v>2060</v>
+      </c>
+      <c r="AD7" s="33">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" ht="15">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C6" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15">
-      <c r="C7" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="15">
-      <c r="B8" s="3"/>
-      <c r="C8" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="3"/>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="3"/>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="3"/>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="3"/>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="3"/>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="3"/>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="3"/>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="3"/>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="3"/>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="3"/>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="3"/>
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" ht="15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="3"/>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="3"/>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" ht="15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="3"/>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="3"/>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="3"/>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="3"/>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="E8">
+        <f>CO2TaxInputs!E10</f>
+        <v>3.4574946524064169E-2</v>
+      </c>
+      <c r="F8">
+        <f>CO2TaxInputs!F10</f>
+        <v>3.5266445454545457E-2</v>
+      </c>
+      <c r="G8">
+        <f>CO2TaxInputs!G10</f>
+        <v>3.5971774363636362E-2</v>
+      </c>
+      <c r="H8">
+        <f>CO2TaxInputs!H10</f>
+        <v>3.6691209850909096E-2</v>
+      </c>
+      <c r="I8">
+        <f>CO2TaxInputs!I10</f>
+        <v>3.7425034047927276E-2</v>
+      </c>
+      <c r="J8">
+        <f>CO2TaxInputs!J10</f>
+        <v>3.7425034047927276E-2</v>
+      </c>
+      <c r="K8" t="str">
+        <f>CO2TaxInputs!K10</f>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f>CO2TaxInputs!L10</f>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f>CO2TaxInputs!M10</f>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f>CO2TaxInputs!N10</f>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f>CO2TaxInputs!O10</f>
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <f>CO2TaxInputs!P10</f>
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <f>CO2TaxInputs!Q10</f>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f>CO2TaxInputs!R10</f>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f>CO2TaxInputs!S10</f>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f>CO2TaxInputs!T10</f>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f>CO2TaxInputs!U10</f>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f>CO2TaxInputs!V10</f>
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <f>CO2TaxInputs!W10</f>
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <f>CO2TaxInputs!X10</f>
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <f>CO2TaxInputs!Y10</f>
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <f>CO2TaxInputs!Z10</f>
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <f>CO2TaxInputs!AA10</f>
+        <v/>
+      </c>
+      <c r="AB8" t="str">
+        <f>CO2TaxInputs!AB10</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7387,1018 +6559,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0B9177-634C-40E0-B876-E6B984C675C9}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:BB96"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="7.28515625" style="38" customWidth="1"/>
-    <col min="16" max="48" width="4.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.7109375" style="38"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1"/>
-    <row r="5" spans="1:11">
-      <c r="B5" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="38">
-        <v>1</v>
-      </c>
-      <c r="D7" s="38">
-        <v>28</v>
-      </c>
-      <c r="E7" s="38">
-        <v>265</v>
-      </c>
-      <c r="F7" s="38">
-        <v>6630</v>
-      </c>
-      <c r="G7" s="38">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="38">
-        <v>1</v>
-      </c>
-      <c r="D11" s="38">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="38">
-        <v>1</v>
-      </c>
-      <c r="H11" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="38">
-        <v>1</v>
-      </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="34"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="34"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="34"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="34"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="34"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="34"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="34"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="34"/>
-    </row>
-    <row r="33" spans="2:54">
-      <c r="B33" s="34"/>
-    </row>
-    <row r="34" spans="2:54">
-      <c r="B34" s="34"/>
-    </row>
-    <row r="44" spans="2:54">
-      <c r="BA44" s="38">
-        <v>1</v>
-      </c>
-      <c r="BB44" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:54">
-      <c r="BA45" s="38">
-        <v>1</v>
-      </c>
-      <c r="BB45" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:54">
-      <c r="BA46" s="38">
-        <v>1</v>
-      </c>
-      <c r="BB46" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:54">
-      <c r="BA47" s="38">
-        <v>1</v>
-      </c>
-      <c r="BB47" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:54">
-      <c r="BA48" s="38">
-        <v>1</v>
-      </c>
-      <c r="BB48" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="53:54">
-      <c r="BA49" s="38" t="e">
-        <f>IF(BA48=#REF!,1,BA48+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB49" s="38" t="e">
-        <f>IF(BA48=#REF!,BB48+1,BB48)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="53:54">
-      <c r="BA50" s="38" t="e">
-        <f>IF(BA49=#REF!,1,BA49+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB50" s="38" t="e">
-        <f>IF(BA49=#REF!,BB49+1,BB49)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="53:54">
-      <c r="BA51" s="38" t="e">
-        <f>IF(BA50=#REF!,1,BA50+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB51" s="38" t="e">
-        <f>IF(BA50=#REF!,BB50+1,BB50)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="53:54">
-      <c r="BA52" s="38" t="e">
-        <f>IF(BA51=#REF!,1,BA51+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB52" s="38" t="e">
-        <f>IF(BA51=#REF!,BB51+1,BB51)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="53:54">
-      <c r="BA53" s="38" t="e">
-        <f>IF(BA52=#REF!,1,BA52+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB53" s="38" t="e">
-        <f>IF(BA52=#REF!,BB52+1,BB52)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="53:54">
-      <c r="BA54" s="38" t="e">
-        <f>IF(BA53=#REF!,1,BA53+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB54" s="38" t="e">
-        <f>IF(BA53=#REF!,BB53+1,BB53)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="53:54">
-      <c r="BA55" s="38" t="e">
-        <f>IF(BA54=#REF!,1,BA54+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB55" s="38" t="e">
-        <f>IF(BA54=#REF!,BB54+1,BB54)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="56" spans="53:54">
-      <c r="BA56" s="38" t="e">
-        <f>IF(BA55=#REF!,1,BA55+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB56" s="38" t="e">
-        <f>IF(BA55=#REF!,BB55+1,BB55)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="57" spans="53:54">
-      <c r="BA57" s="38" t="e">
-        <f>IF(BA56=#REF!,1,BA56+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB57" s="38" t="e">
-        <f>IF(BA56=#REF!,BB56+1,BB56)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="58" spans="53:54">
-      <c r="BA58" s="38" t="e">
-        <f>IF(BA57=#REF!,1,BA57+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB58" s="38" t="e">
-        <f>IF(BA57=#REF!,BB57+1,BB57)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="53:54">
-      <c r="BA59" s="38" t="e">
-        <f>IF(BA58=#REF!,1,BA58+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB59" s="38" t="e">
-        <f>IF(BA58=#REF!,BB58+1,BB58)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="60" spans="53:54">
-      <c r="BA60" s="38" t="e">
-        <f>IF(BA59=#REF!,1,BA59+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB60" s="38" t="e">
-        <f>IF(BA59=#REF!,BB59+1,BB59)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="61" spans="53:54">
-      <c r="BA61" s="38" t="e">
-        <f>IF(BA60=#REF!,1,BA60+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB61" s="38" t="e">
-        <f>IF(BA60=#REF!,BB60+1,BB60)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="53:54">
-      <c r="BA62" s="38" t="e">
-        <f>IF(BA61=#REF!,1,BA61+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB62" s="38" t="e">
-        <f>IF(BA61=#REF!,BB61+1,BB61)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="53:54">
-      <c r="BA63" s="38" t="e">
-        <f>IF(BA62=#REF!,1,BA62+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB63" s="38" t="e">
-        <f>IF(BA62=#REF!,BB62+1,BB62)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="53:54">
-      <c r="BA64" s="38" t="e">
-        <f>IF(BA63=#REF!,1,BA63+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB64" s="38" t="e">
-        <f>IF(BA63=#REF!,BB63+1,BB63)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="65" spans="53:54">
-      <c r="BA65" s="38" t="e">
-        <f>IF(BA64=#REF!,1,BA64+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB65" s="38" t="e">
-        <f>IF(BA64=#REF!,BB64+1,BB64)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="66" spans="53:54">
-      <c r="BA66" s="38" t="e">
-        <f>IF(BA65=#REF!,1,BA65+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB66" s="38" t="e">
-        <f>IF(BA65=#REF!,BB65+1,BB65)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="67" spans="53:54">
-      <c r="BA67" s="38" t="e">
-        <f>IF(BA66=#REF!,1,BA66+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB67" s="38" t="e">
-        <f>IF(BA66=#REF!,BB66+1,BB66)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="68" spans="53:54">
-      <c r="BA68" s="38" t="e">
-        <f>IF(BA67=#REF!,1,BA67+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB68" s="38" t="e">
-        <f>IF(BA67=#REF!,BB67+1,BB67)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="69" spans="53:54">
-      <c r="BA69" s="38" t="e">
-        <f>IF(BA68=#REF!,1,BA68+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB69" s="38" t="e">
-        <f>IF(BA68=#REF!,BB68+1,BB68)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="70" spans="53:54">
-      <c r="BA70" s="38" t="e">
-        <f>IF(BA69=#REF!,1,BA69+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB70" s="38" t="e">
-        <f>IF(BA69=#REF!,BB69+1,BB69)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="53:54">
-      <c r="BA71" s="38" t="e">
-        <f>IF(BA70=#REF!,1,BA70+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB71" s="38" t="e">
-        <f>IF(BA70=#REF!,BB70+1,BB70)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="53:54">
-      <c r="BA72" s="38" t="e">
-        <f>IF(BA71=#REF!,1,BA71+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB72" s="38" t="e">
-        <f>IF(BA71=#REF!,BB71+1,BB71)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="73" spans="53:54">
-      <c r="BA73" s="38" t="e">
-        <f>IF(BA72=#REF!,1,BA72+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB73" s="38" t="e">
-        <f>IF(BA72=#REF!,BB72+1,BB72)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="74" spans="53:54">
-      <c r="BA74" s="38" t="e">
-        <f>IF(BA73=#REF!,1,BA73+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB74" s="38" t="e">
-        <f>IF(BA73=#REF!,BB73+1,BB73)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="75" spans="53:54">
-      <c r="BA75" s="38" t="e">
-        <f>IF(BA74=#REF!,1,BA74+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB75" s="38" t="e">
-        <f>IF(BA74=#REF!,BB74+1,BB74)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="76" spans="53:54">
-      <c r="BA76" s="38" t="e">
-        <f>IF(BA75=#REF!,1,BA75+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB76" s="38" t="e">
-        <f>IF(BA75=#REF!,BB75+1,BB75)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="77" spans="53:54">
-      <c r="BA77" s="38" t="e">
-        <f>IF(BA76=#REF!,1,BA76+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB77" s="38" t="e">
-        <f>IF(BA76=#REF!,BB76+1,BB76)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="78" spans="53:54">
-      <c r="BA78" s="38" t="e">
-        <f>IF(BA77=#REF!,1,BA77+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB78" s="38" t="e">
-        <f>IF(BA77=#REF!,BB77+1,BB77)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="79" spans="53:54">
-      <c r="BA79" s="38" t="e">
-        <f>IF(BA78=#REF!,1,BA78+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB79" s="38" t="e">
-        <f>IF(BA78=#REF!,BB78+1,BB78)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="80" spans="53:54">
-      <c r="BA80" s="38" t="e">
-        <f>IF(BA79=#REF!,1,BA79+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB80" s="38" t="e">
-        <f>IF(BA79=#REF!,BB79+1,BB79)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="81" spans="53:54">
-      <c r="BA81" s="38" t="e">
-        <f>IF(BA80=#REF!,1,BA80+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB81" s="38" t="e">
-        <f>IF(BA80=#REF!,BB80+1,BB80)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="82" spans="53:54">
-      <c r="BA82" s="38" t="e">
-        <f>IF(BA81=#REF!,1,BA81+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB82" s="38" t="e">
-        <f>IF(BA81=#REF!,BB81+1,BB81)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="83" spans="53:54">
-      <c r="BA83" s="38" t="e">
-        <f>IF(BA82=#REF!,1,BA82+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB83" s="38" t="e">
-        <f>IF(BA82=#REF!,BB82+1,BB82)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="84" spans="53:54">
-      <c r="BA84" s="38" t="e">
-        <f>IF(BA83=#REF!,1,BA83+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB84" s="38" t="e">
-        <f>IF(BA83=#REF!,BB83+1,BB83)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="85" spans="53:54">
-      <c r="BA85" s="38" t="e">
-        <f>IF(BA84=#REF!,1,BA84+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB85" s="38" t="e">
-        <f>IF(BA84=#REF!,BB84+1,BB84)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="86" spans="53:54">
-      <c r="BA86" s="38" t="e">
-        <f>IF(BA85=#REF!,1,BA85+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB86" s="38" t="e">
-        <f>IF(BA85=#REF!,BB85+1,BB85)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="87" spans="53:54">
-      <c r="BA87" s="38" t="e">
-        <f>IF(BA86=#REF!,1,BA86+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB87" s="38" t="e">
-        <f>IF(BA86=#REF!,BB86+1,BB86)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="88" spans="53:54">
-      <c r="BA88" s="38" t="e">
-        <f>IF(BA87=#REF!,1,BA87+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB88" s="38" t="e">
-        <f>IF(BA87=#REF!,BB87+1,BB87)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="89" spans="53:54">
-      <c r="BA89" s="38" t="e">
-        <f>IF(BA88=#REF!,1,BA88+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB89" s="38" t="e">
-        <f>IF(BA88=#REF!,BB88+1,BB88)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="90" spans="53:54">
-      <c r="BA90" s="38" t="e">
-        <f>IF(BA89=#REF!,1,BA89+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB90" s="38" t="e">
-        <f>IF(BA89=#REF!,BB89+1,BB89)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="91" spans="53:54">
-      <c r="BA91" s="38" t="e">
-        <f>IF(BA90=#REF!,1,BA90+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB91" s="38" t="e">
-        <f>IF(BA90=#REF!,BB90+1,BB90)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="92" spans="53:54">
-      <c r="BA92" s="38" t="e">
-        <f>IF(BA91=#REF!,1,BA91+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB92" s="38" t="e">
-        <f>IF(BA91=#REF!,BB91+1,BB91)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="93" spans="53:54">
-      <c r="BA93" s="38" t="e">
-        <f>IF(BA92=#REF!,1,BA92+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB93" s="38" t="e">
-        <f>IF(BA92=#REF!,BB92+1,BB92)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="94" spans="53:54">
-      <c r="BA94" s="38" t="e">
-        <f>IF(BA93=#REF!,1,BA93+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB94" s="38" t="e">
-        <f>IF(BA93=#REF!,BB93+1,BB93)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="95" spans="53:54">
-      <c r="BA95" s="38" t="e">
-        <f>IF(BA94=#REF!,1,BA94+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB95" s="38" t="e">
-        <f>IF(BA94=#REF!,BB94+1,BB94)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="96" spans="53:54">
-      <c r="BA96" s="38" t="e">
-        <f>IF(BA95=#REF!,1,BA95+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB96" s="38" t="e">
-        <f>IF(BA95=#REF!,BB95+1,BB95)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAC9DA4-E441-407B-9029-809478807945}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="B6:AK8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:37" ht="15.75" thickBot="1">
-      <c r="B6" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:37" ht="15">
-      <c r="B7" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="34">
-        <v>2012</v>
-      </c>
-      <c r="F7" s="34">
-        <f>E7+1</f>
-        <v>2013</v>
-      </c>
-      <c r="G7" s="34">
-        <f t="shared" ref="G7:AG7" si="0">F7+1</f>
-        <v>2014</v>
-      </c>
-      <c r="H7" s="34">
-        <f t="shared" si="0"/>
-        <v>2015</v>
-      </c>
-      <c r="I7" s="34">
-        <f t="shared" si="0"/>
-        <v>2016</v>
-      </c>
-      <c r="J7" s="34">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="K7" s="34">
-        <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
-      <c r="L7" s="34">
-        <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="M7" s="34">
-        <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="N7" s="34">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="O7" s="34">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="P7" s="34">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="Q7" s="34">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="R7" s="34">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="S7" s="34">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="T7" s="34">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="U7" s="34">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="V7" s="34">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="W7" s="34">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="X7" s="34">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="Y7" s="34">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="Z7" s="34">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="AA7" s="34">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="AB7" s="34">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="AC7" s="34">
-        <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="AD7" s="34">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="AE7" s="34">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="AF7" s="34">
-        <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="AG7" s="34">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="AH7" s="34">
-        <v>2045</v>
-      </c>
-      <c r="AI7" s="34">
-        <v>2050</v>
-      </c>
-      <c r="AJ7" s="34">
-        <v>2060</v>
-      </c>
-      <c r="AK7" s="34">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="8" spans="2:37" ht="15">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>CO2TaxInputs!E10</f>
-        <v>3.4574946524064169E-2</v>
-      </c>
-      <c r="M8">
-        <f>CO2TaxInputs!F10</f>
-        <v>3.5266445454545457E-2</v>
-      </c>
-      <c r="N8">
-        <f>CO2TaxInputs!G10</f>
-        <v>3.5971774363636362E-2</v>
-      </c>
-      <c r="O8">
-        <f>CO2TaxInputs!H10</f>
-        <v>3.6691209850909096E-2</v>
-      </c>
-      <c r="P8">
-        <f>CO2TaxInputs!I10</f>
-        <v>6.9135093502530442E-2</v>
-      </c>
-      <c r="Q8">
-        <f>CO2TaxInputs!J10</f>
-        <v>0.10157897715415536</v>
-      </c>
-      <c r="R8">
-        <f>CO2TaxInputs!K10</f>
-        <v>0.13402286080578027</v>
-      </c>
-      <c r="S8">
-        <f>CO2TaxInputs!L10</f>
-        <v>0.1664667444574052</v>
-      </c>
-      <c r="T8">
-        <f>CO2TaxInputs!M10</f>
-        <v>0.23049241540256707</v>
-      </c>
-      <c r="U8">
-        <f>CO2TaxInputs!N10</f>
-        <v>0.30412193698949824</v>
-      </c>
-      <c r="V8">
-        <f>CO2TaxInputs!O10</f>
-        <v>0.38735530921820299</v>
-      </c>
-      <c r="W8">
-        <f>CO2TaxInputs!P10</f>
-        <v>0.48019253208868146</v>
-      </c>
-      <c r="X8">
-        <f>CO2TaxInputs!Q10</f>
-        <v>0.54879146524420719</v>
-      </c>
-      <c r="Y8">
-        <f>CO2TaxInputs!R10</f>
-        <v>0.61739039839973331</v>
-      </c>
-      <c r="Z8">
-        <f>CO2TaxInputs!S10</f>
-        <v>0.68598933155525899</v>
-      </c>
-      <c r="AA8">
-        <f>CO2TaxInputs!T10</f>
-        <v>0.75458826471078499</v>
-      </c>
-      <c r="AB8">
-        <f>CO2TaxInputs!U10</f>
-        <v>0.82318719786631089</v>
-      </c>
-      <c r="AC8">
-        <f>CO2TaxInputs!V10</f>
-        <v>0.89178613102183679</v>
-      </c>
-      <c r="AD8">
-        <f>CO2TaxInputs!W10</f>
-        <v>0.9603850641773628</v>
-      </c>
-      <c r="AE8">
-        <f>CO2TaxInputs!X10</f>
-        <v>1.0289839973328887</v>
-      </c>
-      <c r="AF8">
-        <f>CO2TaxInputs!Y10</f>
-        <v>1.0975829304884144</v>
-      </c>
-      <c r="AG8">
-        <f>CO2TaxInputs!Z10</f>
-        <v>1.1661818636439407</v>
-      </c>
-      <c r="AH8">
-        <f>CO2TaxInputs!AA10</f>
-        <v>1.5091765294215707</v>
-      </c>
-      <c r="AI8">
-        <f>CO2TaxInputs!AB10</f>
-        <v>1.8521711951992008</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6068603C-52C8-4901-8929-8EEE898C946A}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -8411,1770 +6571,1770 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="10" width="12.5703125" style="4"/>
-    <col min="11" max="11" width="34.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="12.5703125" style="4"/>
+    <col min="1" max="10" width="12.5703125" style="3"/>
+    <col min="11" max="11" width="34.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="110.25">
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>27</v>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2019</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="4">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="3">
         <v>0.92589689040582668</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="31">
+      <c r="M2" s="4"/>
+      <c r="N2" s="30">
         <f t="array" ref="N2:N13">TRANSPOSE(CO2TaxInputs!E3:P3)</f>
         <v>30</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="30">
         <f>N2</f>
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2020</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="31">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="30">
         <v>30.6</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="30">
         <f>N3</f>
         <v>30.6</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2021</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>134</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f t="shared" ref="C4:C43" si="0">B4*(1-$J$16)</f>
         <v>53.6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D43" si="1">C4*(1-$J$17)</f>
         <v>2.6800000000000024</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>B4</f>
         <v>134</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>C4</f>
         <v>53.6</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>14.435708333333336</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="29">
         <f t="shared" ref="M4:M43" si="2">F4*$K$2</f>
         <v>49.628073325752311</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="30">
         <v>31.212000000000003</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="30">
         <f>N4</f>
         <v>31.212000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2022</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>144</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>57.6</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" si="1"/>
         <v>2.8800000000000026</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" ref="E5" si="3">B5</f>
         <v>144</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>C5</f>
         <v>57.6</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="M5" s="30">
+      <c r="J5" s="7"/>
+      <c r="M5" s="29">
         <f t="shared" si="2"/>
         <v>53.331660887375619</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="30">
         <v>31.836240000000004</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="30">
         <f>N5</f>
         <v>31.836240000000004</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2023</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <f>(B$9-B$5)/4+B5</f>
         <v>183</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>73.2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="1"/>
         <v>3.6600000000000033</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f>E5*(1+$J$18)</f>
         <v>150.33600000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>C6</f>
         <v>73.2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>640</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <f>I6/J15</f>
         <v>42.666666666666664</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="29">
         <f t="shared" si="2"/>
         <v>67.775652377706521</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="30">
         <v>32.472964800000007</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="30">
         <f>_xlfn.FORECAST.LINEAR(A6,CHOOSE({1;2},$N$5,$M$9),CHOOSE({1;2},$A$5,$A$9))</f>
         <v>59.987158725823974</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>2024</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f t="shared" ref="B7:B8" si="4">(B$9-B$5)/4+B6</f>
         <v>222</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
         <v>88.800000000000011</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="1"/>
         <v>4.4400000000000048</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" ref="E7:E43" si="5">E6*(1+$J$18)</f>
         <v>156.95078400000003</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f>C7</f>
         <v>88.800000000000011</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="29">
         <f t="shared" si="2"/>
         <v>82.219643868037423</v>
       </c>
-      <c r="N7" s="31" t="str">
-        <v/>
-      </c>
-      <c r="O7" s="31">
+      <c r="N7" s="30" t="str">
+        <v/>
+      </c>
+      <c r="O7" s="30">
         <f>_xlfn.FORECAST.LINEAR(A7,CHOOSE({1;2},$N$5,$M$9),CHOOSE({1;2},$A$5,$A$9))</f>
         <v>88.138077451651043</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>2025</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
         <v>104.4</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
         <v>5.2200000000000051</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" si="5"/>
         <v>163.85661849600004</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f>C8</f>
         <v>104.4</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f>J16</f>
         <v>0.6</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="29">
         <f t="shared" si="2"/>
         <v>96.66363535836831</v>
       </c>
-      <c r="N8" s="31" t="str">
-        <v/>
-      </c>
-      <c r="O8" s="31">
+      <c r="N8" s="30" t="str">
+        <v/>
+      </c>
+      <c r="O8" s="30">
         <f>_xlfn.FORECAST.LINEAR(A8,CHOOSE({1;2},$N$5,$M$9),CHOOSE({1;2},$A$5,$A$9))</f>
         <v>116.28899617747811</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>2026</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>300</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="1"/>
         <v>6.0000000000000053</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" si="5"/>
         <v>171.06630970982405</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <f t="shared" ref="F9:F43" si="6">B9*(1-H9)</f>
         <v>156</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>20</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f>H$8/5*4</f>
         <v>0.48</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="29">
         <f t="shared" si="2"/>
         <v>144.43991490330896</v>
       </c>
-      <c r="N9" s="31" t="str">
-        <v/>
-      </c>
-      <c r="O9" s="31">
+      <c r="N9" s="30" t="str">
+        <v/>
+      </c>
+      <c r="O9" s="30">
         <f>_xlfn.FORECAST.LINEAR(A9,CHOOSE({1;2},$N$5,$M$9),CHOOSE({1;2},$A$5,$A$9))</f>
         <v>144.43991490330518</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>2027</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <f>(B$13-B$9)/4+B9</f>
         <v>337.5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="1"/>
         <v>6.7500000000000062</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="5"/>
         <v>178.59322733705631</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="6"/>
         <v>216</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="10">
+      <c r="G10" s="7"/>
+      <c r="H10" s="9">
         <f>H$8/5*3</f>
         <v>0.36</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="29">
         <f t="shared" si="2"/>
         <v>199.99372832765857</v>
       </c>
-      <c r="N10" s="31" t="str">
-        <v/>
-      </c>
-      <c r="O10" s="31">
+      <c r="N10" s="30" t="str">
+        <v/>
+      </c>
+      <c r="O10" s="30">
         <f>M10</f>
         <v>199.99372832765857</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2028</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <f t="shared" ref="B11:B12" si="7">(B$13-B$9)/4+B10</f>
         <v>375</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f t="shared" si="1"/>
         <v>7.5000000000000071</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f t="shared" si="5"/>
         <v>186.4513293398868</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="6"/>
         <v>285</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="10">
+      <c r="G11" s="7"/>
+      <c r="H11" s="9">
         <f>H$8/5*2</f>
         <v>0.24</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="29">
         <f t="shared" si="2"/>
         <v>263.8806137656606</v>
       </c>
-      <c r="N11" s="31" t="str">
-        <v/>
-      </c>
-      <c r="O11" s="31">
+      <c r="N11" s="30" t="str">
+        <v/>
+      </c>
+      <c r="O11" s="30">
         <f t="shared" ref="O11:O34" si="8">M11</f>
         <v>263.8806137656606</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>2029</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f t="shared" si="7"/>
         <v>412.5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" si="1"/>
         <v>8.2500000000000071</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f>E11*(1+$J$18)</f>
         <v>194.65518783084181</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="6"/>
         <v>363</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="10">
+      <c r="G12" s="7"/>
+      <c r="H12" s="9">
         <f>H$8/5*1</f>
         <v>0.12</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="29">
         <f t="shared" si="2"/>
         <v>336.10057121731506</v>
       </c>
-      <c r="N12" s="31" t="str">
-        <v/>
-      </c>
-      <c r="O12" s="31">
+      <c r="N12" s="30" t="str">
+        <v/>
+      </c>
+      <c r="O12" s="30">
         <f t="shared" si="8"/>
         <v>336.10057121731506</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2030</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f>G13*$J$15</f>
         <v>450</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f t="shared" si="1"/>
         <v>9.0000000000000071</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="5"/>
         <v>203.22001609539885</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="6"/>
         <v>450</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>30</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f>H$8/5*0</f>
         <v>0</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="29">
         <f t="shared" si="2"/>
         <v>416.65360068262203</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="30">
         <v>159.1</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="30">
         <f t="shared" si="8"/>
         <v>416.65360068262203</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2031</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f t="shared" ref="B14:B43" si="9">G14*$J$15</f>
         <v>514.28571428571422</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f t="shared" si="0"/>
         <v>205.71428571428569</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="1"/>
         <v>10.285714285714294</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="5"/>
         <v>212.16169680359641</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="6"/>
         <v>514.28571428571422</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f>G13+(G$34-G$13)/(A$34-A$13)</f>
         <v>34.285714285714285</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f t="shared" ref="H14:H43" si="10">H$8/5*0</f>
         <v>0</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="30">
+      <c r="J14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="29">
         <f t="shared" si="2"/>
         <v>476.1755436372822</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="30">
         <f t="shared" si="8"/>
         <v>476.1755436372822</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2032</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f t="shared" si="9"/>
         <v>578.57142857142856</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f t="shared" si="0"/>
         <v>231.42857142857144</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f t="shared" si="1"/>
         <v>11.571428571428582</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f t="shared" si="5"/>
         <v>221.49681146295467</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" si="6"/>
         <v>578.57142857142856</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <f t="shared" ref="G15:G33" si="11">G14+(G$34-G$13)/(A$34-A$13)</f>
         <v>38.571428571428569</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>15</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="30">
+      <c r="K15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="29">
         <f t="shared" si="2"/>
         <v>535.69748659194261</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="30">
         <f t="shared" si="8"/>
         <v>535.69748659194261</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2033</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <f t="shared" si="9"/>
         <v>642.85714285714278</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f t="shared" si="0"/>
         <v>257.14285714285711</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f t="shared" si="1"/>
         <v>12.857142857142867</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="5"/>
         <v>231.24267116732469</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" si="6"/>
         <v>642.85714285714278</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f t="shared" si="11"/>
         <v>42.857142857142854</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <v>0.6</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="30">
+      <c r="K16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="29">
         <f t="shared" si="2"/>
         <v>595.21942954660278</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="30">
         <f t="shared" si="8"/>
         <v>595.21942954660278</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2034</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <f t="shared" si="9"/>
         <v>707.14285714285711</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f t="shared" si="0"/>
         <v>282.85714285714283</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f t="shared" si="1"/>
         <v>14.142857142857155</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f t="shared" si="5"/>
         <v>241.41734869868699</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f t="shared" si="6"/>
         <v>707.14285714285711</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f t="shared" si="11"/>
         <v>47.142857142857139</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>0.95</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="30">
+      <c r="K17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="29">
         <f t="shared" si="2"/>
         <v>654.74137250126307</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="30">
         <f t="shared" si="8"/>
         <v>654.74137250126307</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>2035</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <f t="shared" si="9"/>
         <v>771.42857142857133</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
         <v>308.57142857142856</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f t="shared" si="1"/>
         <v>15.428571428571441</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f t="shared" si="5"/>
         <v>252.03971204142923</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f t="shared" si="6"/>
         <v>771.42857142857133</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <f t="shared" si="11"/>
         <v>51.428571428571423</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="30">
+      <c r="K18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="29">
         <f t="shared" si="2"/>
         <v>714.26331545592336</v>
       </c>
-      <c r="O18" s="31">
+      <c r="O18" s="30">
         <f t="shared" si="8"/>
         <v>714.26331545592336</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>2036</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <f t="shared" si="9"/>
         <v>835.71428571428567</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f t="shared" si="0"/>
         <v>334.28571428571428</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f t="shared" si="1"/>
         <v>16.71428571428573</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="5"/>
         <v>263.1294593712521</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="6"/>
         <v>835.71428571428567</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <f t="shared" si="11"/>
         <v>55.714285714285708</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="29">
         <f t="shared" si="2"/>
         <v>773.78525841058365</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="30">
         <f t="shared" si="8"/>
         <v>773.78525841058365</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>2037</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <f t="shared" si="9"/>
         <v>899.99999999999989</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f t="shared" si="1"/>
         <v>18.000000000000014</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f t="shared" si="5"/>
         <v>274.70715558358722</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f t="shared" si="6"/>
         <v>899.99999999999989</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <f t="shared" si="11"/>
         <v>59.999999999999993</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="29">
         <f t="shared" si="2"/>
         <v>833.30720136524394</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="30">
         <f t="shared" si="8"/>
         <v>833.30720136524394</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>2038</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <f t="shared" si="9"/>
         <v>964.28571428571422</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f t="shared" si="0"/>
         <v>385.71428571428572</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <f t="shared" si="1"/>
         <v>19.285714285714302</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f t="shared" si="5"/>
         <v>286.79427042926505</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f t="shared" si="6"/>
         <v>964.28571428571422</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <f t="shared" si="11"/>
         <v>64.285714285714278</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="29">
         <f t="shared" si="2"/>
         <v>892.82914431990423</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="30">
         <f t="shared" si="8"/>
         <v>892.82914431990423</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>2039</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <f t="shared" si="9"/>
         <v>1028.5714285714284</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f t="shared" si="0"/>
         <v>411.42857142857139</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f t="shared" si="1"/>
         <v>20.571428571428587</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f t="shared" si="5"/>
         <v>299.41321832815271</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f t="shared" si="6"/>
         <v>1028.5714285714284</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <f t="shared" si="11"/>
         <v>68.571428571428569</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="29">
         <f t="shared" si="2"/>
         <v>952.35108727456441</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="30">
         <f t="shared" si="8"/>
         <v>952.35108727456441</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>2040</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <f t="shared" si="9"/>
         <v>1092.8571428571429</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f t="shared" si="0"/>
         <v>437.14285714285717</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <f t="shared" si="1"/>
         <v>21.857142857142879</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f t="shared" si="5"/>
         <v>312.58739993459142</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f t="shared" si="6"/>
         <v>1092.8571428571429</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <f t="shared" si="11"/>
         <v>72.857142857142861</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M23" s="30">
+      <c r="M23" s="29">
         <f t="shared" si="2"/>
         <v>1011.8730302292249</v>
       </c>
-      <c r="O23" s="31">
+      <c r="O23" s="30">
         <f t="shared" si="8"/>
         <v>1011.8730302292249</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>2041</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <f t="shared" si="9"/>
         <v>1157.1428571428573</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <f t="shared" si="0"/>
         <v>462.85714285714295</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <f t="shared" si="1"/>
         <v>23.142857142857167</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <f t="shared" si="5"/>
         <v>326.34124553171347</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f t="shared" si="6"/>
         <v>1157.1428571428573</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <f t="shared" si="11"/>
         <v>77.142857142857153</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="29">
         <f t="shared" si="2"/>
         <v>1071.3949731838854</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="30">
         <f t="shared" si="8"/>
         <v>1071.3949731838854</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>2042</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <f t="shared" si="9"/>
         <v>1221.4285714285716</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <f t="shared" si="0"/>
         <v>488.57142857142867</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f t="shared" si="1"/>
         <v>24.428571428571455</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <f t="shared" si="5"/>
         <v>340.70026033510885</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <f t="shared" si="6"/>
         <v>1221.4285714285716</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <f t="shared" si="11"/>
         <v>81.428571428571445</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M25" s="30">
+      <c r="M25" s="29">
         <f t="shared" si="2"/>
         <v>1130.9169161385455</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="30">
         <f t="shared" si="8"/>
         <v>1130.9169161385455</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>2043</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <f t="shared" si="9"/>
         <v>1285.714285714286</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <f t="shared" si="0"/>
         <v>514.28571428571445</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <f t="shared" si="1"/>
         <v>25.714285714285744</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f t="shared" si="5"/>
         <v>355.69107178985365</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="6"/>
         <v>1285.714285714286</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <f t="shared" si="11"/>
         <v>85.714285714285737</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="29">
         <f t="shared" si="2"/>
         <v>1190.438859093206</v>
       </c>
-      <c r="O26" s="31">
+      <c r="O26" s="30">
         <f t="shared" si="8"/>
         <v>1190.438859093206</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>2044</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <f t="shared" si="9"/>
         <v>1350.0000000000005</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <f t="shared" si="0"/>
         <v>540.00000000000023</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <f t="shared" si="1"/>
         <v>27.000000000000036</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f t="shared" si="5"/>
         <v>371.34147894860723</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f t="shared" si="6"/>
         <v>1350.0000000000005</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <f t="shared" si="11"/>
         <v>90.000000000000028</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M27" s="30">
+      <c r="M27" s="29">
         <f t="shared" si="2"/>
         <v>1249.9608020478665</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O27" s="30">
         <f t="shared" si="8"/>
         <v>1249.9608020478665</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>2045</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <f t="shared" si="9"/>
         <v>1414.2857142857149</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <f t="shared" si="0"/>
         <v>565.71428571428601</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <f t="shared" si="1"/>
         <v>28.285714285714324</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f t="shared" si="5"/>
         <v>387.68050402234599</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <f t="shared" si="6"/>
         <v>1414.2857142857149</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <f t="shared" si="11"/>
         <v>94.28571428571432</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="29">
         <f t="shared" si="2"/>
         <v>1309.4827450025268</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="30">
         <f t="shared" si="8"/>
         <v>1309.4827450025268</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>2046</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <f t="shared" si="9"/>
         <v>1478.5714285714291</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <f t="shared" si="0"/>
         <v>591.42857142857167</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <f t="shared" si="1"/>
         <v>29.571428571428608</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f t="shared" si="5"/>
         <v>404.73844619932925</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <f t="shared" si="6"/>
         <v>1478.5714285714291</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <f t="shared" si="11"/>
         <v>98.571428571428612</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="29">
         <f t="shared" si="2"/>
         <v>1369.0046879571871</v>
       </c>
-      <c r="O29" s="31">
+      <c r="O29" s="30">
         <f t="shared" si="8"/>
         <v>1369.0046879571871</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>2047</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <f t="shared" si="9"/>
         <v>1542.8571428571436</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <f t="shared" si="0"/>
         <v>617.14285714285745</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <f t="shared" si="1"/>
         <v>30.8571428571429</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <f t="shared" si="5"/>
         <v>422.54693783209973</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <f t="shared" si="6"/>
         <v>1542.8571428571436</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <f t="shared" si="11"/>
         <v>102.8571428571429</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M30" s="30">
+      <c r="M30" s="29">
         <f t="shared" si="2"/>
         <v>1428.5266309118476</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="30">
         <f t="shared" si="8"/>
         <v>1428.5266309118476</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>2048</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <f t="shared" si="9"/>
         <v>1607.142857142858</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <f t="shared" si="0"/>
         <v>642.85714285714323</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <f t="shared" si="1"/>
         <v>32.142857142857189</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f t="shared" si="5"/>
         <v>441.13900309671214</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <f t="shared" si="6"/>
         <v>1607.142857142858</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <f t="shared" si="11"/>
         <v>107.1428571428572</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M31" s="30">
+      <c r="M31" s="29">
         <f t="shared" si="2"/>
         <v>1488.0485738665079</v>
       </c>
-      <c r="O31" s="31">
+      <c r="O31" s="30">
         <f t="shared" si="8"/>
         <v>1488.0485738665079</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>2049</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <f t="shared" si="9"/>
         <v>1671.4285714285722</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <f t="shared" si="0"/>
         <v>668.5714285714289</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <f t="shared" si="1"/>
         <v>33.428571428571473</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <f t="shared" si="5"/>
         <v>460.54911923296748</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <f t="shared" si="6"/>
         <v>1671.4285714285722</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <f t="shared" si="11"/>
         <v>111.42857142857149</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32" s="29">
         <f t="shared" si="2"/>
         <v>1547.5705168211682</v>
       </c>
-      <c r="O32" s="31">
+      <c r="O32" s="30">
         <f t="shared" si="8"/>
         <v>1547.5705168211682</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>2050</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <f t="shared" si="9"/>
         <v>1735.7142857142867</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <f t="shared" si="0"/>
         <v>694.28571428571468</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <f t="shared" si="1"/>
         <v>34.714285714285765</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <f t="shared" si="5"/>
         <v>480.81328047921807</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <f t="shared" si="6"/>
         <v>1735.7142857142867</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <f t="shared" si="11"/>
         <v>115.71428571428578</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M33" s="30">
+      <c r="M33" s="29">
         <f t="shared" si="2"/>
         <v>1607.0924597758287</v>
       </c>
-      <c r="O33" s="31">
+      <c r="O33" s="30">
         <f t="shared" si="8"/>
         <v>1607.0924597758287</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>2051</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <f t="shared" si="9"/>
         <v>1800</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <f t="shared" si="1"/>
         <v>36.000000000000028</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <f t="shared" si="5"/>
         <v>501.96906482030369</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <f t="shared" si="6"/>
         <v>1800</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <v>120</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M34" s="30">
+      <c r="M34" s="29">
         <f t="shared" si="2"/>
         <v>1666.6144027304881</v>
       </c>
-      <c r="O34" s="31">
+      <c r="O34" s="30">
         <f t="shared" si="8"/>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>2052</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <f t="shared" si="9"/>
         <v>1864.2857142857133</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <f t="shared" si="0"/>
         <v>745.71428571428532</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <f t="shared" si="1"/>
         <v>37.285714285714299</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <f t="shared" si="5"/>
         <v>524.05570367239704</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <f t="shared" si="6"/>
         <v>1864.2857142857133</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <f>G34+(G$34-G$33)</f>
         <v>124.28571428571422</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M35" s="30">
+      <c r="M35" s="29">
         <f t="shared" si="2"/>
         <v>1726.1363456851475</v>
       </c>
-      <c r="O35" s="31">
+      <c r="O35" s="30">
         <f>O34</f>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>2053</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <f t="shared" si="9"/>
         <v>1928.5714285714266</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <f t="shared" si="0"/>
         <v>771.42857142857065</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <f t="shared" si="1"/>
         <v>38.571428571428569</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <f t="shared" si="5"/>
         <v>547.11415463398248</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <f t="shared" si="6"/>
         <v>1928.5714285714266</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <f t="shared" ref="G36:G43" si="12">G35+(G$34-G$33)</f>
         <v>128.57142857142844</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M36" s="30">
+      <c r="M36" s="29">
         <f t="shared" si="2"/>
         <v>1785.6582886398069</v>
       </c>
-      <c r="O36" s="31">
+      <c r="O36" s="30">
         <f t="shared" ref="O36:O43" si="13">O35</f>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>2054</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <f t="shared" si="9"/>
         <v>1992.8571428571399</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <f t="shared" si="0"/>
         <v>797.14285714285597</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <f t="shared" si="1"/>
         <v>39.857142857142833</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <f t="shared" si="5"/>
         <v>571.18717743787772</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <f t="shared" si="6"/>
         <v>1992.8571428571399</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <f t="shared" si="12"/>
         <v>132.85714285714266</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37" s="29">
         <f t="shared" si="2"/>
         <v>1845.1802315944662</v>
       </c>
-      <c r="O37" s="31">
+      <c r="O37" s="30">
         <f t="shared" si="13"/>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>2055</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <f t="shared" si="9"/>
         <v>2057.1428571428532</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <f t="shared" si="0"/>
         <v>822.8571428571413</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <f t="shared" si="1"/>
         <v>41.142857142857103</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f t="shared" si="5"/>
         <v>596.31941324514435</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <f t="shared" si="6"/>
         <v>2057.1428571428532</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="7">
         <f t="shared" si="12"/>
         <v>137.14285714285688</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38" s="29">
         <f t="shared" si="2"/>
         <v>1904.7021745491256</v>
       </c>
-      <c r="O38" s="31">
+      <c r="O38" s="30">
         <f t="shared" si="13"/>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>2056</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <f t="shared" si="9"/>
         <v>2121.4285714285666</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <f t="shared" si="0"/>
         <v>848.57142857142662</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <f t="shared" si="1"/>
         <v>42.428571428571367</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <f t="shared" si="5"/>
         <v>622.55746742793076</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <f t="shared" si="6"/>
         <v>2121.4285714285666</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <f t="shared" si="12"/>
         <v>141.4285714285711</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M39" s="30">
+      <c r="M39" s="29">
         <f t="shared" si="2"/>
         <v>1964.224117503785</v>
       </c>
-      <c r="O39" s="31">
+      <c r="O39" s="30">
         <f t="shared" si="13"/>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>2057</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <f t="shared" si="9"/>
         <v>2185.7142857142799</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <f t="shared" si="0"/>
         <v>874.28571428571195</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <f t="shared" si="1"/>
         <v>43.714285714285637</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <f t="shared" si="5"/>
         <v>649.94999599475977</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <f t="shared" si="6"/>
         <v>2185.7142857142799</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <f t="shared" si="12"/>
         <v>145.71428571428532</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M40" s="30">
+      <c r="M40" s="29">
         <f t="shared" si="2"/>
         <v>2023.7460604584444</v>
       </c>
-      <c r="O40" s="31">
+      <c r="O40" s="30">
         <f t="shared" si="13"/>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>2058</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <f t="shared" si="9"/>
         <v>2249.9999999999932</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <f t="shared" si="0"/>
         <v>899.99999999999727</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <f t="shared" si="1"/>
         <v>44.999999999999901</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <f t="shared" si="5"/>
         <v>678.54779581852927</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <f t="shared" si="6"/>
         <v>2249.9999999999932</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="7">
         <f t="shared" si="12"/>
         <v>149.99999999999955</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M41" s="30">
+      <c r="M41" s="29">
         <f t="shared" si="2"/>
         <v>2083.2680034131035</v>
       </c>
-      <c r="O41" s="31">
+      <c r="O41" s="30">
         <f t="shared" si="13"/>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>2059</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <f t="shared" si="9"/>
         <v>2314.2857142857065</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <f t="shared" si="0"/>
         <v>925.7142857142826</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <f t="shared" si="1"/>
         <v>46.285714285714171</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <f t="shared" si="5"/>
         <v>708.40389883454463</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <f t="shared" si="6"/>
         <v>2314.2857142857065</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <f t="shared" si="12"/>
         <v>154.28571428571377</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M42" s="30">
+      <c r="M42" s="29">
         <f t="shared" si="2"/>
         <v>2142.7899463677632</v>
       </c>
-      <c r="O42" s="31">
+      <c r="O42" s="30">
         <f t="shared" si="13"/>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>2060</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <f t="shared" si="9"/>
         <v>2378.5714285714198</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <f t="shared" si="0"/>
         <v>951.42857142856792</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <f t="shared" si="1"/>
         <v>47.571428571428442</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <f t="shared" si="5"/>
         <v>739.57367038326458</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <f t="shared" si="6"/>
         <v>2378.5714285714198</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <f t="shared" si="12"/>
         <v>158.57142857142799</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M43" s="30">
+      <c r="M43" s="29">
         <f t="shared" si="2"/>
         <v>2202.3118893224223</v>
       </c>
-      <c r="O43" s="31">
+      <c r="O43" s="30">
         <f t="shared" si="13"/>
         <v>1666.6144027304881</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="5"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="5"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="5"/>
+      <c r="B59" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10182,7 +8342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4498FE-6132-4182-A978-4D1424908BA5}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -10195,187 +8355,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" style="4"/>
-    <col min="3" max="3" width="114.140625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="12.5703125" style="4"/>
+    <col min="1" max="2" width="12.5703125" style="3"/>
+    <col min="3" max="3" width="114.140625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="18.75">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="3:4" ht="18.75">
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="3:4" ht="18.75">
+      <c r="C4" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="24">
+      <c r="C8" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="31.5">
+      <c r="C13" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="31.5">
+      <c r="C14" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="24">
+      <c r="C15" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="18.75">
+      <c r="C20" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="17" t="s">
+    </row>
+    <row r="24" spans="3:3" ht="93.75">
+      <c r="C24" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="3:4">
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="3:4" ht="18.75">
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="3:4" ht="18.75">
-      <c r="C4" s="16" t="s">
+    <row r="25" spans="3:3" ht="81.75">
+      <c r="C25" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="4" t="s">
+    <row r="26" spans="3:3" ht="81.75">
+      <c r="C26" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="19" t="s">
+    <row r="27" spans="3:3" ht="27.75">
+      <c r="C27" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="19" t="s">
+    <row r="28" spans="3:3" ht="27.75">
+      <c r="C28" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="24">
-      <c r="C8" s="19" t="s">
+    <row r="29" spans="3:3" ht="63">
+      <c r="C29" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="19" t="s">
+    <row r="30" spans="3:3">
+      <c r="C30" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="20" t="s">
+    <row r="31" spans="3:3">
+      <c r="C31" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="19" t="s">
+    <row r="32" spans="3:3" ht="163.5">
+      <c r="C32" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="19" t="s">
+    <row r="33" spans="3:3" ht="36">
+      <c r="C33" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="3:4" ht="31.5">
-      <c r="C13" s="20" t="s">
+    <row r="34" spans="3:3" ht="235.5">
+      <c r="C34" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="3:4" ht="31.5">
-      <c r="C14" s="20" t="s">
+    <row r="35" spans="3:3" ht="118.5">
+      <c r="C35" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="3:4" ht="24">
-      <c r="C15" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" ht="18.75">
-      <c r="C20" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="93.75">
-      <c r="C24" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" ht="81.75">
-      <c r="C25" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" ht="81.75">
-      <c r="C26" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" ht="27.75">
-      <c r="C27" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" ht="27.75">
-      <c r="C28" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" ht="63">
-      <c r="C29" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" ht="163.5">
-      <c r="C32" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="36">
-      <c r="C33" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" ht="235.5">
-      <c r="C34" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" ht="118.5">
-      <c r="C35" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="29"/>
+      <c r="C36" s="28"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="29"/>
+      <c r="C37" s="28"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="29"/>
+      <c r="C38" s="28"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="29"/>
+      <c r="C39" s="28"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="29"/>
+      <c r="C40" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/suppxls/Scen_CTax.xlsx
+++ b/suppxls/Scen_CTax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AC2714-E748-4D59-8144-2D9EBAD6456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65E48DB-B879-4E5A-98B1-4E86E9666F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="1860" windowWidth="26610" windowHeight="13740" activeTab="1" xr2:uid="{7C70B42E-9201-48A9-B8F0-1466C79FDCED}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="26610" windowHeight="13740" activeTab="1" xr2:uid="{7C70B42E-9201-48A9-B8F0-1466C79FDCED}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2TaxInputs" sheetId="5" r:id="rId1"/>
@@ -667,10 +667,10 @@
     <t>Commodity</t>
   </si>
   <si>
-    <t>CO2EQS</t>
+    <t>CO2S</t>
   </si>
   <si>
-    <t>~TFM_INS</t>
+    <t>~TFM_INS-TS</t>
   </si>
 </sst>
 </file>
